--- a/outputs/tweets_search_output.xlsx
+++ b/outputs/tweets_search_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B501"/>
+  <dimension ref="A1:B500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,8 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>RT @SpaceToday1: Será que hoje a SpaceX consegue lançar o satélite Astra 1P? Vamos acompanhar essa tentativa!!!
-AVISO DE LIVE NO CANAL!!!…</t>
+          <t>Segura esse cartão da Nubank cheio de conta pra pagar kkkkll https://t.co/PcqMPW6moG</t>
         </is>
       </c>
     </row>
@@ -457,9 +456,9 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>@elonmusk Você se lembra de quando ingressou no X @xbr? Eu me lembro! #MeuAniversárioNoX 
-O ano era 2019, e havia muito interesse público🇺🇸 d ir a Marte👽 – mas eram necessários enormes avanços na tecnologia dos foguetes da @SpaceX ,@NASA
-https://t.co/6lPSiDvwLy //O 🦭#fOCAdoida https://t.co/fctiFSiM7q</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -469,7 +468,9 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SpaceX lança Astra 1P 'SES24' para operadora européia https://t.co/RJw6vxPCeo https://t.co/i6qdv6nDVS</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -479,8 +480,8 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SpaceX confirma o novo Starlink Mini por 599 dólares
-🔗 https://t.co/24S0uKw1MD https://t.co/BJjIXSbYRZ</t>
+          <t>RT @joaodomenech: Cancela Nubank
+A gente não pode tolerar isso https://t.co/CekMAIJGzn</t>
         </is>
       </c>
     </row>
@@ -490,8 +491,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>RT @MarceloFra71726: https://t.co/0CD1Dwu8As
-Mais uma grande missão da @SpaceX e imagine a rede social X @X sem essas missões tecnológicas…</t>
+          <t>RT @camsaudiovisual: a gestão de crise do nubank tá trabalhando https://t.co/1PVP61CeAD</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>@lara_ffc_ obrigada vou estar soltando os ratatouilles da spaceX</t>
+          <t>RT @MafinhaBarba: Eu estava esperando saber o que aconteceria com o cancelamento do Nubank pela esquerda. Digo isso porque ele é um caso pe…</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,8 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>@SpaceX Bravo</t>
+          <t>RT @PastorLiomar: Com o apoio ao @brasilparalelo eu já abri minha conta no @nubank e estou fazendo propaganda gratuita.
+#nubank https://t.c…</t>
         </is>
       </c>
     </row>
@@ -521,9 +522,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Astronautas amadores no espaço
-Pesquisadores do Trinity College Dublin avaliaram a reação corporal da primeira tripulação do Inspiration4 da SpaceX no espaço.
-#Kaarat #Kaarat_corretora #Kaarat_avaliacoes https://t.co/veWEmz7MeI</t>
+          <t>RT @slpng_giants_pt: 💣 BOMBA 💣 - Co-fundadora do Nubank Cristina Junqueira é conselheira de organização que é mantida pela Brasil Paralelo.…</t>
         </is>
       </c>
     </row>
@@ -533,7 +532,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>RT @GiilFaria: Enquanto uns lunaticos acham que vai ter Starbras, #Spacex mostrando como faz ( #Falcon9 )até foguete da ré!</t>
+          <t>RT @crimeenews: Peguei um empréstimo de 50 mil na Nubank e desinstalei o aplicativo https://t.co/h82N3Ys8bF</t>
         </is>
       </c>
     </row>
@@ -543,7 +542,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>@JoeTegtmeyer @SpaceX Maravilha incrível</t>
+          <t>@analelis @slpng_giants_pt @brparalerdo E não percebeu ainda que é exatamente esse achismo que a tua laia faz pra proteger os próprios?
+Contra drogas = Seif e Damarws com caminhao de droga
+Contra corrupção = SC com 27 prefeitos presos
+Nubank é da Anitta = Antro do Brasil Paralerdos
+Protegem a democracia = Tentam golpe</t>
         </is>
       </c>
     </row>
@@ -553,9 +556,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>@Support Comprei uma antena da spaceX que falaram estar na promoção, por $ 289 reais e até agora não me falaram quando receberei a
-Mesma e nem sequer me enviaram qualquer informação sobre minha compra e quando chegará, se é que vai chegar em
-Meu endereço</t>
+          <t>vamo quebrar as vidraça da agencia da nubank</t>
         </is>
       </c>
     </row>
@@ -565,7 +566,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>@linda_ungureanu @SpaceX newseroticablog</t>
+          <t>RT @ribeiromari13: nubank caiu, q a fatura do meu cartão caia junto 🙏🏼</t>
         </is>
       </c>
     </row>
@@ -575,7 +576,9 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>RT @RMarcilly1107: POR FAVOR, ME AJUDEM!! É UMA CIRURGIÃ DE URGÊNCIA PARA CONTER HEMORRAGIA INTERNA NO INTESTINO DELGADO!!! O custo aproxim…</t>
+          <t>RT @JornalDaCidadeO: A direita deve abraçar o Nubank, sem nenhum preconceito 
+https://t.co/3BELd7Y83b
+“Bancos que sempre apoiaram Lula quer…</t>
         </is>
       </c>
     </row>
@@ -585,8 +588,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>RT @bellanna: Cabou o meme, foguete tem ré!!!
-O cara lançou um satélite em órbita e pousou no oceano em uns 10min. FAZOELON!!🚀🚀🚀</t>
+          <t>RT @MafinhaBarba: Hoje, o Nubank atingiu seu ATH (All Time High), com as ações fechando a $11.99, um aumento de 2.52% em relação ao fechame…</t>
         </is>
       </c>
     </row>
@@ -596,7 +598,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>POR FAVOR, ME AJUDEM!! É UMA CIRURGIÃ DE URGÊNCIA PARA CONTER HEMORRAGIA INTERNA NO INTESTINO DELGADO!!! O custo aproximado é de 45 a 50 mil. @IgrejaUniversal @TP_ARABIA @SpaceX @elonmusk @vindiesel @TheRock @abalmojel https://t.co/UVdLxXlMSv</t>
+          <t>RT @patriaMAMADA: 🚨 #URGENTE: Nubank muda as cores da logomarca após apoio da extrema direita bolsonarista olavista do Brasil Paralelo. htt…</t>
         </is>
       </c>
     </row>
@@ -606,7 +608,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>@SpaceX @SES_Satellites Felicidades 🤗👏🎉🍾🥂👏🎉🔥🚀🔥❤👏🇺🇲🇺🇾</t>
+          <t>@Michael42929712 @nubank @elsinquisitive o meu tbm tá assim esse lixo</t>
         </is>
       </c>
     </row>
@@ -616,8 +618,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>RT @SpaceToday1: Será que hoje a SpaceX consegue lançar o satélite Astra 1P? Vamos acompanhar essa tentativa!!!
-AVISO DE LIVE NO CANAL!!!…</t>
+          <t>RT @eritonb: PRISÃO DO MITO? 
+Tentem prendê-lo para ver o que acontece! 
+Muita perseguição! 
+Bolsonaro em Goias x Lula no Ceará
+#Impeachme…</t>
         </is>
       </c>
     </row>
@@ -627,8 +632,8 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>RT @bellanna: Cabou o meme, foguete tem ré!!!
-O cara lançou um satélite em órbita e pousou no oceano em uns 10min. FAZOELON!!🚀🚀🚀</t>
+          <t>RT @TheInterceptBr: 1// Nubank 🤝 Brasil Paralelo
+Antes mesmo da CEO do @nubank  divulgar um evento promovido pela @brasilparalelo, o Inter…</t>
         </is>
       </c>
     </row>
@@ -638,7 +643,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Lançamento do foguete Falcon 9 no na Flórida com A missão Astra 1P https://t.co/H2hT8wulqA</t>
+          <t>banco do Brasil de me deu 1500 de crédito, bye-bye nubank</t>
         </is>
       </c>
     </row>
@@ -648,7 +653,9 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>@SirineAti @SpaceX @elonmusk Magnífico em seu explendor.</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -658,7 +665,9 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>RT @RACA3_BRASIL: A decolagem é tão legal!  🚀#RACA https://t.co/G3MqO128aD</t>
+          <t>RT @ICLNoticias: O jornalista Paulo Motoryn detalha as relações entre o Nubank e a extrema direita brasileira
+@opaulomm 
+Veja mais no Porta…</t>
         </is>
       </c>
     </row>
@@ -668,7 +677,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SpaceX estrena Starlink Mini portátil por 599 dólares #noticias #quenube #tecnologia #gadgets #tendencias https://t.co/ls1mQ04wBH</t>
+          <t>RT @eritonb: PRISÃO DO MITO? 
+Tentem prendê-lo para ver o que acontece! 
+Muita perseguição! 
+Bolsonaro em Goias x Lula no Ceará
+#Impeachme…</t>
         </is>
       </c>
     </row>
@@ -678,7 +691,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>@paposfut Pena que foi pela SpaceX</t>
+          <t>Oq está acontecendo com a Nubank 😩</t>
         </is>
       </c>
     </row>
@@ -688,8 +701,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>RT @bellanna: Cabou o meme, foguete tem ré!!!
-O cara lançou um satélite em órbita e pousou no oceano em uns 10min. FAZOELON!!🚀🚀🚀</t>
+          <t>@nubank @ancaroline__ Chegou ao extremo</t>
         </is>
       </c>
     </row>
@@ -699,7 +711,9 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>@SpaceX @SES_Satellites Que maravilha adoro vê esse tipo de tecnologia</t>
+          <t>RT @ICLNoticias: O jornalista Paulo Motoryn detalha as relações entre o Nubank e a extrema direita brasileira
+@opaulomm 
+Veja mais no Porta…</t>
         </is>
       </c>
     </row>
@@ -709,7 +723,9 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Que imagens da hora. https://t.co/2GunWSZf1Z</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -719,7 +735,8 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>@SpaceX @SES_Satellites Show imagens sensacionais</t>
+          <t>RT @DefecatingB: "VOU CANCELAR MINHA CONTA NUBANK!"
+Enzo "Guarani-Kaiowá" da Silva, 43 anos, sociólogo, escritor, solteiro, mora com a mãe…</t>
         </is>
       </c>
     </row>
@@ -729,8 +746,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: MAIS UM FALCON 9 LANÇADO!
-A SpaceX mandou um satélite para transmissão de TV europeu, que será colocado em uma Órbita G…</t>
+          <t>#nubank só o meu aplicativo q bugou??? Q q tá acontecendo hein???</t>
         </is>
       </c>
     </row>
@@ -740,8 +756,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Decolagem da Missão Astra 1P/SES-24 realizada com Sucesso 🥳🥳
-#spacex #Sucesso #twitchstreamer https://t.co/3c3u0WZN0g</t>
+          <t>Tô desatualizado o que houve com a nubank???</t>
         </is>
       </c>
     </row>
@@ -751,7 +766,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>@zonavasco @elonmusk Eu desafio o @elonmusk a comprar o Vasco, enfiar uns 20 jogadores numa spacex e enviar pra Marte.</t>
+          <t>RT @crimeenews: Peguei um empréstimo de 50 mil na Nubank e desinstalei o aplicativo https://t.co/h82N3Ys8bF</t>
         </is>
       </c>
     </row>
@@ -761,8 +776,8 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: MAIS UM FALCON 9 LANÇADO!
-A SpaceX mandou um satélite para transmissão de TV europeu, que será colocado em uma Órbita G…</t>
+          <t>@eta_nega @nathfinancas Felizmente bloqueei meu cartão desse banco HORROROSO, quitei o cartão e migrei para um banco de verdade.
+Quem perdeu foram vocês @nubank https://t.co/uYcIpsnKWk</t>
         </is>
       </c>
     </row>
@@ -772,8 +787,9 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>RT @bellanna: Cabou o meme, foguete tem ré!!!
-O cara lançou um satélite em órbita e pousou no oceano em uns 10min. FAZOELON!!🚀🚀🚀</t>
+          <t>RT @ICLNoticias: O jornalista Paulo Motoryn detalha as relações entre o Nubank e a extrema direita brasileira
+@opaulomm 
+Veja mais no Porta…</t>
         </is>
       </c>
     </row>
@@ -783,7 +799,8 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Mais novo integrante da SpaceX https://t.co/0HJGEhL1Cx</t>
+          <t>RT @slpng_giants_pt: ❗️ATUALIZAÇÃO❗️
+Além da polêmica da conexão entre a Co-fundadora do Nubank com a Brasil Paralelo e o Ranking dos Polí…</t>
         </is>
       </c>
     </row>
@@ -793,8 +810,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: MAIS UM FALCON 9 LANÇADO!
-A SpaceX mandou um satélite para transmissão de TV europeu, que será colocado em uma Órbita G…</t>
+          <t>@MafinhaBarba @omachoalpha Até lavradores roça tem conta no nubank, e só nele. Vá em um mercadinho de bairro e fique um tempinho perto do caixa, quase 100% das compras são pagas com o roxinho.</t>
         </is>
       </c>
     </row>
@@ -804,8 +820,9 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>RT @bellanna: Cabou o meme, foguete tem ré!!!
-O cara lançou um satélite em órbita e pousou no oceano em uns 10min. FAZOELON!!🚀🚀🚀</t>
+          <t>RT @ICLNoticias: O jornalista Paulo Motoryn detalha as relações entre o Nubank e a extrema direita brasileira
+@opaulomm 
+Veja mais no Porta…</t>
         </is>
       </c>
     </row>
@@ -815,8 +832,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>RT @bellanna: Cabou o meme, foguete tem ré!!!
-O cara lançou um satélite em órbita e pousou no oceano em uns 10min. FAZOELON!!🚀🚀🚀</t>
+          <t>RT @MafinhaBarba: Eu estava esperando saber o que aconteceria com o cancelamento do Nubank pela esquerda. Digo isso porque ele é um caso pe…</t>
         </is>
       </c>
     </row>
@@ -826,8 +842,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: MAIS UM FALCON 9 LANÇADO!
-A SpaceX mandou um satélite para transmissão de TV europeu, que será colocado em uma Órbita G…</t>
+          <t>RT @jesusccardoso_: Eu indo ver se foi só o meu Nubank que caiu: https://t.co/5GKWc0PwBw</t>
         </is>
       </c>
     </row>
@@ -837,7 +852,9 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>@SpaceToday1 não seria mais barato ser enviado por algum foguete da SpaceX?</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -847,7 +864,9 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>@SpaceX @SES_Satellites Perfeito 🤩</t>
+          <t>RT @ICLNoticias: O jornalista Paulo Motoryn detalha as relações entre o Nubank e a extrema direita brasileira
+@opaulomm 
+Veja mais no Porta…</t>
         </is>
       </c>
     </row>
@@ -857,7 +876,8 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>@JoeTegtmeyer @NASAArtemis @SpaceX Maravilha</t>
+          <t>IA no Nubank já define crédito e vai dar pitaco sobre gastos de clientes
+➡️ "Tudo que toca o cliente e seja uma decisão de negócio em escala tem algum sistema de IA", diz Victor Olivier, diretor de tecnologia do banco https://t.co/J4Ee076OKr</t>
         </is>
       </c>
     </row>
@@ -867,7 +887,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>@SpaceX Maravilhoso 🤩</t>
+          <t>RT @AuditoriaCidada: A reportagem publicada pela Invest News ressalta que, em 2023, o Nubank teve lucro líquido de US$ 1,196 bilhão, o que…</t>
         </is>
       </c>
     </row>
@@ -877,7 +897,9 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Falcon 9 completando seu 250º pouso. https://t.co/vIpvTOJ2b7</t>
+          <t>RT @ICLNoticias: O jornalista Paulo Motoryn detalha as relações entre o Nubank e a extrema direita brasileira
+@opaulomm 
+Veja mais no Porta…</t>
         </is>
       </c>
     </row>
@@ -887,8 +909,8 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MISSÃO SES ASTRA 1P | SPACEX https://t.co/LtPyuSfyTv via @YouTube 
-Colocando a casa em ordem, vamos começar a primeira reprise com a missão Astra 1P e logo depois o voo 50 do Electron</t>
+          <t>@nubank BLOQUEARAM MINHA CONTA E PEDEM 12 HORAS PARA RESOLVER. 
+Eu entrei em contato com o chat, veio uma mensagem falando que havia uma instabilidade no aplicativo e que eu deveria apagar e instalar ele de novo.</t>
         </is>
       </c>
     </row>
@@ -898,7 +920,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>@SES_Satellites @Thales_Alenia_S @SpaceX Uau um verdadeiro espetáculo</t>
+          <t>Descubra por que o Nubank virou alvo de ataques coordenados pela esquerda após publicação nas redes sociais</t>
         </is>
       </c>
     </row>
@@ -908,7 +930,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Sempre incrível.. Always amazing ❤️‍🔥 https://t.co/n9skfFsd8A</t>
+          <t>RT @MafinhaBarba: Eu estava esperando saber o que aconteceria com o cancelamento do Nubank pela esquerda. Digo isso porque ele é um caso pe…</t>
         </is>
       </c>
     </row>
@@ -918,9 +940,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>@SpaceX @elonmusk Simplesmente incrível.
-Parabéns Elon MUSK.
-E toda equipe</t>
+          <t>RT @HamiltonPozzi: Cancela Nubank que apoia Fascistas. https://t.co/NQgwgxaP99</t>
         </is>
       </c>
     </row>
@@ -930,7 +950,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Se na decolagem da Starahip fossem usados dois Boosters 1 em cima do outro e depois a nave em cima dos 2 Boosters haveria necessidade de reabastecimento para ir a Lua ? 😉👍 https://t.co/lds5eMVRxQ</t>
+          <t>RT @eritonb: PRISÃO DO MITO? 
+Tentem prendê-lo para ver o que acontece! 
+Muita perseguição! 
+Bolsonaro em Goias x Lula no Ceará
+#Impeachme…</t>
         </is>
       </c>
     </row>
@@ -940,8 +964,9 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>RT @BenPontesMBL: Graças à iniciativa privada, com destaque para a SpaceX do Elon Musk, o homem voltou a sonhar em desbravar os céus. 
-Enq…</t>
+          <t>RT @ICLNoticias: O jornalista Paulo Motoryn detalha as relações entre o Nubank e a extrema direita brasileira
+@opaulomm 
+Veja mais no Porta…</t>
         </is>
       </c>
     </row>
@@ -951,8 +976,9 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>RT @bellanna: Cabou o meme, foguete tem ré!!!
-O cara lançou um satélite em órbita e pousou no oceano em uns 10min. FAZOELON!!🚀🚀🚀</t>
+          <t>RT @ICLNoticias: O jornalista Paulo Motoryn detalha as relações entre o Nubank e a extrema direita brasileira
+@opaulomm 
+Veja mais no Porta…</t>
         </is>
       </c>
     </row>
@@ -962,7 +988,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>@SpaceX @elonmusk Olá me chamo André Barros  vcs precisam ver o que descobrimos. Tenho um escritório de pesquisa tecnológica e descobrimos uma nova forma de gerar energia que vai causar um impacto econômico e social em escala global sem precedentes, entra em contato comigo urgente.</t>
+          <t>@nubank Apoiadores da extrema direita Fascista , quebrando meu cartão. https://t.co/YSJyQwL6IV</t>
         </is>
       </c>
     </row>
@@ -972,8 +998,8 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>RT @bellanna: Cabou o meme, foguete tem ré!!!
-O cara lançou um satélite em órbita e pousou no oceano em uns 10min. FAZOELON!!🚀🚀🚀</t>
+          <t>@nubank Se der algum problema, vc entra em contado com o chat que resolve".
+Fui fazer a transferência. 2/</t>
         </is>
       </c>
     </row>
@@ -983,7 +1009,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>O crime se armou muito bem no tempo do coiso. Blindagem hoje tem que ser padrão SpaceX, tá ligado? Tipo aguenta de calor de plasma até impacto de meteoróide a 600km/s https://t.co/aernaUiKvq</t>
+          <t>Nubank tá de sacanagem com a minha cara</t>
         </is>
       </c>
     </row>
@@ -993,7 +1019,9 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>A Starship é uma espaçonave e foguete espacial de próxima geração em desenvolvimento pela SpaceX, financiada pela iniciativa privada e composta do veículo de lançamento (Super Heavy Booster) e espaçonave (Starship) completamente reutilizáveis. Foi anunciada por Elon Musk em… https://t.co/EckBMCOHXT https://t.co/LCCpj50GiU</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -1003,8 +1031,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: STARLINK MINI OFICIALMENTE ANUNCIADA!
-A SpaceX começará a vender a versão reduzida da sua antena para usuários antigos n…</t>
+          <t>RT @jesusccardoso_: Eu indo ver se foi só o meu Nubank que caiu: https://t.co/5GKWc0PwBw</t>
         </is>
       </c>
     </row>
@@ -1014,7 +1041,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>@JoeTegtmeyer @boringcompany @SpaceX Maravilha conhecimento e vida</t>
+          <t>RT @leokbelo13: Pessoal que está encerrando as contas no Nubank, essas empresas também estão com Bolsonaro: https://t.co/9RLeXq9Iaz</t>
         </is>
       </c>
     </row>
@@ -1024,8 +1051,9 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>RT @bellanna: Cabou o meme, foguete tem ré!!!
-O cara lançou um satélite em órbita e pousou no oceano em uns 10min. FAZOELON!!🚀🚀🚀</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -1035,8 +1063,10 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>RT @bellanna: Cabou o meme, foguete tem ré!!!
-O cara lançou um satélite em órbita e pousou no oceano em uns 10min. FAZOELON!!🚀🚀🚀</t>
+          <t>RT @mfbr58: NUBANK é o banco que melhor me atendeu em TODOS os sentidos.
+Não me cobra para ter uma conta,
+Não me cobra taxas e mais taxas
+T…</t>
         </is>
       </c>
     </row>
@@ -1046,8 +1076,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: MAIS UM FALCON 9 LANÇADO!
-A SpaceX mandou um satélite para transmissão de TV europeu, que será colocado em uma Órbita G…</t>
+          <t>RT @guinhowks: nubank caiu, banco porco https://t.co/ZhSeOq8g5c</t>
         </is>
       </c>
     </row>
@@ -1057,7 +1086,11 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Ainda bem, que temos a Spacex, fruto de um sonho que está se tornando realidade!</t>
+          <t>RT @eritonb: PRISÃO DO MITO? 
+Tentem prendê-lo para ver o que acontece! 
+Muita perseguição! 
+Bolsonaro em Goias x Lula no Ceará
+#Impeachme…</t>
         </is>
       </c>
     </row>
@@ -1067,8 +1100,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>O Falcon Heavy é um foguete de lançamento orbital desenvolvido pela SpaceX, empresa fundada por Elon Musk. Ele é considerado o foguete mais poderoso do mundo em operação e o maior desde o Saturn V, utilizado durante a Era de Ouro da Exploração Espacial.
-### Características… https://t.co/GI94CXpNu8 https://t.co/gBAe0AwrzJ</t>
+          <t>RT @eritonb: PRISÃO DO MITO? 
+Tentem prendê-lo para ver o que acontece! 
+Muita perseguição! 
+Bolsonaro em Goias x Lula no Ceará
+#Impeachme…</t>
         </is>
       </c>
     </row>
@@ -1078,7 +1114,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>@raiam700 É essa a empresa brasileira que vai concorrer com a spacex? ksksksks</t>
+          <t>Nubank se vc estar querendo me endividar vc me fala tá</t>
         </is>
       </c>
     </row>
@@ -1088,11 +1124,9 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>*LANÇAMENTO FALCON 9 - ASTRA 1P*
-✍Space Today
-https://t.co/6pzZx0JnQi
-Vamos acompanhar a tentativa de lançamento do foguete Falcon 9 da SpaceX levando o satélite de televisão Astra 1P para a SES, com sede em Luxemburgo.
-A decolagem do Complexo de Lançamento Espacial 40 na …</t>
+          <t>RT @ICLNoticias: O jornalista Paulo Motoryn detalha as relações entre o Nubank e a extrema direita brasileira
+@opaulomm 
+Veja mais no Porta…</t>
         </is>
       </c>
     </row>
@@ -1102,7 +1136,9 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>RT @GiilFaria: Enquanto uns lunaticos acham que vai ter Starbras, #Spacex mostrando como faz ( #Falcon9 )até foguete da ré!</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -1112,8 +1148,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: VÍDEO IMPRESSIONANTE DO SUPER HEAVY!
-A SpaceX divulgou imagens de uma câmera instalada em uma boia, o que mostra que o…</t>
+          <t>RT @leokbelo13: Pessoal que está encerrando as contas no Nubank, essas empresas também estão com Bolsonaro: https://t.co/9RLeXq9Iaz</t>
         </is>
       </c>
     </row>
@@ -1123,9 +1158,8 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>A cápsula espacial Dragon é um veículo de reabastecimento desenvolvido pela SpaceX, empresa fundada por Elon Musk. Ela é utilizada para transportar carga e astronautas para a Estação Espacial Internacional (ISS).
-### Características Principais
-- **Peso**: A cápsula Dragon tem… https://t.co/D5zWj6XAYg https://t.co/lUhRTSc5wz</t>
+          <t>@nubank hoje de manhã, eu mandei mensagem no chat do nubank informando que faria um pagamento de alto valor e queria saber o procedimento, se precisava avisar ao banco, deixar anotado ou alguma coisa. 
+A resposta do NUBANK foi apenas: "Não, é só fazer a transferência... 1/🧶</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1169,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: Faz 4 dias do lançamento do Starship com o pouso dos dois veículos, e a minha ficha ainda não caiu de que a SpaceX conse…</t>
+          <t>RT @KlingerEriceira: NUBANK SE ALIA A ORGANIZAÇÃO EXTREMISTA: banco digital se junta aos criminosos de produtora de conteúdo audiovisual qu…</t>
         </is>
       </c>
     </row>
@@ -1145,8 +1179,9 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>RT @bellanna: Cabou o meme, foguete tem ré!!!
-O cara lançou um satélite em órbita e pousou no oceano em uns 10min. FAZOELON!!🚀🚀🚀</t>
+          <t>RT @JornalDaCidadeO: A direita deve abraçar o Nubank, sem nenhum preconceito 
+https://t.co/3BELd7Y83b
+“Bancos que sempre apoiaram Lula quer…</t>
         </is>
       </c>
     </row>
@@ -1156,7 +1191,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Maravilha conhecimento e vida https://t.co/I2BJ7ZDuQ7</t>
+          <t>@BrunaSchneide Nubank tá praticamente falindo. Os analistas técnicos do mercado financeiro estão recomendando "venda forte" após esse boicote. https://t.co/oothLNq9c6</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1201,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>@SpaceX Maravilha conhecimento e vida</t>
+          <t>@mjcparaty @JoselitoDev @nubank Então tá</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1211,9 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>@SpaceToday1 Fala sergiao, eles estão aumentando o ritmo dos lancamentos? Seria bacana ter uma concorrente para a Spacex</t>
+          <t>Eu sou cliente do Nubank desde 2018.
+De lá pra cá: o app mudou, houveram novos serviços e opções …porém (i) nem todos os louros se devem ao “roxinho” (ex: o PIX, projeto do BACEN) e (ii) o SAC só piorou com o tempo!
+Nunca deixei de pagar a minha fatura em todos os anos. Em… https://t.co/8AEtdvJxVx https://t.co/8tEARR4gZ0</t>
         </is>
       </c>
     </row>
@@ -1186,7 +1223,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>O Falcon 9 é um foguete de lançamento orbital desenvolvido pela SpaceX, empresa fundada por Elon Musk. Ele é considerado um dos foguetes mais poderosos do mundo e é utilizado para transportar carga e astronautas para a Estação Espacial Internacional (ISS) e para a órbita… https://t.co/LIrnHeNjKr https://t.co/VhHEyV4vnw</t>
+          <t>Nubank fora do ar hoje? Entenda erro de login no app relatado por usuários https://t.co/oSwDOY0HRk</t>
         </is>
       </c>
     </row>
@@ -1196,7 +1233,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>@SpaceX @SES_Satellites Maravilha conhecimento e vida nos liberta</t>
+          <t>RT @fausttinorn: O cancelamento da Nubank! https://t.co/PPHpATUPoN</t>
         </is>
       </c>
     </row>
@@ -1206,8 +1243,9 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>RT @bellanna: Cabou o meme, foguete tem ré!!!
-O cara lançou um satélite em órbita e pousou no oceano em uns 10min. FAZOELON!!🚀🚀🚀</t>
+          <t>RT @ICLNoticias: O jornalista Paulo Motoryn detalha as relações entre o Nubank e a extrema direita brasileira
+@opaulomm 
+Veja mais no Porta…</t>
         </is>
       </c>
     </row>
@@ -1217,8 +1255,10 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>RT @bellanna: Cabou o meme, foguete tem ré!!!
-O cara lançou um satélite em órbita e pousou no oceano em uns 10min. FAZOELON!!🚀🚀🚀</t>
+          <t>RT @mfbr58: NUBANK é o banco que melhor me atendeu em TODOS os sentidos.
+Não me cobra para ter uma conta,
+Não me cobra taxas e mais taxas
+T…</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1268,9 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>A SpaceX é uma empresa Americana de sistemas aeroespaciais, transporte espacial e comunicações fundada em 2002 por Elon Musk. Sua sede está localizada em Hawthorne, Califórnia. A empresa tem como objetivo reduzir os custos de transporte espacial para permitir a colonização de… https://t.co/dfGPCIkuRv https://t.co/iwTNafuJPk</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -1238,7 +1280,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Maravilha conhecimento e vida nos liberta  https://t.co/80jpiLJs0p</t>
+          <t>Tô com ódio dessa nubank, na moral</t>
         </is>
       </c>
     </row>
@@ -1248,8 +1290,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>RT @bellanna: Cabou o meme, foguete tem ré!!!
-O cara lançou um satélite em órbita e pousou no oceano em uns 10min. FAZOELON!!🚀🚀🚀</t>
+          <t>RT @ribeiromari13: nubank caiu, q a fatura do meu cartão caia junto 🙏🏼</t>
         </is>
       </c>
     </row>
@@ -1259,8 +1300,9 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>RT @bellanna: Cabou o meme, foguete tem ré!!!
-O cara lançou um satélite em órbita e pousou no oceano em uns 10min. FAZOELON!!🚀🚀🚀</t>
+          <t>RT @ICLNoticias: O jornalista Paulo Motoryn detalha as relações entre o Nubank e a extrema direita brasileira
+@opaulomm 
+Veja mais no Porta…</t>
         </is>
       </c>
     </row>
@@ -1270,7 +1312,9 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>RT @GiilFaria: Enquanto uns lunaticos acham que vai ter Starbras, #Spacex mostrando como faz ( #Falcon9 )até foguete da ré!</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -1280,8 +1324,8 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>RT @bellanna: Cabou o meme, foguete tem ré!!!
-O cara lançou um satélite em órbita e pousou no oceano em uns 10min. FAZOELON!!🚀🚀🚀</t>
+          <t>RT @slpng_giants_pt: ❗️ATUALIZAÇÃO❗️
+Além da polêmica da conexão entre a Co-fundadora do Nubank com a Brasil Paralelo e o Ranking dos Polí…</t>
         </is>
       </c>
     </row>
@@ -1291,7 +1335,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Enquanto uns lunaticos acham que vai ter Starbras, #Spacex mostrando como faz ( #Falcon9 )até foguete da ré! https://t.co/qfoAsaEYmh</t>
+          <t>vou cancelar meu cartão de crédito da Nubank</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1345,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>@SpaceX Isso é incrível 😍🚀✍️👏👏👏👏</t>
+          <t>RT @crimeenews: Peguei um empréstimo de 50 mil na Nubank e desinstalei o aplicativo https://t.co/h82N3Ys8bF</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1355,9 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Lançamento do falcon 9 com a missão astra 1P https://t.co/23HkXfIxXM</t>
+          <t>RT @ICLNoticias: O jornalista Paulo Motoryn detalha as relações entre o Nubank e a extrema direita brasileira
+@opaulomm 
+Veja mais no Porta…</t>
         </is>
       </c>
     </row>
@@ -1321,8 +1367,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>RT @SpaceToday1: Será que hoje a SpaceX consegue lançar o satélite Astra 1P? Vamos acompanhar essa tentativa!!!
-AVISO DE LIVE NO CANAL!!!…</t>
+          <t>Tô querendo sair fora da nubank mas estou em dúvida em qual banco devo migrar</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1377,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Faz o Elon! Mais um lançada Falcon 9!🥳👏👏 https://t.co/wIsPuz4fMz</t>
+          <t>se a nubank falir minhas dívidas somem? se sim estarei na torcida ☝🏻😃</t>
         </is>
       </c>
     </row>
@@ -1342,8 +1387,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>RT @bellanna: Cabou o meme, foguete tem ré!!!
-O cara lançou um satélite em órbita e pousou no oceano em uns 10min. FAZOELON!!🚀🚀🚀</t>
+          <t>RT @crimeenews: Peguei um empréstimo de 50 mil na Nubank e desinstalei o aplicativo https://t.co/h82N3Ys8bF</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1397,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Es um verdadeiro milagre dentre milhares que virão  https://t.co/wfjXdLiFKI</t>
+          <t>RT @crimeenews: Peguei um empréstimo de 50 mil na Nubank e desinstalei o aplicativo https://t.co/h82N3Ys8bF</t>
         </is>
       </c>
     </row>
@@ -1363,8 +1407,8 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>RT @bellanna: Cabou o meme, foguete tem ré!!!
-O cara lançou um satélite em órbita e pousou no oceano em uns 10min. FAZOELON!!🚀🚀🚀</t>
+          <t>@ATROMBETA3 Co- fundadora da nubank agradece aos estelionatários , pilantras e mau pagadores , por fecharem suas contas ....
+E deixar pra gente honesta usar ....</t>
         </is>
       </c>
     </row>
@@ -1374,7 +1418,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>@SpaceX @SES_Satellites Show incrível em resumo sem palavras</t>
+          <t>RT @MafinhaBarba: Hoje, o Nubank atingiu seu ATH (All Time High), com as ações fechando a $11.99, um aumento de 2.52% em relação ao fechame…</t>
         </is>
       </c>
     </row>
@@ -1384,7 +1428,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Es um verdadeiro milagre dentre milhares que virão em resumo sem palavras  https://t.co/SbtfzrgZSD</t>
+          <t>PUBLICAMENTE RECLAMANDO DO NUBANK. SERÁ QUE AGORA VAI?</t>
         </is>
       </c>
     </row>
@@ -1394,8 +1438,9 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>RT @bellanna: Cabou o meme, foguete tem ré!!!
-O cara lançou um satélite em órbita e pousou no oceano em uns 10min. FAZOELON!!🚀🚀🚀</t>
+          <t>RT @ICLNoticias: O jornalista Paulo Motoryn detalha as relações entre o Nubank e a extrema direita brasileira
+@opaulomm 
+Veja mais no Porta…</t>
         </is>
       </c>
     </row>
@@ -1405,8 +1450,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>RT @bellanna: Cabou o meme, foguete tem ré!!!
-O cara lançou um satélite em órbita e pousou no oceano em uns 10min. FAZOELON!!🚀🚀🚀</t>
+          <t>Descubra por que o Nubank virou alvo de ataques coordenados pela esquerda após publicação nas redes sociais</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1460,9 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>@SpaceX Show verdadeiro espetáculo sem palavras isso não tem preço</t>
+          <t>RT @ICLNoticias: O jornalista Paulo Motoryn detalha as relações entre o Nubank e a extrema direita brasileira
+@opaulomm 
+Veja mais no Porta…</t>
         </is>
       </c>
     </row>
@@ -1426,7 +1472,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Maravilha sem palavras tudo isso graças ao empenho dedicação e nunca desistir que podemos testemunhar esse milagre de milhares que virão  https://t.co/4XSF6mx4NQ</t>
+          <t>@kal_levigal @eta_nega Cita pra mim qual burocracia tem no NUBANK?</t>
         </is>
       </c>
     </row>
@@ -1436,8 +1482,9 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>RT @bellanna: Cabou o meme, foguete tem ré!!!
-O cara lançou um satélite em órbita e pousou no oceano em uns 10min. FAZOELON!!🚀🚀🚀</t>
+          <t>RT @RoSelorosa: @SergioAJBarrett Olhem o Nubank aí, gente.
+De Brasil Paralelo a racista. Que combo.
+Cancela!</t>
         </is>
       </c>
     </row>
@@ -1447,8 +1494,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>RT @bellanna: Cabou o meme, foguete tem ré!!!
-O cara lançou um satélite em órbita e pousou no oceano em uns 10min. FAZOELON!!🚀🚀🚀</t>
+          <t>como que compra ingresso da furacão se o app da nubank nao abre😭😭😭😭</t>
         </is>
       </c>
     </row>
@@ -1458,8 +1504,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>RT @bellanna: Cabou o meme, foguete tem ré!!!
-O cara lançou um satélite em órbita e pousou no oceano em uns 10min. FAZOELON!!🚀🚀🚀</t>
+          <t>RT @SergioAJBarrett: É A Cristina Junqueira do Nubank Dizendo que Contratar Pessoas Negras Seria "NIVELAR POR BAIXO"? https://t.co/x1xBoETy…</t>
         </is>
       </c>
     </row>
@@ -1469,7 +1514,9 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>@SpaceX Sem palavras não me canso de ver que um milagre e capaz de fazer graças a te conhecimento</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -1479,8 +1526,8 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>RT @bellanna: Cabou o meme, foguete tem ré!!!
-O cara lançou um satélite em órbita e pousou no oceano em uns 10min. FAZOELON!!🚀🚀🚀</t>
+          <t>O q tá acontecendo contigo @nubank ? Ta entrando no padrão bancário brasileiro ?!
+Primeiro um bug no app, agora não abre de jeito nenhum (diz q manda código de acesso pro email cadastrado porém não chega) não decepciona os brazucas assim não !!!</t>
         </is>
       </c>
     </row>
@@ -1490,8 +1537,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>RT @bellanna: Cabou o meme, foguete tem ré!!!
-O cara lançou um satélite em órbita e pousou no oceano em uns 10min. FAZOELON!!🚀🚀🚀</t>
+          <t>RT @guinhowks: nubank caiu, banco porco https://t.co/ZhSeOq8g5c</t>
         </is>
       </c>
     </row>
@@ -1501,8 +1547,8 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>RT @bellanna: Cabou o meme, foguete tem ré!!!
-O cara lançou um satélite em órbita e pousou no oceano em uns 10min. FAZOELON!!🚀🚀🚀</t>
+          <t>RT @otimistaoficial: O Nubank acaba de anunciar que mais de 30.000 esquerdistas cancelaram suas contas.
+O prejuízo estimado pelo banco é R$…</t>
         </is>
       </c>
     </row>
@@ -1512,8 +1558,9 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>RT @bellanna: Cabou o meme, foguete tem ré!!!
-O cara lançou um satélite em órbita e pousou no oceano em uns 10min. FAZOELON!!🚀🚀🚀</t>
+          <t>Eu sou cliente do Nubank desde 2018.
+De lá pra cá: o app mudou, houveram novos serviços e opções …porém (i) nem todos os louros se devem ao “roxinho” (ex: o PIX, projeto do BACEN) e (ii) o SAC só piorou com o tempo!
+Nunca deixei de pagar a minha fatura em todos os anos. Em… https://t.co/KKgh6YugOC https://t.co/qkV4F5zSCK</t>
         </is>
       </c>
     </row>
@@ -1523,8 +1570,9 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>RT @bellanna: Cabou o meme, foguete tem ré!!!
-O cara lançou um satélite em órbita e pousou no oceano em uns 10min. FAZOELON!!🚀🚀🚀</t>
+          <t>RT @ICLNoticias: O jornalista Paulo Motoryn detalha as relações entre o Nubank e a extrema direita brasileira
+@opaulomm 
+Veja mais no Porta…</t>
         </is>
       </c>
     </row>
@@ -1534,8 +1582,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>RT @bellanna: Cabou o meme, foguete tem ré!!!
-O cara lançou um satélite em órbita e pousou no oceano em uns 10min. FAZOELON!!🚀🚀🚀</t>
+          <t>RT @Ricardo_Cd_Oliv: Cristina Junqueira, fundadora do Nubank, banco digital e start up avaliada em mais de 10 bilhões de dólares. Como semp…</t>
         </is>
       </c>
     </row>
@@ -1545,8 +1592,9 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>RT @bellanna: Cabou o meme, foguete tem ré!!!
-O cara lançou um satélite em órbita e pousou no oceano em uns 10min. FAZOELON!!🚀🚀🚀</t>
+          <t>Por que será? São tutti buona gente. :)
+E os grandes responsáveis por isso são a Abiogênese e os seres inescrupulosos do Reino Abissal, geradores e  apoiadores dessa classe de políticos. :)
+O STF  Moraes  Lira  Lula  PRISÃO DO MITO Nubank  André Valadão https://t.co/WBbhdtTCmU</t>
         </is>
       </c>
     </row>
@@ -1556,8 +1604,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Cabou o meme, foguete tem ré!!!
-O cara lançou um satélite em órbita e pousou no oceano em uns 10min. FAZOELON!!🚀🚀🚀 https://t.co/rcJQQbpjz6</t>
+          <t>pq cancelar o Nubank,tô por fora https://t.co/ZLKQULtqJs</t>
         </is>
       </c>
     </row>
@@ -1567,8 +1614,9 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: MAIS UM FALCON 9 LANÇADO!
-A SpaceX mandou um satélite para transmissão de TV europeu, que será colocado em uma Órbita G…</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -1578,8 +1626,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: MAIS UM FALCON 9 LANÇADO!
-A SpaceX mandou um satélite para transmissão de TV europeu, que será colocado em uma Órbita G…</t>
+          <t>@nubank libera meu limite já que sou sua cliente fiel há 5 anos . Cansada de ter 450 de limite  . Aí os que vocês aumentam limite abandonam vocês.</t>
         </is>
       </c>
     </row>
@@ -1589,8 +1636,8 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>MAIS UM FALCON 9 LANÇADO!
-A SpaceX mandou um satélite para transmissão de TV europeu, que será colocado em uma Órbita Geoestacionária. https://t.co/g9AboyDT7i</t>
+          <t>RT @realmacosta: 🚨GABINETE DO ÓDIO: Páginas de esquerda estão conduzindo uma campanha bizarra para cancelar o Nubank. 🤡
+É absurdo como ess…</t>
         </is>
       </c>
     </row>
@@ -1600,8 +1647,9 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>RT @AgenteDEL1984: 🇺🇸NÃO, NÃO SÃO ALIENS, APENAS SPACEX!!!
-Milhões de pessoas  no sul da Califórnia, Arizona e Utah testemunharam um rastr…</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -1611,7 +1659,9 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Amo muito isso.  Go 🚀 https://t.co/QzbC93gGNn</t>
+          <t>RT @ICLNoticias: O jornalista Paulo Motoryn detalha as relações entre o Nubank e a extrema direita brasileira
+@opaulomm 
+Veja mais no Porta…</t>
         </is>
       </c>
     </row>
@@ -1621,8 +1671,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>RT @bellanna: Cabou o meme, agora foguete tem ré!!!
-FAZOELON!!🚀🚀🚀</t>
+          <t>Acabei com meu limite da nubank e tô sem coragem de olhar os outros kkkkkkkkkkkkkkkkk</t>
         </is>
       </c>
     </row>
@@ -1632,7 +1681,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Maravilha conhecimento e vida https://t.co/UCBjaVWAQH</t>
+          <t>@madeinbajor Uso o mercado pago no tablet  que fica em casa pra deixar o dinheiro e deixo um valor no Nubank no cell pra caso precise comprar algo no pix</t>
         </is>
       </c>
     </row>
@@ -1642,7 +1691,10 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>@SpaceX Bravo 👏</t>
+          <t>RT @anarcovegana: Comendo um hambúrguer do Madero
+Num prato que comprei na Havan
+Assistindo Brasil Paralelo
+Pagando com o cartão da Nubank…</t>
         </is>
       </c>
     </row>
@@ -1652,7 +1704,9 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>@SpaceX @SES_Satellites Sem palavras isso não tem preço conhecimento e vida</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -1662,8 +1716,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>RT @MarceloFra71726: https://t.co/0CD1Dwu8As
-Mais uma grande missão da @SpaceX e imagine a rede social X @X sem essas missões tecnológicas…</t>
+          <t>RT @patriaMAMADA: 🚨 #URGENTE: Nubank muda as cores da logomarca após apoio da extrema direita bolsonarista olavista do Brasil Paralelo. htt…</t>
         </is>
       </c>
     </row>
@@ -1673,8 +1726,9 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Cabou o meme, agora foguete tem ré!!!
-FAZOELON!!🚀🚀🚀 https://t.co/rcJQQbpjz6</t>
+          <t>RT @ICLNoticias: O jornalista Paulo Motoryn detalha as relações entre o Nubank e a extrema direita brasileira
+@opaulomm 
+Veja mais no Porta…</t>
         </is>
       </c>
     </row>
@@ -1684,8 +1738,9 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>https://t.co/0CD1Dwu8As
-Mais uma grande missão da @SpaceX e imagine a rede social X @X sem essas missões tecnológicas de @elonmusk ,no tempo do Twitter era a chatice do esquerdista Jack Dorsey, fazemos parte da história do Planeta Terra.</t>
+          <t>Eu sou cliente do Nubank desde 2018.
+De lá pra cá: o app mudou, houveram novos serviços e opções …porém (i) nem todos os louros se devem ao “roxinho” (ex: o PIX, projeto do BACEN) e (ii) o SAC só piorou com o tempo!
+Nunca deixei de pagar a minha fatura em todos os anos. Em… https://t.co/bEjuIJ5eVI https://t.co/ZfRXtsv3yc</t>
         </is>
       </c>
     </row>
@@ -1695,7 +1750,9 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>RT @willptv: [Lançamento 62 SpaceX, 2024] Às 18:35 BRT do dia 20/06/2024, foi lançado o #Falcon9, no Cabo Canaveral, na #Florida, levando 1…</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -1705,7 +1762,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>[Lançamento 62 SpaceX, 2024] Às 18:35 BRT do dia 20/06/2024, foi lançado o #Falcon9, no Cabo Canaveral, na #Florida, levando 1 satélite de comunicação pela missão #SESAstra1P https://t.co/4LADZ9MoE0</t>
+          <t>E a nubank não me deixando acessar minha conta, é minha mãe me fazendo perder dinheiro, é minha vó dizendo que fui raqueada e por isso ela não usa Pix, mais um e eu mando elas duas pra pqp</t>
         </is>
       </c>
     </row>
@@ -1715,7 +1772,8 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Team Merica https://t.co/hHEipFQbjC</t>
+          <t>RT @otimistaoficial: O Nubank acaba de anunciar que mais de 30.000 esquerdistas cancelaram suas contas.
+O prejuízo estimado pelo banco é R$…</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1783,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>RT @RACA3_BRASIL: A decolagem é tão legal!  🚀#RACA https://t.co/G3MqO128aD</t>
+          <t>Eu já disse e vou repetir. A Nubank é um dos únicos “bancos” a fornecer um cartão de crédito para negativados. Vocês tem ideia que no Brasil, tem mais de 60M de pessoas endividadas? E tá subindo… então vocês acham que essas pessoas (eu) terão cartão e conta corrente dque banco? https://t.co/T7RwKfGgnc</t>
         </is>
       </c>
     </row>
@@ -1735,8 +1793,8 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: Começou o travamento da base da nova torre do Starship.
-As placas de concreto da lateral já estão sendo colocadas em pos…</t>
+          <t>Você está suspeitando se seu parceiro está te traindo? Posso ajudá-lo a hackear o Whatsapp dele ou qualquer outro aplicativo
+#brazil #portugal inglaterra #sansa Divertidamente 2 #Nubank #Argentina #VoleiNoSporTV veiga #Espanha AS TATUAGENS #Dantes Lucarelli #kyan vitória #Nicola https://t.co/0uAGHetwFy</t>
         </is>
       </c>
     </row>
@@ -1746,8 +1804,9 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>RT @SpaceToday1: Será que hoje a SpaceX consegue lançar o satélite Astra 1P? Vamos acompanhar essa tentativa!!!
-AVISO DE LIVE NO CANAL!!!…</t>
+          <t>RT @ICLNoticias: O jornalista Paulo Motoryn detalha as relações entre o Nubank e a extrema direita brasileira
+@opaulomm 
+Veja mais no Porta…</t>
         </is>
       </c>
     </row>
@@ -1757,8 +1816,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>RT @SpaceToday1: Será que hoje a SpaceX consegue lançar o satélite Astra 1P? Vamos acompanhar essa tentativa!!!
-AVISO DE LIVE NO CANAL!!!…</t>
+          <t>RT @Cunhaj_: Só minha Nubank está ruim ?</t>
         </is>
       </c>
     </row>
@@ -1768,7 +1826,9 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>@SpaceX @SES_Satellites florida?</t>
+          <t>@eta_nega Entendi...
+E você já tinha conta e cartão de lá? Com limite do que você queira? E te deram esse tanto de cashback sendo que você não era usuária assídua? TA BOM?
+FIC 3/10 pra incentivar trouxa a sair do NUBANK achando que vai ganhar cashback desse jeito aí 🤣🤣🤣</t>
         </is>
       </c>
     </row>
@@ -1778,8 +1838,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>RT @ZEZINHOSPACE: 🔴 STARSHIP MUDOU A ECONOMIA DE UM CONDADO INTEIRO! 
-O Condado de Cameron compartilhou as estatísticas mais recentes sobr…</t>
+          <t>enquanto a co-fundadora do Nubank fortalece o brasilparalelo, o banco em si... investe em eventos da esquerda... PretaHub é uma delas. https://t.co/rQqnRvBbdy</t>
         </is>
       </c>
     </row>
@@ -1789,8 +1848,15 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>RT @SpaceToday1: Será que hoje a SpaceX consegue lançar o satélite Astra 1P? Vamos acompanhar essa tentativa!!!
-AVISO DE LIVE NO CANAL!!!…</t>
+          <t>Parece que tem que ser mentiroso como o chefe pra virar assessor do Danones: https://t.co/I2Zapj4ZRv…
+🇧🇷🇮🇱🇺🇦🇵🇹
+Jair Bolsonaro Zucco
+Argentina Ucrânia Polônia
+Campos Neto Copom
+Nubank Allan Diniz
+🚨
+VIVA O SUS Moraes Toffoli Pablo Marçal ARROZÃO 🌽 MILHÃO
+https://t.co/68uuvYyJVf</t>
         </is>
       </c>
     </row>
@@ -1800,9 +1866,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Será que hoje a SpaceX consegue lançar o satélite Astra 1P? Vamos acompanhar essa tentativa!!!
-AVISO DE LIVE NO CANAL!!!
-LANÇAMENTO FALCON 9 - ASTRA 1P - https://t.co/LE3M4uYDkx https://t.co/9MkGFXng2D</t>
+          <t>@nubank , não quero cancelar meu cartão.. só quero acessar minha conta pra pagar boletos!!! Please, pluga o cabo e libera o app rs 😉💜</t>
         </is>
       </c>
     </row>
@@ -1812,10 +1876,9 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Regra : foguete não dá ré 
-Salvo : foguete do @elonmusk 
-Ainda bem que em Marte não vai ter a GLOBOLIXO 📺
-Elon: “Na SpaceX, nos especializamos em converter coisas de impossíveis em tardias.” https://t.co/EMpRoGu7O6</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -1825,7 +1888,9 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>@Kabulozocensura Foi uma spaceX kkkk</t>
+          <t>RT @JornalDaCidadeO: A direita deve abraçar o Nubank, sem nenhum preconceito 
+https://t.co/3BELd7Y83b
+“Bancos que sempre apoiaram Lula quer…</t>
         </is>
       </c>
     </row>
@@ -1835,7 +1900,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>@elonmusk @SpaceX @Starlink @NASA @esa 📲Teoria Dos MULTIVERSOS;Proposta pelo físico Hugh Everett, em 1957, a interpretação enxerga a teoria do multiverso de maneira matemática. O físico prevê linhas de tempo ramificadas, chamadas de realidades alternativas, onde as  decisões https://t.co/GCfu5QxOSO</t>
+          <t>RT @Mariada00801445: Excelente vídeo do @ICLNoticias . Eduardo Moreira explica os motivos pq vc deve cancelar a sua conta do Nubank. https:…</t>
         </is>
       </c>
     </row>
@@ -1845,7 +1910,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>@Xgordaoucrania Meu patrimônio está na maior parte, dolarizado. Então, espero que o painho se reeleja e o dólar suba de SpaceX</t>
+          <t>RT @slpng_giants_pt: 💣 BOMBA 💣 - Co-fundadora do Nubank Cristina Junqueira é conselheira de organização que é mantida pela Brasil Paralelo.…</t>
         </is>
       </c>
     </row>
@@ -1855,8 +1920,11 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>RT @BenPontesMBL: Graças à iniciativa privada, com destaque para a SpaceX do Elon Musk, o homem voltou a sonhar em desbravar os céus. 
-Enq…</t>
+          <t>NUBANK é o banco que melhor me atendeu em TODOS os sentidos.
+Não me cobra para ter uma conta,
+Não me cobra taxas e mais taxas
+Tenho conta pessoa física e jurídica
+Sou NUBANK</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1934,9 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>@cacaroto_7 @AQUELECARA @thiagolopesds Não man. Era apenas um treinamento espacial. O foguete vai voltar igual spacex.</t>
+          <t>RT @ICLNoticias: O jornalista Paulo Motoryn detalha as relações entre o Nubank e a extrema direita brasileira
+@opaulomm 
+Veja mais no Porta…</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1946,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>@AQUELECARA Programa Espacial do Lule que vai quebrar a SpaceX, do Elinho Musk.</t>
+          <t>@guinhowks by by nubank . fascistas imundos</t>
         </is>
       </c>
     </row>
@@ -1886,7 +1956,9 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>@AQUELECARA Hélio Musquen botou Lule na spaceX</t>
+          <t>RT @ICLNoticias: O jornalista Paulo Motoryn detalha as relações entre o Nubank e a extrema direita brasileira
+@opaulomm 
+Veja mais no Porta…</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1968,9 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>@raiam700 Hélio Musquen botou Lule na spaceX</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -1906,8 +1980,9 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>#ApaixonadosPelaMusica #EsquerdaAtacaDireitaElonMuskdefende #SosRioGrandeDoSul  STARSHIP STARLINK TESLA SPACEX ELON MUSK parabéns Show de atitude #nãoabôrto #foracnnbandglobolixochorume,  AGÊNCIA DE CARGAS BHMG E LONEIRO LAURINDO 31 98110-4477
- https://t.co/aR4Y2JFOTW</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -1917,8 +1992,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>#ApaixonadosPelaMusica #EsquerdaAtacaDireitaElonMuskdefende #SosRioGrandeDoSul  STARSHIP STARLINK TESLA SPACEX ELON MUSK parabéns Show de atitude. #nãoabôrto  , AGÊNCIA DE CARGAS BHMG E LONEIRO LAURINDO 31 98110-4477 MOTOCASA ÔNIBUS Vende-se 
-https://t.co/Ssv7q7ufgA</t>
+          <t>RT @guinhowks: nubank caiu, banco porco https://t.co/ZhSeOq8g5c</t>
         </is>
       </c>
     </row>
@@ -1928,8 +2002,9 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>#ApaixonadosPelaMusica #EsquerdaAtacaDireitaElonMuskdefende #SosRioGrandeDoSul  STARSHIP STARLINK TESLA SPACEX ELON MUSK parabéns Show de atit 357$stfilhosertest AGÊNCIA DE CARGAS BHMG E LONEIRO LAURINDO 31 98110-4477/99970-8557 MOTOCASA ÔNIBUS Vende-se 
- https://t.co/HFDbQgIQCy</t>
+          <t>Posso ajudá-lo a obter acesso a qualquer conta tiktok que desejar
+Envie-me uma mensagem agora
+#brazil #portugal inglaterra #sansa Divertidamente 2 #Nubank #Argentina #VoleiNoSporTV veiga #Espanha AS TATUAGENS #Dantes Lucarelli #kyan vitória #Nicola lorde #CasamentoÀsCegasBrasil https://t.co/bHxvFPdOLt</t>
         </is>
       </c>
     </row>
@@ -1939,7 +2014,9 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Esse dólar não é foguete da Spacex 5,45</t>
+          <t>RT @ICLNoticias: O jornalista Paulo Motoryn detalha as relações entre o Nubank e a extrema direita brasileira
+@opaulomm 
+Veja mais no Porta…</t>
         </is>
       </c>
     </row>
@@ -1949,7 +2026,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>@SpaceX Magnífico, espetáculo 👏👏👏👏👏👏</t>
+          <t>RT @crimeenews: Peguei um empréstimo de 50 mil na Nubank e desinstalei o aplicativo https://t.co/h82N3Ys8bF</t>
         </is>
       </c>
     </row>
@@ -1959,7 +2036,10 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>RT @SanCab05: @Jefinhoboladim @thais @2rpreto O Elon Musk é pobre, ele trabalha na SpaceX e no Twitter</t>
+          <t>RT @anarcovegana: Comendo um hambúrguer do Madero
+Num prato que comprei na Havan
+Assistindo Brasil Paralelo
+Pagando com o cartão da Nubank…</t>
         </is>
       </c>
     </row>
@@ -1969,7 +2049,9 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>@GrindeOptions xAI as SpaceX is capital intensive</t>
+          <t>RT @ICLNoticias: O jornalista Paulo Motoryn detalha as relações entre o Nubank e a extrema direita brasileira
+@opaulomm 
+Veja mais no Porta…</t>
         </is>
       </c>
     </row>
@@ -1979,8 +2061,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: STARLINK MINI OFICIALMENTE ANUNCIADA!
-A SpaceX começará a vender a versão reduzida da sua antena para usuários antigos n…</t>
+          <t>RT @PioorVersao: Primeiro EU, depois o Itaú, o Bradesco, a Nubank, a pensão, minha mãe, os 2 agiotas e minha irmã. Devendo muito e bebendo…</t>
         </is>
       </c>
     </row>
@@ -1990,7 +2071,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>RT @Mariade22366064: @SpaceX @SES_Satellites Sem palavras</t>
+          <t>RT @guinhowks: nubank caiu, banco porco https://t.co/ZhSeOq8g5c</t>
         </is>
       </c>
     </row>
@@ -2000,7 +2081,11 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>RT @Mariade22366064: @SpaceX @SES_Satellites Uau sem palavras incríveis imagens</t>
+          <t>RT @eritonb: PRISÃO DO MITO? 
+Tentem prendê-lo para ver o que acontece! 
+Muita perseguição! 
+Bolsonaro em Goias x Lula no Ceará
+#Impeachme…</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2095,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>@LLL_SpaceX No dia do lançamento, usei o link do grupo vip, 7:05 da noite eu já tinha efetuado a compra e até agora nada kkk</t>
+          <t>NUBANK é o banco que melhor me atendeu em TODOS os sentidos.</t>
         </is>
       </c>
     </row>
@@ -2020,8 +2105,9 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>@LLL_SpaceX Sabe qual é o email que entra em contato com eles?
-Eu comprei o uniforme mas ainda não recebi o código de rastreio</t>
+          <t>Posso ajudá-lo a recuperar sua conta tiktok desativada
+Envie-me uma mensagem agora
+#brazil #portugal inglaterra #sansa Divertidamente 2 #Nubank #Argentina #VoleiNoSporTV veiga #Espanha AS TATUAGENS #Dantes Lucarelli #kyan vitória #Nicola lorde #CasamentoÀsCegasBrasil #hackeado https://t.co/aKKimOXt8F</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2117,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>RT @PlinioTecnolog2: @SpaceX Aqui no Brasil estou aguardando a implantação dessa tecnologia, para impulsionar a minha empresa de rastreamen…</t>
+          <t>A direita deve abraçar o Nubank, sem nenhum preconceito https://t.co/gSvkoXJGN5</t>
         </is>
       </c>
     </row>
@@ -2041,7 +2127,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>SpaceX pretende lançar serviço móvel da Starlink neste outono https://t.co/CfhMtvOqaW</t>
+          <t>a nubank quer me ver no serasa, aumentou 2k do meu limite…</t>
         </is>
       </c>
     </row>
@@ -2051,8 +2137,8 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: FALCON 9 ADIADO! 
-O lançamento da missão Astra 1P para a SES foi cancelado devido ao clima desfavorável, uma nova tentat…</t>
+          <t>@BrunaSchneide A esquerda só tem imbecis e tá cheia de corruptos...
+https://t.co/gA5k713CZU</t>
         </is>
       </c>
     </row>
@@ -2062,7 +2148,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>@Jefinhoboladim @thais @2rpreto O Elon Musk é pobre, ele trabalha na SpaceX e no Twitter</t>
+          <t>@nubank Quais canais pq nao to achando um</t>
         </is>
       </c>
     </row>
@@ -2072,8 +2158,9 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: STARLINK MINI OFICIALMENTE ANUNCIADA!
-A SpaceX começará a vender a versão reduzida da sua antena para usuários antigos n…</t>
+          <t>Posso ajudá-lo a recuperar sua conta do Facebook desativada
+Envie-me uma mensagem agora
+#brazil #portugal inglaterra #sansa Divertidamente 2 #Nubank #Argentina #VoleiNoSporTV veiga #Espanha AS TATUAGENS #Dantes Lucarelli #kyan vitória #Nicola lorde #CasamentoÀsCegasBrasil #hack https://t.co/1sd7DlA8Oy</t>
         </is>
       </c>
     </row>
@@ -2083,7 +2170,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>RT @Engenharia360: A startup americana Alef Aeronautics, apoiada pela #SpaceX, lançou o Alef Model A, um eVTOL futurista que combina a prat…</t>
+          <t>e nada do nubank aumentar meu limite q saco</t>
         </is>
       </c>
     </row>
@@ -2093,8 +2180,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: STARLINK MINI OFICIALMENTE ANUNCIADA!
-A SpaceX começará a vender a versão reduzida da sua antena para usuários antigos n…</t>
+          <t>Devendo ao nubank e ao Neon, meu nome mais sujo que tudo e eu simplesmente fingindo que tá acontecendo nada, que Deus os pague kkkkkkk</t>
         </is>
       </c>
     </row>
@@ -2104,8 +2190,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>As descobertas podem comprometer os planos da SpaceX e da Nasa de enviar tripulantes ao planeta vizinho nas próximas décadas, visto o tempo de exposição: "Eu diria que eles vão precisar de diálise no caminho de volta", disse um dos autores do estudo
-https://t.co/qoUWbcvyyO</t>
+          <t>RT @HamiltonPozzi: Cancela Nubank que apoia Fascistas. https://t.co/NQgwgxaP99</t>
         </is>
       </c>
     </row>
@@ -2115,8 +2200,8 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>@LLL_SpaceX Pelo menos a sua tá saindo de São Paulo, já o meu pedido tá sendo processado ainda ksksksks 
-Nem ideia de quando vai chegar</t>
+          <t>O jornalista Paulo Motoryn detalha as relações entre o Nubank e a extrem... 
+https://t.co/uCJ8dGgQAD via @YouTube</t>
         </is>
       </c>
     </row>
@@ -2126,9 +2211,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>@vhsliberal @thunderf00t Lol
-Mas tu achas que se para a spacex reutilizável não fosse mais barato que expendable, eles continuavam a usar reutilizáveis?
-Não me faças rir 😂</t>
+          <t>RT @MafinhaBarba: Hoje, o Nubank atingiu seu ATH (All Time High), com as ações fechando a $11.99, um aumento de 2.52% em relação ao fechame…</t>
         </is>
       </c>
     </row>
@@ -2138,9 +2221,8 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>@pquesado @thunderf00t Mas já que falaste da concorrência.
-https://t.co/2hZTL3fszC
-ao contrário da spacex que anda a brincar com um tubo que parece o space shuttle que mal consegue ficar em órbita, tens aí concorrente. Vão conseguir mandar o dobro da carga por quase o mesmo preço😜</t>
+          <t>Enquanto isso, a "crise do nubank"!
+kkkkkkkkk https://t.co/BbGjzSVDsj</t>
         </is>
       </c>
     </row>
@@ -2150,8 +2232,11 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>RT @Ronnyouxay: ELON REVELA NOVOS DETALHES DO MINI STARLINK
-O novo dispositivo da SpaceX tem aproximadamente o tamanho de um laptop e é po…</t>
+          <t>RT @eritonb: PRISÃO DO MITO? 
+Tentem prendê-lo para ver o que acontece! 
+Muita perseguição! 
+Bolsonaro em Goias x Lula no Ceará
+#Impeachme…</t>
         </is>
       </c>
     </row>
@@ -2161,7 +2246,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>@DepSostenes Seu projeto foi para o espaço na #SpaceX, essa atrocidade foi sumariamente REJEITADA pela população, só restou tirar o time de campo e replanejar uma nova maldade!</t>
+          <t>Já sou Nubank https://t.co/ZR6ftXMjFa</t>
         </is>
       </c>
     </row>
@@ -2171,11 +2256,8 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>@vhsliberal @thunderf00t lol
-Mas tu achas mesmo que para a spacex os rockets reutilizáveis ficam mais caros que expendable? 
-O preço por kg é mais caro porque a SpaceX cobra praticamente o mesmo quer use rocket reutilizado ou não 
-Continua a ser mais barato que a concorrência 
-https://t.co/WdkZFkZzYi</t>
+          <t>#ForaLula #impeachment #censura #democracia #Brasil #Brazil #help #US #bolsonaro #lula #JN #OSF
+CHORA PETISTA: Nubank se une a Brasil Paralelo e esquerda tenta fazer boicote mas dá tudo errado! - YouTube https://t.co/CqfwFzaa4r</t>
         </is>
       </c>
     </row>
@@ -2185,7 +2267,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>RT @RACA3_BRASIL: A decolagem é tão legal!  🚀#RACA https://t.co/G3MqO128aD</t>
+          <t>RT @jesusccardoso_: Eu indo ver se foi só o meu Nubank que caiu: https://t.co/5GKWc0PwBw</t>
         </is>
       </c>
     </row>
@@ -2195,8 +2277,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>RT @AgenteDEL1984: 🇺🇸NÃO, NÃO SÃO ALIENS, APENAS SPACEX!!!
-Milhões de pessoas  no sul da Califórnia, Arizona e Utah testemunharam um rastr…</t>
+          <t>RT @ErikakHilton: E as relações do Nubank com Konrad Scorciapino, diretor do Brasil Paralelo e criador de um site de porn*grafia infant*l s…</t>
         </is>
       </c>
     </row>
@@ -2206,8 +2287,9 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: STARLINK MINI OFICIALMENTE ANUNCIADA!
-A SpaceX começará a vender a versão reduzida da sua antena para usuários antigos n…</t>
+          <t>Posso ajudá-lo a recuperar sua conta do Instagram desativada
+Envie-me uma mensagem agora
+#brazil #portugal inglaterra #sansa Divertidamente 2 #Nubank #Argentina #VoleiNoSporTV veiga #Espanha AS TATUAGENS #Dantes Lucarelli #kyan vitória #Nicola lorde #CasamentoÀsCegasBrasil #hack https://t.co/KF2HAvpkH9</t>
         </is>
       </c>
     </row>
@@ -2217,7 +2299,9 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>RT @RACA3_BRASIL: A decolagem é tão legal!  🚀#RACA https://t.co/G3MqO128aD</t>
+          <t>RT @ICLNoticias: O jornalista Paulo Motoryn detalha as relações entre o Nubank e a extrema direita brasileira
+@opaulomm 
+Veja mais no Porta…</t>
         </is>
       </c>
     </row>
@@ -2227,8 +2311,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: STARLINK MINI OFICIALMENTE ANUNCIADA!
-A SpaceX começará a vender a versão reduzida da sua antena para usuários antigos n…</t>
+          <t>@nubank @graziouropreto O meu tá desse mesmo jeito</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2321,9 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>RT @RACA3_BRASIL: A decolagem é tão legal!  🚀#RACA https://t.co/G3MqO128aD</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -2248,7 +2333,11 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>RT @RACA3_BRASIL: A decolagem é tão legal!  🚀#RACA https://t.co/G3MqO128aD</t>
+          <t>RT @eritonb: PRISÃO DO MITO? 
+Tentem prendê-lo para ver o que acontece! 
+Muita perseguição! 
+Bolsonaro em Goias x Lula no Ceará
+#Impeachme…</t>
         </is>
       </c>
     </row>
@@ -2258,8 +2347,8 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Os satélites Starlink da SpaceX podem estar destruindo a camada de ozônio
-Quando satélites obsoletos entram novamente na atmosfera da Terra e se desintegram, libertam pequenas partículas de óxido de alumínio que erodem a camada de ozono da Terra. https://t.co/5w6qJxQnBZ</t>
+          <t>RT @otimistaoficial: O Nubank acaba de anunciar que mais de 30.000 esquerdistas cancelaram suas contas.
+O prejuízo estimado pelo banco é R$…</t>
         </is>
       </c>
     </row>
@@ -2269,8 +2358,9 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: STARLINK MINI OFICIALMENTE ANUNCIADA!
-A SpaceX começará a vender a versão reduzida da sua antena para usuários antigos n…</t>
+          <t>RT @JornalDaCidadeO: A direita deve abraçar o Nubank, sem nenhum preconceito 
+https://t.co/3BELd7Y83b
+“Bancos que sempre apoiaram Lula quer…</t>
         </is>
       </c>
     </row>
@@ -2280,8 +2370,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: STARLINK MINI OFICIALMENTE ANUNCIADA!
-A SpaceX começará a vender a versão reduzida da sua antena para usuários antigos n…</t>
+          <t>Pessoal eu tomei um susto agora achando que o meu #nubank foi hackedo . Mas é só uma oscilção</t>
         </is>
       </c>
     </row>
@@ -2291,8 +2380,17 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: STARLINK MINI OFICIALMENTE ANUNCIADA!
-A SpaceX começará a vender a versão reduzida da sua antena para usuários antigos n…</t>
+          <t>@greenlight199 Lista de EXTREMA DIREITA no Brasil 🇧🇷
+- Ter conta no NuBank
+- Assistir thiago braga e loconte
+- acreditar em ser cosmico
+- Monogâmico
+- ser reformista de cunho keynesiano/liberal modernista
+- ser patriota
+- ser ordo liberal!
+- ser anti woke 
+- ser centrista 
+E aí mutuals? 🤏🏻😎</t>
         </is>
       </c>
     </row>
@@ -2302,8 +2400,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: STARLINK MINI OFICIALMENTE ANUNCIADA!
-A SpaceX começará a vender a versão reduzida da sua antena para usuários antigos n…</t>
+          <t>@taxidrivo oi esqueceu de me bloquear na nubank</t>
         </is>
       </c>
     </row>
@@ -2313,8 +2410,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: STARLINK MINI OFICIALMENTE ANUNCIADA!
-A SpaceX começará a vender a versão reduzida da sua antena para usuários antigos n…</t>
+          <t>Sou cliente @nubank e estou 100% 😌</t>
         </is>
       </c>
     </row>
@@ -2324,8 +2420,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: STARLINK MINI OFICIALMENTE ANUNCIADA!
-A SpaceX começará a vender a versão reduzida da sua antena para usuários antigos n…</t>
+          <t>se desinstalar a nubank a fatura some sera</t>
         </is>
       </c>
     </row>
@@ -2335,7 +2430,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>@andresmenesescr @SpaceX Fotonas Andres.  Subela a JP</t>
+          <t>RT @FelipeGondimc: Eu no cadastro da Nubank 💜 https://t.co/W7TLTtAaeT</t>
         </is>
       </c>
     </row>
@@ -2345,7 +2440,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: Inclusive a SpaceX já liberou o modelo em 3D da nova antena, o que permite ver os detalhes dos conectores na parte trase…</t>
+          <t>RT @crimeenews: Peguei um empréstimo de 50 mil na Nubank e desinstalei o aplicativo https://t.co/h82N3Ys8bF</t>
         </is>
       </c>
     </row>
@@ -2355,7 +2450,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>@leiatheinvestor PQP!!! É agora que o dólar vai subir mais que o SpaceX do @elonmusk!</t>
+          <t>RT @oemputecido: Fatura do nubank chegando esse mês https://t.co/fkx2zj1vFL</t>
         </is>
       </c>
     </row>
@@ -2365,8 +2460,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: STARLINK MINI OFICIALMENTE ANUNCIADA!
-A SpaceX começará a vender a versão reduzida da sua antena para usuários antigos n…</t>
+          <t>@nubank Eu quero acessar a minha conta e demora quase 5 min pra chegar o código e quando chega da código invalido</t>
         </is>
       </c>
     </row>
@@ -2376,8 +2470,9 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Se você tivesse dito a alguém há 20 anos que um dia veríamos um fenômeno semelhante ao das águas-vivas no céu, eles pensariam que você estava louco. Mas com a SpaceX, esta é agora a norma.
-🚀 https://t.co/9fKRkg0hnn</t>
+          <t>RT @ICLNoticias: O jornalista Paulo Motoryn detalha as relações entre o Nubank e a extrema direita brasileira
+@opaulomm 
+Veja mais no Porta…</t>
         </is>
       </c>
     </row>
@@ -2387,8 +2482,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: STARLINK MINI OFICIALMENTE ANUNCIADA!
-A SpaceX começará a vender a versão reduzida da sua antena para usuários antigos n…</t>
+          <t>eu preciso gastar e meu nubank não volta ao normal 🗣️</t>
         </is>
       </c>
     </row>
@@ -2398,8 +2492,8 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: STARLINK MINI OFICIALMENTE ANUNCIADA!
-A SpaceX começará a vender a versão reduzida da sua antena para usuários antigos n…</t>
+          <t>RT @otimistaoficial: O Nubank acaba de anunciar que mais de 30.000 esquerdistas cancelaram suas contas.
+O prejuízo estimado pelo banco é R$…</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2503,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>@SpaceX_Missions Essa vibração é exelente p equipe. 🥰</t>
+          <t>Vem jogando pros linha de frente, ela roça a xrc no pente. Me disse que nunca viveu isso, nós conta dinheiro mais do que Nubank🤪😈🎶🎶</t>
         </is>
       </c>
     </row>
@@ -2419,8 +2513,9 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: STARLINK MINI OFICIALMENTE ANUNCIADA!
-A SpaceX começará a vender a versão reduzida da sua antena para usuários antigos n…</t>
+          <t>RT @JornalDaCidadeO: A direita deve abraçar o Nubank, sem nenhum preconceito 
+https://t.co/3BELd7Y83b
+“Bancos que sempre apoiaram Lula quer…</t>
         </is>
       </c>
     </row>
@@ -2430,7 +2525,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Inclusive a SpaceX já liberou o modelo em 3D da nova antena, o que permite ver os detalhes dos conectores na parte traseira. https://t.co/6VDRn19GQg</t>
+          <t>@graziouropreto @nubank O meu tá igual, liguei pra lá e não deu em nada, falaram que estão trabalhando nisso e é pra continuar tentando se não só amanhã pra ficar bom dnv, que raivaaa</t>
         </is>
       </c>
     </row>
@@ -2440,9 +2535,9 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>STARLINK MINI OFICIALMENTE ANUNCIADA!
-A SpaceX começará a vender a versão reduzida da sua antena para usuários antigos nos EUA (nem pense em Brasil por hora).
-Ela tem um preço inicial de USD 599, o que é fora do previsto, porém é um valor para regiões mais adensadas, logo, outros… https://t.co/I6LjYKV6b2 https://t.co/rQRyo9eoOT</t>
+          <t>RT @ICLNoticias: O jornalista Paulo Motoryn detalha as relações entre o Nubank e a extrema direita brasileira
+@opaulomm 
+Veja mais no Porta…</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2547,9 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>@SpaceX @Starlink Inacreditávelmente, kk incrível isso muito .</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -2462,7 +2559,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>RT @RACA3_BRASIL: A decolagem é tão legal!  🚀#RACA https://t.co/G3MqO128aD</t>
+          <t>RT @asc_adriano: Abri hoje a minha conta #nubank, porque apoia o Brasil Paralelo e não se submete à patrulha da esquerda. https://t.co/eEUq…</t>
         </is>
       </c>
     </row>
@@ -2472,7 +2569,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>RT @RACA3_BRASIL: A decolagem é tão legal!  🚀#RACA https://t.co/G3MqO128aD</t>
+          <t>fdp da nubank caiu bem na hora de pedir meu ube</t>
         </is>
       </c>
     </row>
@@ -2482,7 +2579,9 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>@ThiagoResiste Bandido foragido acusa presidente do BC de usar os foguetes da Spacex para levar os juros até espaço sideral.</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -2492,8 +2591,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>RT @RobertoRJBrasil: 🛰⚡️ STARLINK MINI !
-A mais nova antena receptora e transmissora da internet por satélite da SpaceX acabou vazando, e f…</t>
+          <t>RT @guinhowks: nubank caiu, banco porco https://t.co/ZhSeOq8g5c</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2601,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>@GraziSeveriano @500DeRinger Guerra nuclear!!!! Enfim eu acho que tem todo esse auê pq é alguma coisa grande. Pensei tbm na possibilidade da nasa e da spacex comprarem “glitter” como algum tipo de combustível aéreo e ELES NÃO QUEREM QUE A GENTE SAIBA PQ ACABARIA COM A INDÚSTRIA DO PETRÓLEO</t>
+          <t>RT @NP__Oficial: 🚨 Atenção: l Usuários planejam CANCELAR suas contas na Nubank após a CEO do banco divulgar evento realizado pelo "Brasil P…</t>
         </is>
       </c>
     </row>
@@ -2513,7 +2611,9 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>@alvesgladyys @Astronomiaum @SpaceX @Starship @elonmusk Criou uma estação espacial? Vixe essa fumou da forte...</t>
+          <t>@thecaramel_prin Entendemos como é importante que consiga acessar a sua conta do Nubank. 
+Estamos passando por uma oscilação no nosso aplicativo, mas estamos trabalhando para normalizar a situação quanto antes.
+Pedimos que espere alguns momentos para tentar acessar a sua conta do Nubank, ok?</t>
         </is>
       </c>
     </row>
@@ -2523,7 +2623,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>@AIXBird @elonmusk @mayemusk @SpaceX Muito⚔️💎💮</t>
+          <t>@nubank @EderSander85 Faz duas horas já, em plena sexta!!!!!!!!</t>
         </is>
       </c>
     </row>
@@ -2533,8 +2633,9 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>@PallottaPedro Currículo no LinkedIn:
-Instalador de revestimento cerâmico - SpaceX</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -2544,7 +2645,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>RT @Wallacy: @Cardoso Pior é que o valor que a SpaceX pediu na epoca foi de $885 milhões. Mas desqualificou pois não cumpria os requeriment…</t>
+          <t>RT @crimeenews: Peguei um empréstimo de 50 mil na Nubank e desinstalei o aplicativo https://t.co/h82N3Ys8bF</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2655,9 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>@LLL_SpaceX esse time mi estressa</t>
+          <t>RT @joaodomenech: Cancela Nubank. 
+Apoiar extremistas é inaceitável. 
+O consumidor tem poder. https://t.co/AzbItOGfNf</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2667,9 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>RT @DiretoDaAmerica: SPACEX — Nesta quinta-feira às 7am CT (9 da manhã no DF) ocorre o quarto lançamento de teste do Starship a partir da b…</t>
+          <t>RT @ICLNoticias: O jornalista Paulo Motoryn detalha as relações entre o Nubank e a extrema direita brasileira
+@opaulomm 
+Veja mais no Porta…</t>
         </is>
       </c>
     </row>
@@ -2574,7 +2679,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>RT @DiretoDaAmerica: TEXAS — Novo ângulo mostra o quarto lançamento de teste, bem sucedido do do começo ao fim, do Starship, o maior foguet…</t>
+          <t>Koe nubank vai aumentar meu limite não👀</t>
         </is>
       </c>
     </row>
@@ -2584,7 +2689,9 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>@SpaceX Ainda vou nesse lugar estou trabalhando pra ir nesse lugar</t>
+          <t>RT @JornalDaCidadeO: A direita deve abraçar o Nubank, sem nenhum preconceito 
+https://t.co/3BELd7Y83b
+“Bancos que sempre apoiaram Lula quer…</t>
         </is>
       </c>
     </row>
@@ -2594,7 +2701,9 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>@SpaceX Eu amo ver esses foguetes parabens</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -2604,8 +2713,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: FALCON 9 LANÇADO!
-Vinte Starlinks no espaço e céus iluminados nas redondezas de Vandenberg em mais um lançamento da Spac…</t>
+          <t>Nubank fora do ar é pra acabar</t>
         </is>
       </c>
     </row>
@@ -2615,10 +2723,8 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Quando o foguete SpaceX Dragon Explodiu 
-ELON superou e não desistiu 
-Foi doloroso 😪 #ElonMusk 
-https://t.co/NYjmEipWTO https://t.co/u56AGxf7se</t>
+          <t>@eduardodenner97 Foda que eu não tenho limite nessa porra de banco, só no nubank
+E ele é alto sabe...</t>
         </is>
       </c>
     </row>
@@ -2628,8 +2734,8 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>A startup americana Alef Aeronautics, apoiada pela #SpaceX, lançou o Alef Model A, um eVTOL futurista que combina a praticidade de um automóvel com a capacidade de voar. Saiba mais: https://t.co/u7EYNQreNt
-Crédito da imagem no artigo https://t.co/FIJ0ZK33Vt</t>
+          <t>RT @slpng_giants_pt: ❗️ATUALIZAÇÃO❗️
+Além da polêmica da conexão entre a Co-fundadora do Nubank com a Brasil Paralelo e o Ranking dos Polí…</t>
         </is>
       </c>
     </row>
@@ -2639,7 +2745,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>@SpaceToday1 Era só o que faltava, não tinha entendido essa treta até agora... Serjião é bolsominion?? Gente, que loucura! Quando ele postou "odeio a política e todos os políticos sem exceção" fiquei com um pé atrás. A ciência não sobrevive sem a política! O que seria da SpaceX sem o Gov US?</t>
+          <t>impressiona como o nubank foi dos melhores serviços para os piores né menina, até que antes era legalzinho</t>
         </is>
       </c>
     </row>
@@ -2649,7 +2755,8 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>@SpaceX @SES_Satellites Florida🙏🙏🙏</t>
+          <t>Ainda bem que eu tinha 0,80 centavos na nubank 
+Vou cancelar com certeza</t>
         </is>
       </c>
     </row>
@@ -2659,7 +2766,10 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>RT @willptv: MUDOU!!! Devido as más condições climáticas na Flórida a missão #SESAstra1P sofreu mudança para amanhã (20)!</t>
+          <t>@nubank @junqueira_cris @brasilparalelo @RankPolitico @brparalerdo @plnacional_ @deltanmd #Cassado pelo @TSEjusbr, @deltanmd aproveitou a cerimônia de recebimento do prêmio para atacar a decisão da Corte!
+O vídeo completo está disponível nas próprias redes do @RankPolitico.
+#Isentos mesmo?
+https://t.co/skPzhapcz6</t>
         </is>
       </c>
     </row>
@@ -2669,7 +2779,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>A decolagem é tão legal!  🚀#RACA https://t.co/G3MqO128aD https://t.co/wsTooXLYye</t>
+          <t>RT @HamiltonPozzi: Cancela Nubank que apoia Fascistas. https://t.co/NQgwgxaP99</t>
         </is>
       </c>
     </row>
@@ -2679,7 +2789,9 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>MUDOU!!! Devido as más condições climáticas na Flórida a missão #SESAstra1P sofreu mudança para amanhã (20)! https://t.co/OehOR2dNhM</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -2689,7 +2801,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>@TgodiasParra @fullstackdev_1 @rafaelgloves Uai, primeiro você lança a FakeNews que ele recebeu subsídio, aí agora você tá dizendo que não importa se é subsídio ou não. Claro que importa, Você dizer que o governo deu subsídios é completamente diferente de dizer que a SpaceX trabalhou pra conseguir fazer os foguetes.</t>
+          <t>Nubank caiu kkkkkk https://t.co/8qPwjLiihA</t>
         </is>
       </c>
     </row>
@@ -2699,8 +2811,11 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>@Wallacy @Cardoso Nem no tempo do Trump a FCC tinha boa vontade com a StarLink.
-Como eu já disse, odiar o Musk é uma das poucas coisas em que há consenso bipartidário nos EUA https://t.co/tEPLygk78l</t>
+          <t>RT @eritonb: PRISÃO DO MITO? 
+Tentem prendê-lo para ver o que acontece! 
+Muita perseguição! 
+Bolsonaro em Goias x Lula no Ceará
+#Impeachme…</t>
         </is>
       </c>
     </row>
@@ -2710,7 +2825,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>@Cardoso Pior é que o valor que a SpaceX pediu na epoca foi de $885 milhões. Mas desqualificou pois não cumpria os requerimentos que a licitação dizia que eram para 2025, mas por algum "motivo" foram medidas antes (tinham acabado de começar o projeto). Pura politicagem cega.</t>
+          <t>RT @MafinhaBarba: Hoje, o Nubank atingiu seu ATH (All Time High), com as ações fechando a $11.99, um aumento de 2.52% em relação ao fechame…</t>
         </is>
       </c>
     </row>
@@ -2720,8 +2835,8 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>O tempo segue instável na Flórida e o lançamento da missão ASTRA 1P ficou para o dia 20.
-#SpaceX #Falcon9 https://t.co/PbW7HXqdSi</t>
+          <t>Michelle Bolsonaro, Carol De toni e a Flávia Alvarenga só usam roupas roxas, e roxo é a cor do logotipo do Banco Nubank.                                               
+Bank : baque =  bater e ficar roxo!</t>
         </is>
       </c>
     </row>
@@ -2731,10 +2846,9 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>RT @GiilFaria: Então ficou pro dia 20(mais conhecido como amanhã) + 1 Voa...
-#Falcon9 🚀
-#SpaceX 
-#Astra 🛰️</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -2744,7 +2858,9 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>@SpaceX Perfeito 🤩</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -2754,10 +2870,8 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>RT @GiilFaria: Então ficou pro dia 20(mais conhecido como amanhã) + 1 Voa...
-#Falcon9 🚀
-#SpaceX 
-#Astra 🛰️</t>
+          <t>RT @realmacosta: 🚨GABINETE DO ÓDIO: Páginas de esquerda estão conduzindo uma campanha bizarra para cancelar o Nubank. 🤡
+É absurdo como ess…</t>
         </is>
       </c>
     </row>
@@ -2767,9 +2881,9 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Troféu Águia
-Símbolo da força, da garra, da determinação e da coragem! @jairbolsonaro @realDonaldTrump @elonmusk @Mi_Bolsonaro @AsquinoCristina @RosalindaNanna @RoseBacellar @jimpfaff @VlogdoLisboa @sikerajr @PastorMalafaia @halynymainardes @SpaceX @NewsLiberdade 
-Blogger:… https://t.co/HU9ZcrBXhK https://t.co/87bLH0lsCt</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -2779,10 +2893,8 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>RT @GiilFaria: Então ficou pro dia 20(mais conhecido como amanhã) + 1 Voa...
-#Falcon9 🚀
-#SpaceX 
-#Astra 🛰️</t>
+          <t>RT @otimistaoficial: O Nubank acaba de anunciar que mais de 30.000 esquerdistas cancelaram suas contas.
+O prejuízo estimado pelo banco é R$…</t>
         </is>
       </c>
     </row>
@@ -2792,8 +2904,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Starlink Mini é anunciada com tamanho de um iPad #Startlink #SpaceX #ElonMusk
-https://t.co/MfNQsWlHrM</t>
+          <t>RT @leokbelo13: Pessoal que está encerrando as contas no Nubank, essas empresas também estão com Bolsonaro: https://t.co/9RLeXq9Iaz</t>
         </is>
       </c>
     </row>
@@ -2803,11 +2914,9 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>@RoberioRoberioo @fullstackdev_1 @rafaelgloves Amigo, é dinheiro público indo pra empresa privada.
-Foda-se se é serviço ou subsidio.
-A SpaceX usa bases da NASA, usa patentes da NASA, uso privado de dinheiro público.
-A Mão invisível é bem visível aí...
-E ela pende do estado em favor do capital privado.</t>
+          <t>RT @JornalDaCidadeO: A direita deve abraçar o Nubank, sem nenhum preconceito 
+https://t.co/3BELd7Y83b
+“Bancos que sempre apoiaram Lula quer…</t>
         </is>
       </c>
     </row>
@@ -2817,8 +2926,8 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: FALCON 9 ADIADO! 
-O lançamento da missão Astra 1P para a SES foi cancelado devido ao clima desfavorável, uma nova tentat…</t>
+          <t>@al_ren4to @nubank @nubank assim que isso for resolvido, irei cancelar a conta
+Primeira vez usando e tendo problemas, eu não aceito. Inadmissível</t>
         </is>
       </c>
     </row>
@@ -2828,8 +2937,9 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: FALCON 9 ADIADO! 
-O lançamento da missão Astra 1P para a SES foi cancelado devido ao clima desfavorável, uma nova tentat…</t>
+          <t>NUBANK SE ALIA A ORGANIZAÇÃO EXTREMISTA: banco digital se junta aos criminosos de produtora de conteúdo audiovisual que é a maior criadora e disseminadora de mentiras (fake news) e discurso de ódio do Brasil. E você não vai fechar sua conta no Nubank?!
+1/3
+https://t.co/DhC0qNcWXe</t>
         </is>
       </c>
     </row>
@@ -2839,8 +2949,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>FALCON 9 ADIADO! 
-O lançamento da missão Astra 1P para a SES foi cancelado devido ao clima desfavorável, uma nova tentativa será realizada amanhã, às 18h35. https://t.co/Y8WriMEqQM</t>
+          <t>Ainda tinha influenciadora de finanças indicando btg como algo bom contra o nubank https://t.co/qtCubuPFkh</t>
         </is>
       </c>
     </row>
@@ -2850,7 +2959,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>@TgodiasParra @fullstackdev_1 @rafaelgloves Subsídio e Contrato de Serviços não são a mesma coisa, amigo. Vai dizer que a NASA contratou a SpaceX pra mascarar essa entrega de dinheiro público? Negacionismo.</t>
+          <t>@al_ren4to @nubank Primeira vez usando o banco e já está me dando problemas @nubank resolve essa merda.</t>
         </is>
       </c>
     </row>
@@ -2860,7 +2969,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Somos do tamanho dos nossos sonhos! Lutar sempre! Vencer, talvez…Desistir jamais…@AsquinoCristina @mayemusk @RoseBacellar @jimpfaff @halynymainardes @BolsonaroNegona @jairbolsonaro @Mi_Bolsonaro @realDonaldTrump @TRUMP_ARMY_ @WanderleiTO @SpaceX @NewsLiberdade https://t.co/V9Gky1xf5f</t>
+          <t>@nubank @junqueira_cris @brasilparalelo @RankPolitico @brparalerdo @plnacional_ 🍰 Cereja do bolo: o @rankingdospoliticos concedeu um "prêmio honorário" ao ex-deputado @deltanmd e ainda questionaram a decisão da Justiça por sua #cassação , chamando-a de "injusta"! https://t.co/cJJyziUP6X</t>
         </is>
       </c>
     </row>
@@ -2870,10 +2979,9 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Então ficou pro dia 20(mais conhecido como amanhã) + 1 Voa...
-#Falcon9 🚀
-#SpaceX 
-#Astra 🛰️ https://t.co/BsKeqPTOuS</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -2883,8 +2991,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Gracinha Mão Santa propõe medalha do mérito legislativo para o dono da Tesla e SpaceX.
-O que acharam? https://t.co/F1mYlAEz0s</t>
+          <t>RT @MafinhaBarba: Eu estava esperando saber o que aconteceria com o cancelamento do Nubank pela esquerda. Digo isso porque ele é um caso pe…</t>
         </is>
       </c>
     </row>
@@ -2894,8 +3001,8 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: FALCON 9 LANÇADO!
-Vinte Starlinks no espaço e céus iluminados nas redondezas de Vandenberg em mais um lançamento da Spac…</t>
+          <t>Cachaceiro falando mal do NUbank, mas não muda de banco porque não gosta dos outros.. . ..
+Guarda o dinheiro no colchão então seu saruê!</t>
         </is>
       </c>
     </row>
@@ -2905,7 +3012,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Falar a true que o rebrand dessa marca ficou tão feia, antes era tão bonita e agora tá com uma vibe meio spacex</t>
+          <t>RT @camsaudiovisual: a gestão de crise do nubank tá trabalhando https://t.co/1PVP61CeAD</t>
         </is>
       </c>
     </row>
@@ -2915,7 +3022,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Alguém que segure o Dólar Americano, ele está tentando concorrer com os foguetes da SpaceX, ambos subindo na mesma proporção hahahahahahahahaha https://t.co/q2AaAcybx6</t>
+          <t>RT @FelipeGondimc: Eu no cadastro da Nubank 💜 https://t.co/W7TLTtAaeT</t>
         </is>
       </c>
     </row>
@@ -2925,7 +3032,9 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>@fernaolmesquita E só da tesla, vai ganhar U$4.5 bi... fora Paypal, The Boring Company,  Starlink, SpaceX, Neuralink, Hyperloop, Ad Astra .... mas se acordo com a @DanielaLima_ (kkk) ele é um 'muleque' kkkk</t>
+          <t>RT @ICLNoticias: O jornalista Paulo Motoryn detalha as relações entre o Nubank e a extrema direita brasileira
+@opaulomm 
+Veja mais no Porta…</t>
         </is>
       </c>
     </row>
@@ -2935,8 +3044,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: FALCON 9 LANÇADO!
-Vinte Starlinks no espaço e céus iluminados nas redondezas de Vandenberg em mais um lançamento da Spac…</t>
+          <t>RT @MafinhaBarba: @omachoalpha Mas o afegão médio não tem NUBANK mas sim o jovem dinâmico</t>
         </is>
       </c>
     </row>
@@ -2946,7 +3054,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>@cavokbr Engraçado que não vejo nada aqui (nunca) sobre a @SpaceX</t>
+          <t>@nubank @paulalima27 Bora vê @nubank , libera aí meu aplicativo https://t.co/zKhmOr4gdr</t>
         </is>
       </c>
     </row>
@@ -2956,7 +3064,9 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>SpaceX lança os Starlinks 'G9-1' https://t.co/daLNrw4bSR https://t.co/t3nA2yEXZZ</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -2966,7 +3076,10 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>@GutierresLeomir @mspbra SpaceX faz uma coisa, tesla faz outra coisa....</t>
+          <t>@interbr Inter, a dona da CNN Brasil
+Estava procurando um App pra sair do @nubank, aquele ninho de Naz.istas e Chans e descubro que o Inter é fechado com o Bolsonarismo 🤮
+Além de ser dona da CNN Brasil, que manipula os brasileiros com propaganda de extrema direita
+https://t.co/kW79l57k4A</t>
         </is>
       </c>
     </row>
@@ -2976,8 +3089,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: Começou o travamento da base da nova torre do Starship.
-As placas de concreto da lateral já estão sendo colocadas em pos…</t>
+          <t>@Transdedireita2 Existem relatos que o prejuízo da NuBank  com as 5.000 contas esquerdistas encerradas 😁 foi de R$350,00 (trezentos e cinquenta reais). 😁🤭</t>
         </is>
       </c>
     </row>
@@ -2987,8 +3099,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: Começou o travamento da base da nova torre do Starship.
-As placas de concreto da lateral já estão sendo colocadas em pos…</t>
+          <t>RT @MafinhaBarba: Eu estava esperando saber o que aconteceria com o cancelamento do Nubank pela esquerda. Digo isso porque ele é um caso pe…</t>
         </is>
       </c>
     </row>
@@ -2998,8 +3109,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: Começou o travamento da base da nova torre do Starship.
-As placas de concreto da lateral já estão sendo colocadas em pos…</t>
+          <t>@BrunaSchneide @nubank Acabei de reativar minha conta com vcs e já investi acima do valor dos esquerdistas 😂😂😂. Espero ficar muito tempo com a instituição.</t>
         </is>
       </c>
     </row>
@@ -3009,7 +3119,10 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>@SpaceToday1 E ai a NASA já contratou a SpaceX para resgatar os dois astronautas na ISS??? Já que não da para chamar essa gambiarra defeituosa de capsula....rsrsrs</t>
+          <t>@interbr Inter, a dona da CNN Brasil
+Estava procurando um App pra sair do @nubank, aquele ninho de Naz.istas e Chans e descubro que o Inter é fechado com o Bolsonarismo 🤮
+Além de ser dona da CNN Brasil, que manipula os brasileiros com propaganda de extrema direita
+https://t.co/kW79l57k4A</t>
         </is>
       </c>
     </row>
@@ -3019,7 +3132,9 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>@Astronomiaum Ele vai mandar construir um planeta habitável, por pessoas com chip no cérebro, que vivam segundo gerenciamento de IA e trabalhem com construção de naves SpaceX para explorações e domínios galáticos-planetários.</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -3029,8 +3144,10 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: Começou o travamento da base da nova torre do Starship.
-As placas de concreto da lateral já estão sendo colocadas em pos…</t>
+          <t>@interbr Inter, a dona da CNN Brasil
+Estava procurando um App pra sair do @nubank, aquele ninho de Naz.istas e Chans e descubro que o Inter é fechado com o Bolsonarismo 🤮
+Além de ser dona da CNN Brasil, que manipula os brasileiros com propaganda de extrema direita
+https://t.co/kW79l57k4A</t>
         </is>
       </c>
     </row>
@@ -3040,7 +3157,9 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Célula em Marte? 🙄🤦‍♀️Essa mulher acha que é dona da SpaceX pra se importar com isso? (ironia) https://t.co/Ld6XCOOQHj</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -3050,7 +3169,9 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>@qlqr_m3rd4 @https_sc_ @elonmusk Real mano, tô indo tomar um café na spaceX</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -3060,8 +3181,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>@PallottaPedro A SpaceX devia entrar também no ramo de construção ferroviária 
-Em 5-10 anos teria o EUA cheio de high speed rail</t>
+          <t>RT @MafinhaBarba: Hoje, o Nubank atingiu seu ATH (All Time High), com as ações fechando a $11.99, um aumento de 2.52% em relação ao fechame…</t>
         </is>
       </c>
     </row>
@@ -3071,8 +3191,9 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: Começou o travamento da base da nova torre do Starship.
-As placas de concreto da lateral já estão sendo colocadas em pos…</t>
+          <t>RT @JornalDaCidadeO: A direita deve abraçar o Nubank, sem nenhum preconceito 
+https://t.co/3BELd7Y83b
+“Bancos que sempre apoiaram Lula quer…</t>
         </is>
       </c>
     </row>
@@ -3082,7 +3203,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>@ElonMuskAOC @D_Tarczynski Porque tu trocou pra X?por causa da spaceX?</t>
+          <t>RT @MafinhaBarba: Hoje, o Nubank atingiu seu ATH (All Time High), com as ações fechando a $11.99, um aumento de 2.52% em relação ao fechame…</t>
         </is>
       </c>
     </row>
@@ -3092,8 +3213,10 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: Começou o travamento da base da nova torre do Starship.
-As placas de concreto da lateral já estão sendo colocadas em pos…</t>
+          <t>@interbr Inter, a dona da CNN Brasil
+Estava procurando um App pra sair do @nubank, aquele ninho de Naz.istas e Chans e descubro que o Inter é fechado com o Bolsonarismo 🤮
+Além de ser dona da CNN Brasil, que manipula os brasileiros com propaganda de extrema direita
+https://t.co/kW79l57k4A</t>
         </is>
       </c>
     </row>
@@ -3103,8 +3226,9 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: Começou o travamento da base da nova torre do Starship.
-As placas de concreto da lateral já estão sendo colocadas em pos…</t>
+          <t>RT @ICLNoticias: O jornalista Paulo Motoryn detalha as relações entre o Nubank e a extrema direita brasileira
+@opaulomm 
+Veja mais no Porta…</t>
         </is>
       </c>
     </row>
@@ -3114,8 +3238,8 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: Começou o travamento da base da nova torre do Starship.
-As placas de concreto da lateral já estão sendo colocadas em pos…</t>
+          <t>RT @konobeada: corrigindo: não adianta cancelar o Nubank e ir pra QUALQUER OUTRO banco pq &amp;gt;&amp;gt;&amp;gt;todos&amp;lt;&amp;lt;&amp;lt; os banqueiros são bolsonaristas
+mds…</t>
         </is>
       </c>
     </row>
@@ -3125,8 +3249,9 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Começou o travamento da base da nova torre do Starship.
-As placas de concreto da lateral já estão sendo colocadas em posição, e ainda me impressiona como a SpaceX trabalha rápido mesmo quanto se trata de construção civil https://t.co/khCTQXHFlY</t>
+          <t>@obrunogesualdi Entendemos como é importante que consiga acessar a sua conta do Nubank.
+Estamos passando por uma oscilação no nosso aplicativo, mas estamos trabalhando para normalizar a situação quanto antes.
+Pedimos que espere alguns momentos para tentar acessar a sua conta do Nubank, ok?</t>
         </is>
       </c>
     </row>
@@ -3136,11 +3261,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>@SpaceX @elonmusk @Starlink Prioridade numberOne
-Elon Musk é o CARA
-"Parem com todas às guerras no planeta 🌎 ê entreguem todo $$ dinheiro gastos nas inúteis guerras dos inúteis governantes q E.M em pouco tempo dará um planeta terraformado para cada desgraçado governo senhor da guerra !
-Vcs ainda 
-Dúvidam?"</t>
+          <t>@JoaoDelavald @nubank tô c o mesmo problema</t>
         </is>
       </c>
     </row>
@@ -3150,8 +3271,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: SPACEX CONTINUA OS TRABALHOS NO ESCUDO DO SHIP30!
-Os funcionários da empresa seguem trocando as peças do escudo de calo…</t>
+          <t>RT @camsaudiovisual: a gestão de crise do nubank tá trabalhando https://t.co/1PVP61CeAD</t>
         </is>
       </c>
     </row>
@@ -3161,7 +3281,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>A mineração futura será no espaço e só a SPACEX pode emplementar isso quanto as máquinas para isso serão autônomas só a TESLA tem a tecnologia necessária. 🤔</t>
+          <t>RT @ribeiromari13: nubank caiu, q a fatura do meu cartão caia junto 🙏🏼</t>
         </is>
       </c>
     </row>
@@ -3171,9 +3291,10 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>RT @AnnaMonteiroAn1: 🌩
-🛰⚡️ STARLINK MINI !
-A mais nova antena receptora e transmissora da internet por satélite da SpaceX acabou vazando,…</t>
+          <t>@interbr Inter, a dona da CNN Brasil
+Estava procurando um App pra sair do @nubank, aquele ninho de Naz.istas e Chans e descubro que o Inter é fechado com o Bolsonarismo 🤮
+Além de ser dona da CNN Brasil, que manipula os brasileiros com propaganda de extrema direita
+https://t.co/kW79l57k4A</t>
         </is>
       </c>
     </row>
@@ -3183,8 +3304,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>RT @GiilFaria: Mais um liftoff.
-#Falcon9 🚀</t>
+          <t>RT @HamiltonPozzi: Cancela Nubank que apoia Fascistas. https://t.co/NQgwgxaP99</t>
         </is>
       </c>
     </row>
@@ -3194,7 +3314,8 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>@leiatheinvestor Subindo igual o foguete da SpaceX 🚀</t>
+          <t>Nubank é formadora de mentiras abra sua conta em outro banco tem vários diga não ao nubank
+https://t.co/d2ck1P3Pzs</t>
         </is>
       </c>
     </row>
@@ -3204,9 +3325,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>SpaceX envia 20 satélites de banda larga para o espaço após pausa
-#SpaceX #Tecnologia 
-https://t.co/eD7G44KZ56</t>
+          <t>RT @MafinhaBarba: Hoje, o Nubank atingiu seu ATH (All Time High), com as ações fechando a $11.99, um aumento de 2.52% em relação ao fechame…</t>
         </is>
       </c>
     </row>
@@ -3216,8 +3335,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>@SpaceX @elonmusk, Espera aí, não tem como colocar um molusco brasileiro e deixá-lo pelo caminho. 🦑🇧🇷  #voaLula
-#brasil #ForaLulaLadrão https://t.co/U2n5FoQ0Ha</t>
+          <t>@JornalDaCidadeO @LaraAS777 Essa guerra toda foi porque a @nubank  ultrapassou o Itaú kkkk. Quando se atende a população de alguma forma vai ter retorno.</t>
         </is>
       </c>
     </row>
@@ -3227,7 +3345,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>@SpaceX @elonmusk @Starlink Magnífico, explendido parabéns grande gênio💕💕💕💕💕🇧🇷🇧🇷🇵🇷🇵🇷</t>
+          <t>RT @sinthianr: o Nubank resolveu cair na hora que fui pagar meu boleto https://t.co/G99C1Ho9Zs</t>
         </is>
       </c>
     </row>
@@ -3237,7 +3355,10 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Todo o fim de tarde eu abro esse mapa da starlink pra ver os satélites passarem pelo céu da Amazônia, acho uma coisa tão incrível que o @elonmusk e a @SpaceX desenvolveram, ainda não tive condições de comprar uma, porém sou apaixonado pela starlink https://t.co/oaYUh6Ak2V</t>
+          <t>@interbr Inter, a dona da CNN Brasil
+Estava procurando um App pra sair do @nubank, aquele ninho de Naz.istas e Chans e descubro que o Inter é fechado com o Bolsonarismo 🤮
+Além de ser dona da CNN Brasil, que manipula os brasileiros com propaganda de extrema direita
+https://t.co/kW79l57k4A</t>
         </is>
       </c>
     </row>
@@ -3247,7 +3368,8 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>RT @autorMACosta: tirem suas conclusões sobre a aprovação deste pacote bilionário para o executivo e se ele de fato é uma força transformad…</t>
+          <t>RT @otimistaoficial: O Nubank acaba de anunciar que mais de 30.000 esquerdistas cancelaram suas contas.
+O prejuízo estimado pelo banco é R$…</t>
         </is>
       </c>
     </row>
@@ -3257,8 +3379,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>RT @MaisForca: @SpaceX, Espera aí, não tem como colocar um molusco brasileiro e deixá-lo pelo caminho. 🦑🇧🇷  #voaLula
-#brasil #ForaLulaLadrão</t>
+          <t>@ATROMBETA3 Estou voltando para o NUBANK</t>
         </is>
       </c>
     </row>
@@ -3268,8 +3389,9 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>@SpaceX, Espera aí, não tem como colocar um molusco brasileiro e deixá-lo pelo caminho. 🦑🇧🇷  #voaLula
-#brasil #ForaLulaLadrão https://t.co/U2n5FoQ0Ha</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -3279,7 +3401,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>@SpaceX Espera aí, não tem como colocar um molusco brasileiro e deixá-lo pelo caminho. 🦑🇧🇷  #voaLula</t>
+          <t>RT @crimeenews: Peguei um empréstimo de 50 mil na Nubank e desinstalei o aplicativo https://t.co/h82N3Ys8bF</t>
         </is>
       </c>
     </row>
@@ -3289,7 +3411,9 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>@SpaceX Incrível 😍🚀🤗👏👏👏👏</t>
+          <t>RT @ICLNoticias: O jornalista Paulo Motoryn detalha as relações entre o Nubank e a extrema direita brasileira
+@opaulomm 
+Veja mais no Porta…</t>
         </is>
       </c>
     </row>
@@ -3299,7 +3423,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>@LLL_SpaceX Vcs são canto pqp kkk as modalidades nem se classificaram pro mundial ainda, nem é de certeza 100% q TDS vão permanecer, e tem gente falando em contratar streamer de cada modalidade KKK</t>
+          <t>RT @ribeiromari13: nubank caiu, q a fatura do meu cartão caia junto 🙏🏼</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3433,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>RT @hoje_no: Mais um lançamento bem sucedido do maior foguete alguma vez construído pelo homem. Será muito provavelmente em um foguete como…</t>
+          <t>RT @MafinhaBarba: Eu estava esperando saber o que aconteceria com o cancelamento do Nubank pela esquerda. Digo isso porque ele é um caso pe…</t>
         </is>
       </c>
     </row>
@@ -3319,8 +3443,11 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>RT @GiilFaria: Mais um liftoff.
-#Falcon9 🚀</t>
+          <t>RT @RobertoSoaresUS: Já sou assinante do 
+BRASIL PARALELO 
+e agora serei cliente do NUBANK.
+Obrigado amigos da esquerda pela dica.
+#BrasilP…</t>
         </is>
       </c>
     </row>
@@ -3330,10 +3457,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Acha inimaginável a CAUSA ANIMAL no Brasil, com tecnologias Tesla Home, Tesla Pi, Starlink SpaceX, Tesla Cars e Tesla Trucks?rr
-@Elon MUSK, nós vamos lhe agradecer por tudo!
-Lixo 0 e a Causa Animal com recursos intocáveis. Com 1 reator pirolítico e podemos 
-mudar destinos.</t>
+          <t>RT @crimeenews: Peguei um empréstimo de 50 mil na Nubank e desinstalei o aplicativo https://t.co/h82N3Ys8bF</t>
         </is>
       </c>
     </row>
@@ -3343,7 +3467,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Elon Musk é um dos palestrantes do Cannes Lions nesta quarta-feira, 19.  O bilionário debate com o presidente da WPP sobre o futuro da inovação na indústria e nas suas empresas Tesla, SpaceX e na rede social X. Toda a cobertura da participação do empresário hoje no @Estadao https://t.co/FC5vsu4EeP</t>
+          <t>RT @SergioAJBarrett: É A Cristina Junqueira do Nubank Dizendo que Contratar Pessoas Negras Seria "NIVELAR POR BAIXO"? https://t.co/x1xBoETy…</t>
         </is>
       </c>
     </row>
@@ -3353,8 +3477,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>RT @GiilFaria: Mais um liftoff.
-#Falcon9 🚀</t>
+          <t>socorro meu nubank caiu vai se fuder</t>
         </is>
       </c>
     </row>
@@ -3364,8 +3487,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>A profissão mais perigosa do mundo!
-#astronauta #profissão #perigo #NASA #SpaceX https://t.co/q1wYYdAta5</t>
+          <t>RT @MafinhaBarba: Hoje, o Nubank atingiu seu ATH (All Time High), com as ações fechando a $11.99, um aumento de 2.52% em relação ao fechame…</t>
         </is>
       </c>
     </row>
@@ -3375,8 +3497,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>sei lá mano, acho q a nasa podia olhar mais pro brasil, ou a spacex
-só sai gênio desse lugar… https://t.co/Nn0GjgSaj6</t>
+          <t>@itsthegreysloan @nubank Enviaram 2 mil pra mim e ainda não caiu, ajuda aí, nubank😭</t>
         </is>
       </c>
     </row>
@@ -3386,7 +3507,9 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Lançamento do foguete Falcon 9 com 20 satélites starlinks https://t.co/2F94hYcWkL</t>
+          <t>RT @ICLNoticias: O jornalista Paulo Motoryn detalha as relações entre o Nubank e a extrema direita brasileira
+@opaulomm 
+Veja mais no Porta…</t>
         </is>
       </c>
     </row>
@@ -3396,7 +3519,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Confirmo , saindo da Terra na madrugada. https://t.co/mrkzzyUiD0</t>
+          <t>RT @RiqueSampaio: Para quem quiser saber mais sobre o tal 55chan, cujo criador foi acobertado pelo NuBank e hj é diretor do Brasil Paralelo…</t>
         </is>
       </c>
     </row>
@@ -3406,7 +3529,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>RT @lelis1961: Podemos agradecer ao Elon Musk pelo que fez pelo Brasil. Tesla Home, Tesla Cars, Tesla Trucks, SpaceX Starlink e Tesla Pi, e…</t>
+          <t>@GuguMetelao @racheldiaz_ Falou aquele que quer dar calote no Nubank. Tem lógica o comentário dele.</t>
         </is>
       </c>
     </row>
@@ -3416,7 +3539,10 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Podemos agradecer ao Elon Musk pelo que fez pelo Brasil. Tesla Home, Tesla Cars, Tesla Trucks, SpaceX Starlink e Tesla Pi, em um só lugar. Causa ANIMAL - CCAATTEªS, pirólise e eletrofloculação produzindo RENDA VITALÍCIA. conheça minha ideia</t>
+          <t>@interbr Inter, a dona da CNN Brasil
+Estava procurando um App pra sair do @nubank, aquele ninho de Naz.istas e Chans e descubro que o Inter é fechado com o Bolsonarismo 🤮
+Além de ser dona da CNN Brasil, que manipula os brasileiros com propaganda de extrema direita
+https://t.co/kW79l57k4A</t>
         </is>
       </c>
     </row>
@@ -3426,7 +3552,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>@jairbolsonaro Podemos agradecer ao Elon Musk pelo que fez pelo Brasil. Tesla Home, Tesla Cars, Tesla Trucks, SpaceX Starlink e Tesla Pi, em um só lugar. Causa ANIMAL - CCAATTEªS, pirólise e eletrofloculação produzindo RENDA VITALÍCIA. conheça minha ideia</t>
+          <t>RT @guinhowks: nubank caiu, banco porco https://t.co/ZhSeOq8g5c</t>
         </is>
       </c>
     </row>
@@ -3436,7 +3562,10 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>@SpaceX @elonmusk @Starlink Chora Lula.</t>
+          <t>@interbr Inter, a dona da CNN Brasil
+Estava procurando um App pra sair do @nubank, aquele ninho de Naz.istas e Chans e descubro que o Inter é fechado com o Bolsonarismo 🤮
+Além de ser dona da CNN Brasil, que manipula os brasileiros com propaganda de extrema direita
+https://t.co/kW79l57k4A</t>
         </is>
       </c>
     </row>
@@ -3446,7 +3575,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>@elonmusk um dia nós brasileiros vamos lhe agradecer materialmente por tudo que fez por nossa pátria. CAUSA ANIMAL Tesla Cars, Tesla Trucks, Tesla Pi, Tesla Home, Starlink SpaceX, juntas.</t>
+          <t>Nubank aumento meu limite que delícia</t>
         </is>
       </c>
     </row>
@@ -3456,8 +3585,16 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: FALCON 9 LANÇADO!
-Vinte Starlinks no espaço e céus iluminados nas redondezas de Vandenberg em mais um lançamento da Spac…</t>
+          <t>Essa @julianadalpiva é uma CRIMINOSA e SABE, como confessou na conversa, que a @policiafederal está A MANDO de @alexandre
+SEGUE O 🧶 
+🇧🇷
+Jair Bolsonaro Zucco
+Argentina Ucrânia Polônia
+Campos Neto Copom Nubank
+🚨
+VIVA O SUS Moraes Toffoli
+ARROZÃO 🌽 MILHÃO
+https://t.co/XQiiLhm1Kc</t>
         </is>
       </c>
     </row>
@@ -3467,8 +3604,9 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>RT @BenPontesMBL: Graças à iniciativa privada, com destaque para a SpaceX do Elon Musk, o homem voltou a sonhar em desbravar os céus. 
-Enq…</t>
+          <t>RT @JornalDaCidadeO: A direita deve abraçar o Nubank, sem nenhum preconceito 
+https://t.co/3BELd7Y83b
+“Bancos que sempre apoiaram Lula quer…</t>
         </is>
       </c>
     </row>
@@ -3478,7 +3616,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>@SpaceX @elonmusk @Starlink Bravo, 👍</t>
+          <t>RT @camsaudiovisual: a gestão de crise do nubank tá trabalhando https://t.co/1PVP61CeAD</t>
         </is>
       </c>
     </row>
@@ -3488,7 +3626,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>RT @SergioHontza: Quantos satélite a InternetBrás colocou no espaço hoje ou essa semana?</t>
+          <t>@pfigueiredobr Brasil paralelo e nubank fazem a esquerda enlouquecer nas redes sociais! ( ME SIGAM QUE EU SIGO DE VOLTA 🙂 ) https://t.co/DHjv4RFR6Y</t>
         </is>
       </c>
     </row>
@@ -3498,8 +3636,8 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>@elonmusk em um único projeto, Tesla Cars, Tesla Trucks, Starlink SpaceX, Tesla Home e Tesla Pi.
-Ninguém me escuta!</t>
+          <t>RT @artevillar1: "ah mas o que significa essa ligação do nubank com o Brasil Paralelo que nem sei direito o que é??"
+SE VC NAO SABE O QUE…</t>
         </is>
       </c>
     </row>
@@ -3509,9 +3647,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>RT @AnnaMonteiroAn1: 🌩
-🛰⚡️ STARLINK MINI !
-A mais nova antena receptora e transmissora da internet por satélite da SpaceX acabou vazando,…</t>
+          <t>O banco mizerento e esse da nubank, já uso o cartão a mais de 1 ano, limite aumentou uma vez só, pagando tudo em dia tudo certinho, nunca atrasei não parcelei a fatura, nome limpo, score bom… agora a minha irmã com nome sujo com 200 de score kkkkk conseguiu mais limite que eu 🤡</t>
         </is>
       </c>
     </row>
@@ -3521,7 +3657,9 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>O carregamento de propelente está em andamento para o lançamento do Falcon 9 da missão @SES_Satellites ASTRA 1P da Flórida. As equipes continuam monitorando os ventos → https://t.co/3JhfvWICKV https://t.co/yOCAeMCfZ4</t>
+          <t>RT @ICLNoticias: O jornalista Paulo Motoryn detalha as relações entre o Nubank e a extrema direita brasileira
+@opaulomm 
+Veja mais no Porta…</t>
         </is>
       </c>
     </row>
@@ -3531,7 +3669,8 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Sem palavras https://t.co/i7ip1w0NZx</t>
+          <t>RT @SomenteOrestes: Negros apenas na propaganda, mas não em nossa casa!
+Não é de hoje que a co-fundadora do Nubank, que promove a Brasil P…</t>
         </is>
       </c>
     </row>
@@ -3541,7 +3680,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>@SpaceX @SES_Satellites Sem palavras</t>
+          <t>RT @camsaudiovisual: a gestão de crise do nubank tá trabalhando https://t.co/1PVP61CeAD</t>
         </is>
       </c>
     </row>
@@ -3551,7 +3690,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Sem palavras incríveis imagens https://t.co/DzBvXNv22O</t>
+          <t>Alô @nubank o app pede o código do e-mail pra entrar mas o e-mail n chega e quando chega já passou mto tempo</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3700,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>@SpaceX @SES_Satellites Uau sem palavras incríveis imagens</t>
+          <t>RT @crimeenews: Peguei um empréstimo de 50 mil na Nubank e desinstalei o aplicativo https://t.co/h82N3Ys8bF</t>
         </is>
       </c>
     </row>
@@ -3571,7 +3710,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Sem palavras https://t.co/59XlL5zbLf</t>
+          <t>@graziouropreto @nubank nubank fascista! cancelem a conta de vocês pessoal!</t>
         </is>
       </c>
     </row>
@@ -3581,8 +3720,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: FALCON 9 LANÇADO!
-Vinte Starlinks no espaço e céus iluminados nas redondezas de Vandenberg em mais um lançamento da Spac…</t>
+          <t>App maldito esse da Nubank AAAAAAAAAAAA</t>
         </is>
       </c>
     </row>
@@ -3592,7 +3730,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Sem palavras https://t.co/Tkde8eoyYn</t>
+          <t>nubank fez eu passa por uma humilhação hoje bem deprimente</t>
         </is>
       </c>
     </row>
@@ -3602,8 +3740,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: SPACEX CONTINUA OS TRABALHOS NO ESCUDO DO SHIP30!
-Os funcionários da empresa seguem trocando as peças do escudo de calo…</t>
+          <t>Nubank caiu logo quando eu tomei coragem para fazer mais dívida na shein, acho que foi um aviso https://t.co/HbUVI4orxI</t>
         </is>
       </c>
     </row>
@@ -3613,7 +3750,9 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Sem palavras https://t.co/cTMSiliZuc</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -3623,7 +3762,8 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Sem palavras https://t.co/DJC7I7gB1O</t>
+          <t>RT @DefecatingB: "VOU CANCELAR MINHA CONTA NUBANK!"
+Enzo "Guarani-Kaiowá" da Silva, 43 anos, sociólogo, escritor, solteiro, mora com a mãe…</t>
         </is>
       </c>
     </row>
@@ -3633,7 +3773,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>@SpaceX @Starlink Sem palavras</t>
+          <t>RT @guinhowks: nubank caiu, banco porco https://t.co/ZhSeOq8g5c</t>
         </is>
       </c>
     </row>
@@ -3643,7 +3783,8 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>@SpaceX Sem palavras</t>
+          <t>RT @EliseWilshaw: Eu apoio Brasil Paralelo - NUBANK. 
+Se vc curtir, toda nossa família ficará feliz! 🥰 https://t.co/c397gRXstx</t>
         </is>
       </c>
     </row>
@@ -3653,8 +3794,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: FALCON 9 LANÇADO!
-Vinte Starlinks no espaço e céus iluminados nas redondezas de Vandenberg em mais um lançamento da Spac…</t>
+          <t>RT @LeoniceMariana1: A esquerda está boicotando, mas nós patriotas que somos a maioria vamos apoiar o @nubank pelo apoio ao Brasil Paralelo…</t>
         </is>
       </c>
     </row>
@@ -3664,7 +3804,8 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Sem palavras https://t.co/vwyyCvWU2V</t>
+          <t>RT @otimistaoficial: O Nubank acaba de anunciar que mais de 30.000 esquerdistas cancelaram suas contas.
+O prejuízo estimado pelo banco é R$…</t>
         </is>
       </c>
     </row>
@@ -3674,7 +3815,8 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>@SpaceX Uau sem palavras</t>
+          <t>RT @otimistaoficial: O Nubank acaba de anunciar que mais de 30.000 esquerdistas cancelaram suas contas.
+O prejuízo estimado pelo banco é R$…</t>
         </is>
       </c>
     </row>
@@ -3684,7 +3826,9 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Sem palavras https://t.co/F6vFiYAf3Q</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -3694,7 +3838,9 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>@SpaceX @Starlink Sem palavras</t>
+          <t>@nubank @junqueira_cris @brasilparalelo @RankPolitico @brparalerdo O prêmio #RankingdosPolíticos 
+@RankPolitico de 2023, seguindo os critérios da organização, homenageou 119 Parlamentares, sendo 51 deles do #PL @plnacional_ — partido do ex-presidente Jair #Bolsonaro.
+Nenhum parlamentar de #esquerda recebeu as honrarias do prêmio 🤔</t>
         </is>
       </c>
     </row>
@@ -3704,8 +3850,8 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>SpaceX tentará “apanhar” Super Heavy no ar
-https://t.co/Nrcrsp6zgD https://t.co/zZW7RC4wG8</t>
+          <t>RT @AugustoNun37530: O Nubank acaba de anunciar que mais de 20000 esquerdistas cancelaram suas contas.
+O prejuízo estimado pelo banco é R$…</t>
         </is>
       </c>
     </row>
@@ -3715,7 +3861,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>@SpaceX Aqui no Brasil estou aguardando a implantação dessa tecnologia, para impulsionar a minha empresa de rastreamento de veículos. Parabéns Spacex</t>
+          <t>Meu nubank tá normal uai...</t>
         </is>
       </c>
     </row>
@@ -3725,7 +3871,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>@SpaceNosey China se copió de SpaceX no?</t>
+          <t>fui aceito no Inter. em breve, adeus @nubank ♥</t>
         </is>
       </c>
     </row>
@@ -3735,8 +3881,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Mais um liftoff.
-#Falcon9 🚀 https://t.co/S18bvs1nUi</t>
+          <t>Nubank nas trends nunca é coisa boa.</t>
         </is>
       </c>
     </row>
@@ -3746,7 +3891,9 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>RT @dannlelis: FLAGRA NO CÉU. O trem de satélites Starlink foi flagrado, nesta quarta-feira, 5, cruzando o céu de Palmas. Desenvolvido e co…</t>
+          <t>RT @ICLNoticias: O jornalista Paulo Motoryn detalha as relações entre o Nubank e a extrema direita brasileira
+@opaulomm 
+Veja mais no Porta…</t>
         </is>
       </c>
     </row>
@@ -3756,8 +3903,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: URGENTE: STARLINK MINI REVELADA!
-A mais nova antena receptora e transmissora da internet por satélite da SpaceX acabou v…</t>
+          <t>RT @SergioAJBarrett: É A Cristina Junqueira do Nubank Dizendo que Contratar Pessoas Negras Seria "NIVELAR POR BAIXO"? https://t.co/x1xBoETy…</t>
         </is>
       </c>
     </row>
@@ -3767,7 +3913,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>@EVDOZIT @SpaceX @Starlink Incrívelmente fantástico 😍♥️👏🏾👏🏾</t>
+          <t>Nubank só pode tá de palhaçada comigo https://t.co/C2oY6oBtBT</t>
         </is>
       </c>
     </row>
@@ -3777,7 +3923,9 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>@SpaceX @Starlink Impossível não achar isso incrível, fantástico. Muito top show 😍♥️👏🏾👏🏾👏🏾</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -3787,8 +3935,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>RT @HotNews72346962: 🚀✨ Espetáculo no céu! 
-Milhões no sul da Califórnia, Arizona e Utah veem o foguete Falcon 9 da SpaceX, criando um ras…</t>
+          <t>@JornalDaCidadeO Gente banco sem petistas e maravilhoso, muito mais seguro com ar mais puro, vc de direita abra sua conta no NUBANK hoje mesmo bora lá uai. https://t.co/GVFpaniHlt</t>
         </is>
       </c>
     </row>
@@ -3798,8 +3945,9 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>RT @HotNews72346962: 🚀✨ #ATUALIZAÇÃO | Fotos e Vídeos de internautas que registraram o lançamento da Falcon 9 da SpaceX.
-#Falcon9 #SpaceX…</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -3809,8 +3957,15 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>🇺🇸NÃO, NÃO SÃO ALIENS, APENAS SPACEX!!!
-Milhões de pessoas  no sul da Califórnia, Arizona e Utah testemunharam um rastro de vapor de “água-viva” no céu noturno, causado pelo lançamento do foguete Falcon 9 da SpaceX da Força Aérea de Vandenberg Bae. O evento, que alguns… https://t.co/T88hNGrXMs https://t.co/yzjpTGGDMq</t>
+          <t>Comissão de ética arquivou há pouco a representação contra o deputado Janones (Avante/MG), mesmo quando...
+🇧🇷🇮🇱🇺🇦
+Jair Bolsonaro Zucco Elon Musk Argentina Ucrânia Polônia
+Campos Neto Copom
+Nubank Allan Diniz
+🚨
+VIVA O SUS Moraes Toffoli
+ARROZÃO 🌽 MILHÃO
+https://t.co/jEXdEEDm88</t>
         </is>
       </c>
     </row>
@@ -3820,8 +3975,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: URGENTE: STARLINK MINI REVELADA!
-A mais nova antena receptora e transmissora da internet por satélite da SpaceX acabou v…</t>
+          <t>RT @ribeiromari13: nubank caiu, q a fatura do meu cartão caia junto 🙏🏼</t>
         </is>
       </c>
     </row>
@@ -3831,8 +3985,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: FALCON 9 LANÇADO!
-Vinte Starlinks no espaço e céus iluminados nas redondezas de Vandenberg em mais um lançamento da Spac…</t>
+          <t>RT @camsaudiovisual: a gestão de crise do nubank tá trabalhando https://t.co/1PVP61CeAD</t>
         </is>
       </c>
     </row>
@@ -3842,7 +3995,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>@SpaceX Uau que maravilha de se ver</t>
+          <t>RT @MafinhaBarba: Eu estava esperando saber o que aconteceria com o cancelamento do Nubank pela esquerda. Digo isso porque ele é um caso pe…</t>
         </is>
       </c>
     </row>
@@ -3852,7 +4005,10 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>@SpaceX @Starlink 🚀🚀🚀🚀 parabéns 🎈🎉🎊</t>
+          <t>Não acreditem nos motivos alegados por "influencers" cooptados por este "desgoverno"! 
+             O verdadeiro motivo 
+                   👇🏻👇🏻👇🏻👇🏻👇🏻
+A direita deve abraçar o Nubank, sem nenhum preconceito https://t.co/NMSMUrQLF3</t>
         </is>
       </c>
     </row>
@@ -3862,8 +4018,8 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: FALCON 9 LANÇADO!
-Vinte Starlinks no espaço e céus iluminados nas redondezas de Vandenberg em mais um lançamento da Spac…</t>
+          <t>RT @otimistaoficial: O Nubank acaba de anunciar que mais de 30.000 esquerdistas cancelaram suas contas.
+O prejuízo estimado pelo banco é R$…</t>
         </is>
       </c>
     </row>
@@ -3873,7 +4029,9 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>@ABC7 @SpaceX From Santa Clarita https://t.co/BiNtUjiGMk</t>
+          <t>RT @ICLNoticias: O jornalista Paulo Motoryn detalha as relações entre o Nubank e a extrema direita brasileira
+@opaulomm 
+Veja mais no Porta…</t>
         </is>
       </c>
     </row>
@@ -3883,8 +4041,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>🚀✨ #ATUALIZAÇÃO | Fotos e Vídeos de internautas que registraram o lançamento da Falcon 9 da SpaceX.
-#Falcon9 #SpaceX https://t.co/isK5VMrAA2 https://t.co/24CSQQd1Fp</t>
+          <t>RT @crimeenews: Peguei um empréstimo de 50 mil na Nubank e desinstalei o aplicativo https://t.co/h82N3Ys8bF</t>
         </is>
       </c>
     </row>
@@ -3894,11 +4051,8 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>🚀✨ Espetáculo no céu! 
-Milhões no sul da Califórnia, Arizona e Utah veem o foguete Falcon 9 da SpaceX, criando um rastro de vapor incrível. Alguns confundem com OVNI. 
-Comente e compartilhe com seus amigos!
-Fonte: SpaceX News
-#BreakingNews #SpaceX https://t.co/4UwFnqYTPB</t>
+          <t>RT @otimistaoficial: O Nubank acaba de anunciar que mais de 30.000 esquerdistas cancelaram suas contas.
+O prejuízo estimado pelo banco é R$…</t>
         </is>
       </c>
     </row>
@@ -3908,8 +4062,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: FALCON 9 LANÇADO!
-Vinte Starlinks no espaço e céus iluminados nas redondezas de Vandenberg em mais um lançamento da Spac…</t>
+          <t>mais um dia a nubank aumentando limites, menos o meu</t>
         </is>
       </c>
     </row>
@@ -3919,7 +4072,9 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>@SpaceX From El Segundo https://t.co/LG20H0tuIb</t>
+          <t>RT @JornalDaCidadeO: A direita deve abraçar o Nubank, sem nenhum preconceito 
+https://t.co/3BELd7Y83b
+“Bancos que sempre apoiaram Lula quer…</t>
         </is>
       </c>
     </row>
@@ -3929,8 +4084,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Lançamento da Missão Starlink 9-1 realizada com Sucesso no SLC-4E 🎉
-#spacex #falcon9 #nasa https://t.co/csiXPvVE8d</t>
+          <t>RT @JoaquinTeixeira: ONDE FICA A AGÊNCIA DO NUBANK? QUERO IR PESSOALMENTE NO BANCO DAR UM ABRAÇO EM CADA COLABORADOR!</t>
         </is>
       </c>
     </row>
@@ -3940,7 +4094,8 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>@LorenaT66841114 @SpaceX Sanaoria 👊</t>
+          <t>@jjforni faz uma análise dessa crise reputacional, plsss. Nunca te pedi nada. :) 
+Ações do Nubank caem após boicote: entenda crise e ‘cancelamento’ https://t.co/4CJH094XxL</t>
         </is>
       </c>
     </row>
@@ -3950,8 +4105,9 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: FALCON 9 LANÇADO!
-Vinte Starlinks no espaço e céus iluminados nas redondezas de Vandenberg em mais um lançamento da Spac…</t>
+          <t>RT @JornalDaCidadeO: A direita deve abraçar o Nubank, sem nenhum preconceito 
+https://t.co/3BELd7Y83b
+“Bancos que sempre apoiaram Lula quer…</t>
         </is>
       </c>
     </row>
@@ -3961,8 +4117,9 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>FALCON 9 LANÇADO!
-Vinte Starlinks no espaço e céus iluminados nas redondezas de Vandenberg em mais um lançamento da SpaceX! https://t.co/GyMQyhqf3R</t>
+          <t>RT @ICLNoticias: O jornalista Paulo Motoryn detalha as relações entre o Nubank e a extrema direita brasileira
+@opaulomm 
+Veja mais no Porta…</t>
         </is>
       </c>
     </row>
@@ -3972,7 +4129,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>RT @willptv: [Lançamento 61 da #SpaceX, 2024] Às 00:40 BRT do dia 19/06/24, foi lançado o #Falcon9 em #Vandenberg, na Califórnia, levando 2…</t>
+          <t>RT @sinthianr: o Nubank resolveu cair na hora que fui pagar meu boleto https://t.co/G99C1Ho9Zs</t>
         </is>
       </c>
     </row>
@@ -3982,7 +4139,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>[Lançamento 61 da #SpaceX, 2024] Às 00:40 BRT do dia 19/06/24, foi lançado o #Falcon9 em #Vandenberg, na Califórnia, levando 20 satélites pela missão #Starlink (9-1), incluindo 13 para celulares. https://t.co/bvU6zaIWmo</t>
+          <t>Véi, a nubank simplesmente dobrou meu limite, mto bom pagar as contas em dia</t>
         </is>
       </c>
     </row>
@@ -3992,7 +4149,9 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Nunca tinha visto pessoalmente um lançamento da SpaceX, realmente incrível! https://t.co/5BgXCzB9tI</t>
+          <t>RT @ICLNoticias: O jornalista Paulo Motoryn detalha as relações entre o Nubank e a extrema direita brasileira
+@opaulomm 
+Veja mais no Porta…</t>
         </is>
       </c>
     </row>
@@ -4002,7 +4161,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>@SpaceX From Escondido, Ca https://t.co/DeS35ATbjc</t>
+          <t>"a pq o nubank tá com o Brasil paralelo" sim sim todo dono de banco é facho cadê a novidade? https://t.co/arBkCQUrHD</t>
         </is>
       </c>
     </row>
@@ -4012,7 +4171,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Finalmente não aguentava mais a ScrubX https://t.co/hocUiD2Wfv</t>
+          <t>Finalmente a Nubank aumentou o meu limite e que limite agr 😳😳😳</t>
         </is>
       </c>
     </row>
@@ -4022,7 +4181,8 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Vai filhão!! https://t.co/LjXDp1eXj5</t>
+          <t>RT @otimistaoficial: O Nubank acaba de anunciar que mais de 30.000 esquerdistas cancelaram suas contas.
+O prejuízo estimado pelo banco é R$…</t>
         </is>
       </c>
     </row>
@@ -4032,10 +4192,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>FANTÁSTICO!💯👏👏🤣
-FANTASTIC!👏👏👏💯
-@SpaceX
-https://t.co/KswVLuPliv</t>
+          <t>RT @crimeenews: Peguei um empréstimo de 50 mil na Nubank e desinstalei o aplicativo https://t.co/h82N3Ys8bF</t>
         </is>
       </c>
     </row>
@@ -4045,9 +4202,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>tirem suas conclusões sobre a aprovação deste pacote bilionário para o executivo e se ele de fato é uma força transformadora em nossa sociedade.
-Tags
-@Tesla @teslaownersSV @SpaceX @boringcompany @elonmusk #historia #mundocorporativo #capitalismo #empreendedorismo #america #usa</t>
+          <t>RT @ribeiromari13: nubank caiu, q a fatura do meu cartão caia junto 🙏🏼</t>
         </is>
       </c>
     </row>
@@ -4057,9 +4212,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>a Tesla praticamente criou o segmento de carros elétricos onde, agora, dezenas de outras empresas atuam gerando centenas de milhares e empregos, arrecadando milhões em impostos e potencialmente gerando algum impacto positivo no meio ambiente.
-Na SpaceX...
-10/n</t>
+          <t>@graziouropreto @nubank Eu to com o mesmo problema, ai quando da erro, aparece a mensagem pedindo pra entrar em contato com a Nubank</t>
         </is>
       </c>
     </row>
@@ -4069,9 +4222,9 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>RT @AnnaMonteiroAn1: 🌩
-🛰⚡️ STARLINK MINI !
-A mais nova antena receptora e transmissora da internet por satélite da SpaceX acabou vazando,…</t>
+          <t>RT @ICLNoticias: O jornalista Paulo Motoryn detalha as relações entre o Nubank e a extrema direita brasileira
+@opaulomm 
+Veja mais no Porta…</t>
         </is>
       </c>
     </row>
@@ -4081,7 +4234,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>@OradoraPeixe E daí, apenas um empresa entre várias. Esse é o lindo do capitalismo, as empresas privadas na vanguarda. SpaceX logo coloniza Marte e a cadela laika vai continuar morta</t>
+          <t>RT @crimeenews: Peguei um empréstimo de 50 mil na Nubank e desinstalei o aplicativo https://t.co/h82N3Ys8bF</t>
         </is>
       </c>
     </row>
@@ -4091,9 +4244,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>RT @AnnaMonteiroAn1: 🌩
-🛰⚡️ STARLINK MINI !
-A mais nova antena receptora e transmissora da internet por satélite da SpaceX acabou vazando,…</t>
+          <t>RT @crimeenews: Peguei um empréstimo de 50 mil na Nubank e desinstalei o aplicativo https://t.co/h82N3Ys8bF</t>
         </is>
       </c>
     </row>
@@ -4103,9 +4254,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>RT @AnnaMonteiroAn1: 🌩
-🛰⚡️ STARLINK MINI !
-A mais nova antena receptora e transmissora da internet por satélite da SpaceX acabou vazando,…</t>
+          <t>@nubank @RodrigoSilv_a Aff Nubank, cadê a rápida resolução eim?</t>
         </is>
       </c>
     </row>
@@ -4115,9 +4264,9 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>@NASA @esa @SpaceX @Starlink @elonmusk Despertar2024 É Seu direito não Acreditar. Mas,É meu dever te Avisar!👽
-#UMFEIXEDELUZ🛸
-#EUSOU #JESUSEXTRATERRESTRE https://t.co/Qc2WqliUrX</t>
+          <t>RT @JornalDaCidadeO: A direita deve abraçar o Nubank, sem nenhum preconceito 
+https://t.co/3BELd7Y83b
+“Bancos que sempre apoiaram Lula quer…</t>
         </is>
       </c>
     </row>
@@ -4127,7 +4276,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>@meelonmuskusa Detalhes , desde que seja de qualidade! O Tesla , seria uma homenagem ao Grande Nikola Tesla , outro ao maior avanço tecnológico espacial da humanidade o SpaceX .</t>
+          <t>RT @ribeiromari13: nubank caiu, q a fatura do meu cartão caia junto 🙏🏼</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4286,9 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Quantos satélite a InternetBrás colocou no espaço hoje ou essa semana? https://t.co/veNIZPrkvI</t>
+          <t>RT @JornalDaCidadeO: A direita deve abraçar o Nubank, sem nenhum preconceito 
+https://t.co/3BELd7Y83b
+“Bancos que sempre apoiaram Lula quer…</t>
         </is>
       </c>
     </row>
@@ -4147,7 +4298,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>@TumultoBR Só quem faz foguete 🚀 dá ré... portanto, só a SpaceX X pode fazer isso.</t>
+          <t>queria tanto ter amassado um x-bacon na cantina hj te odeio muito nubank</t>
         </is>
       </c>
     </row>
@@ -4157,7 +4308,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>RT @willptv: [SCRUB] Devido às condições dos ventos, foi adiada a tentativa de lançamento para hoje 18/06/2024, no Cabo Canaveral, na #Flor…</t>
+          <t>RT @jesusccardoso_: Eu indo ver se foi só o meu Nubank que caiu: https://t.co/5GKWc0PwBw</t>
         </is>
       </c>
     </row>
@@ -4167,7 +4318,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>[SCRUB] Devido às condições dos ventos, foi adiada a tentativa de lançamento para hoje 18/06/2024, no Cabo Canaveral, na #Florida, pela missão #SESAstra 1P. https://t.co/dcHHLGFEal https://t.co/6Bc7liryx5</t>
+          <t>nubank ficando com instabilidade logo na hora do almoço</t>
         </is>
       </c>
     </row>
@@ -4177,8 +4328,9 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Lançamento Abortado devido ao Mau Tempo na Plataforma de Lançamento
-#spacex #falcon9 #scrub #ses https://t.co/koDiW5yfjS</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -4188,7 +4340,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>11 dias sem um lançamento da spacex.... Não estou me sentindo tão bem.. Os sintomas estão começando a aparecer.</t>
+          <t>Nubank LIXOOOO</t>
         </is>
       </c>
     </row>
@@ -4198,9 +4350,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>RT @AnnaMonteiroAn1: 🌩
-🛰⚡️ STARLINK MINI !
-A mais nova antena receptora e transmissora da internet por satélite da SpaceX acabou vazando,…</t>
+          <t>Quando o Nubank volta vcs me avisam por favor, já perdi a paciência</t>
         </is>
       </c>
     </row>
@@ -4210,7 +4360,9 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>@LLL_SpaceX Tem quer criticar mesmo, pq essa org virou uma guilda de novo</t>
+          <t>RT @ICLNoticias: O jornalista Paulo Motoryn detalha as relações entre o Nubank e a extrema direita brasileira
+@opaulomm 
+Veja mais no Porta…</t>
         </is>
       </c>
     </row>
@@ -4220,7 +4372,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>RT @willptv: #SESAstra: O pessoal na Flórida, está monitorando as condições da velocidade dos ventos para a missão de hoje.</t>
+          <t>como que baixa nubank dinheiro infinito apk ios</t>
         </is>
       </c>
     </row>
@@ -4230,7 +4382,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>#SESAstra: O pessoal na Flórida, está monitorando as condições da velocidade dos ventos para a missão de hoje. https://t.co/ZXd9VhsW44</t>
+          <t>Vsf Nubank 🖕🏾</t>
         </is>
       </c>
     </row>
@@ -4240,7 +4392,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>@afcustodioo @SpaceToday1 @SpotifyBrasil O Sacani, assim como seus fãs, mamam tanto o Elon Musk que até esquecem que grande parte dos investimentos na SpaceX são de dinheiro público</t>
+          <t>@nubank @Gabriel__1914 SE EU LIGAR, VOCÊS VÃO ATENDER? ME PARECE QUE NÃO.</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4402,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>@LLL_SpaceX concordo</t>
+          <t>@nubank BANCO LIXO.</t>
         </is>
       </c>
     </row>
@@ -4260,9 +4412,9 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>RT @AnnaMonteiroAn1: 🌩
-🛰⚡️ STARLINK MINI !
-A mais nova antena receptora e transmissora da internet por satélite da SpaceX acabou vazando,…</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -4272,7 +4424,9 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Mas um registro do astronauta @dominickmatthew a cápsula Crew Dragon da SpaceX ao fundo algumas estrelas 🌟 e fora do enquadramento está a lua 🌙 https://t.co/VEzVmHYvnB</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -4282,8 +4436,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>RT @ZEZINHOSPACE: 🔴 REVELADO O MATERIAL DA NOVA CAMADA ABLATIVA DO STARSHIP! 
-A SpaceX está aplicando uma fibra de carbono oxidada chamada…</t>
+          <t>RT @crimeenews: Peguei um empréstimo de 50 mil na Nubank e desinstalei o aplicativo https://t.co/h82N3Ys8bF</t>
         </is>
       </c>
     </row>
@@ -4293,7 +4446,9 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>@PallottaPedro Mas deve ter bastante funcionários trabalhando pra repor esses escudos. Levando em consideração que a SpaceX ta trabalhando 24/7 nisso aí, em menos de 1 mês já conseguem repor tudo.</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -4303,9 +4458,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>RT @AnnaMonteiroAn1: 🌩
-🛰⚡️ STARLINK MINI !
-A mais nova antena receptora e transmissora da internet por satélite da SpaceX acabou vazando,…</t>
+          <t>@nubank @Erickreis159 QUE DESGRAÇA DE BANCO! O APP NÃO TÁ FUNCIONANDO TEM MAIS DE UMA HORA SEM SOLUÇÃO NENHUMA, NEM NO CHAT NEM NO TELEFONE ESTÃO RESPONDENDO. BANCO LIXO!</t>
         </is>
       </c>
     </row>
@@ -4315,7 +4468,8 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>RT @CristianaLemos9: Mais um dia de missão cumprida 17/06/2024 quero agradecer a todos pela confiança e por todo apoio aos irmãos atingidos…</t>
+          <t>RT @slpng_giants_pt: ❗️ATUALIZAÇÃO❗️
+Além da polêmica da conexão entre a Co-fundadora do Nubank com a Brasil Paralelo e o Ranking dos Polí…</t>
         </is>
       </c>
     </row>
@@ -4325,7 +4479,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>RT @alvesgladyys: @Astronomiaum Quem está intensamente trabalhando criou uma estação espacial chamada @SpaceX está fazendo testes com a @St…</t>
+          <t>RT @SergioAJBarrett: É A Cristina Junqueira do Nubank Dizendo que Contratar Pessoas Negras Seria "NIVELAR POR BAIXO"? https://t.co/x1xBoETy…</t>
         </is>
       </c>
     </row>
@@ -4335,13 +4489,9 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Você já pensou em desistir dos seus sonhos?
-.
-.
-.
-.
-.
-#tecnologia #curiosidades #dicas #mjdnegocios #space #spacex #elonmusk https://t.co/YyWZpkMGhT</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -4351,7 +4501,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Confira o vídeo de SpaceX_BR! #TikTok https://t.co/dBLK3poYjy</t>
+          <t>RT @crimeenews: Peguei um empréstimo de 50 mil na Nubank e desinstalei o aplicativo https://t.co/h82N3Ys8bF</t>
         </is>
       </c>
     </row>
@@ -4361,9 +4511,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>O Falcon 9 está posicionado na plataforma 40 para a missão ASTRA 1P, mas devido aos ventos fortes as equipes adiaram o lançamento para a janela das 20h23.
-Segundo a SpaceX as condições atualmente são de 55% favoráveis.
-#Falcon9 #SpaceX #Starlink #Foguete https://t.co/NqVk6vans0</t>
+          <t>RT @joaodomenech: Cancela Nubank já! Apoiadores de extremistas. https://t.co/ImZ9ce90EK</t>
         </is>
       </c>
     </row>
@@ -4373,8 +4521,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: SPACEX CONTINUA OS TRABALHOS NO ESCUDO DO SHIP30!
-Os funcionários da empresa seguem trocando as peças do escudo de calo…</t>
+          <t>Então a Nubank está aumentando o limite das pessoas à força? Qual o plano?</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4531,9 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>@keitonilda @Maicon_LH44 @DiegoAlexandre @SpaceToday1 Na vdd pousar foi depois do contrato! A NASA “ajudou” a SpaceX pq ela provou q poderia colocar carga em orbita. Depois com o seu próprio lucro, ela desenvolveu o pouso do primeiro estagio e a coleta das coifas, fazendo o custo de mandar algo p espaço despencar.</t>
+          <t>RT @ICLNoticias: O jornalista Paulo Motoryn detalha as relações entre o Nubank e a extrema direita brasileira
+@opaulomm 
+Veja mais no Porta…</t>
         </is>
       </c>
     </row>
@@ -4394,7 +4543,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Elon Musk é um Emilio Odebrecht no setor aeroespacial. Se houvesse um juiz lesa-pátria lá e lançasse um "Nasa-Jato" (sorte dos EUA que não existe uma embaixada dos EUA lá) o bilionário rodaria com o tanto de corrupção nos contratos dessa SpaceX. E o Bostão Foguetes bate palma</t>
+          <t>RT @Mariada00801445: Excelente vídeo do @ICLNoticias . Eduardo Moreira explica os motivos pq vc deve cancelar a sua conta do Nubank. https:…</t>
         </is>
       </c>
     </row>
@@ -4404,8 +4553,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>RT @BenPontesMBL: Graças à iniciativa privada, com destaque para a SpaceX do Elon Musk, o homem voltou a sonhar em desbravar os céus. 
-Enq…</t>
+          <t>@crimeenews É difícil a Nubank liberar 50 reais imagina 50 mil</t>
         </is>
       </c>
     </row>
@@ -4415,7 +4563,8 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>@CarlosS31008302 @H1SaiaDaMatrix @SpaceToday1 Enquanto isso na Amazonia e no interiorzão do Brasil só chega internet rápida por causa do Elon Musk/SpaceX.</t>
+          <t>RT @LadoBdoRio: Nada contra esse movimento de boicote ao Nubank por sua relação com a rede de mentiras Brasil Paralelo.
+Pelo contrário, to…</t>
         </is>
       </c>
     </row>
@@ -4425,8 +4574,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>RT @BenPontesMBL: Graças à iniciativa privada, com destaque para a SpaceX do Elon Musk, o homem voltou a sonhar em desbravar os céus. 
-Enq…</t>
+          <t>@nubank Já tentei fazer isso é não normalizou ainda. Estou na parte de autorizar o dispositivo, mas o código demora pra ser enviado e quando é enviado da erro!</t>
         </is>
       </c>
     </row>
@@ -4436,8 +4584,8 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Graças à iniciativa privada, com destaque para a SpaceX do Elon Musk, o homem voltou a sonhar em desbravar os céus. 
-Enquanto as grandes potências, em parceria com empresários, voltam a investir nos seus programas de exploração espacial, o Brasil lacra retratando uma cosmonauta… https://t.co/uAX6L43MeX</t>
+          <t>RT @slpng_giants_pt: ❗️ATUALIZAÇÃO❗️
+Além da polêmica da conexão entre a Co-fundadora do Nubank com a Brasil Paralelo e o Ranking dos Polí…</t>
         </is>
       </c>
     </row>
@@ -4447,7 +4595,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>@gustavogstt @LLL_SpaceX Mas nem precisa mn</t>
+          <t>RT @HamiltonPozzi: Cancela Nubank que apoia Fascistas. https://t.co/NQgwgxaP99</t>
         </is>
       </c>
     </row>
@@ -4457,7 +4605,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>@SpaceToday1 @NASA @BoeingSpace @Space_Station Assistia todas as suas lives. Toda vez que você fazia live de lançamento chinês recebia dezenas de ataques covardes no chat, inclusive contra sua família, vindo de não seguidores. Não acontecia isso em lançamentos da spacex. Você é muito ingrato com seu público antigo e neutro.</t>
+          <t>RT @MafinhaBarba: Hoje, o Nubank atingiu seu ATH (All Time High), com as ações fechando a $11.99, um aumento de 2.52% em relação ao fechame…</t>
         </is>
       </c>
     </row>
@@ -4467,11 +4615,9 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>@ZEZINHOSPACE Eu discordo fundamentalmente da sua opinião, meus motivos estão abaixo, particularmente o artigo de opinião do Spacenews reflete quase que a totalidade a minha visão.
-https://t.co/40UKMkoPeZ
-https://t.co/flPbur2Yza
-https://t.co/Yesd6G1tnG
-https://t.co/YXCdEhUvIf</t>
+          <t>RT @ICLNoticias: O jornalista Paulo Motoryn detalha as relações entre o Nubank e a extrema direita brasileira
+@opaulomm 
+Veja mais no Porta…</t>
         </is>
       </c>
     </row>
@@ -4481,8 +4627,9 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>RT @jameswebb_nasa: Investimento da SpaceX Impulsiona Desenvolvimento Econômico em Cameron County
-A recente divulgação do impacto econômic…</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -4492,7 +4639,16 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>@quatrorodas Cara, por mais que role esse drama da BYD aqui no brasil, aquele pessoal reclamando do acabamento do carro e tudo mais... Eu teria um só pra não precisar pagar caro no combustível (Aí a conta de luz decola mais que um foguete da SpaceX 🤡🤡🤡)</t>
+          <t>OLHA ISSO: SÓ COMPRE ARROZ DO RIO GRANDE DO SUL
+🇧🇷🇮🇱🇵🇹🇺🇦🇯🇵🇮🇹🇦🇷🇺🇲
+#SOSRS
+Jair Bolsonaro Zucco Elon Musk Argentina Milei Ucrânia Polônia
+Campos Neto Copom
+Nubank Allan Diniz
+🚨
+VIVA O SUS Alexandre de Moraes Toffoli Barroso André Mendonça
+ARROZÃO 🌽 MILHÃO
+https://t.co/80ha1zmyUY</t>
         </is>
       </c>
     </row>
@@ -4502,7 +4658,8 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>@alvesgladyys @Astronomiaum @SpaceX @Starship @elonmusk Quem está trabalhando kkkk</t>
+          <t>O termo ‘Nubank’ estava entre os “Assuntos do Momento” do X no Brasil. Alguns clientes reportaram na rede social a falha
+https://t.co/EOEiy19nOq</t>
         </is>
       </c>
     </row>
@@ -4512,8 +4669,9 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>RT @ZEZINHOSPACE: 🔴 STARSHIP MUDOU A ECONOMIA DE UM CONDADO INTEIRO! 
-O Condado de Cameron compartilhou as estatísticas mais recentes sobr…</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -4523,8 +4681,8 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>RT @ZEZINHOSPACE: 🔴 STARSHIP MUDOU A ECONOMIA DE UM CONDADO INTEIRO! 
-O Condado de Cameron compartilhou as estatísticas mais recentes sobr…</t>
+          <t>RT @otimistaoficial: O Nubank acaba de anunciar que mais de 30.000 esquerdistas cancelaram suas contas.
+O prejuízo estimado pelo banco é R$…</t>
         </is>
       </c>
     </row>
@@ -4534,7 +4692,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>@LLL_SpaceX A loud não gosta de gastar dinheiro, se n já teriam contratado streamers de cada modalidade ai</t>
+          <t>RT @MafinhaBarba: Eu estava esperando saber o que aconteceria com o cancelamento do Nubank pela esquerda. Digo isso porque ele é um caso pe…</t>
         </is>
       </c>
     </row>
@@ -4544,7 +4702,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>@RafaelF90836431 @alvesgladyys @Astronomiaum @SpaceX @Starship @elonmusk Não ironicamente eu curti o nome.</t>
+          <t>RT @vaneebzx: O nubank de vocês tá assim? https://t.co/S4B4uJWedC</t>
         </is>
       </c>
     </row>
@@ -4554,8 +4712,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: URGENTE: STARLINK MINI REVELADA!
-A mais nova antena receptora e transmissora da internet por satélite da SpaceX acabou v…</t>
+          <t>@nubank @the_lakewolf Fodaseee vcs!! Quero meu dinheiro TÔ COM FOMEEE</t>
         </is>
       </c>
     </row>
@@ -4565,8 +4722,9 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>RT @ZEZINHOSPACE: 🔴 STARSHIP MUDOU A ECONOMIA DE UM CONDADO INTEIRO! 
-O Condado de Cameron compartilhou as estatísticas mais recentes sobr…</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -4576,8 +4734,9 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>RT @ZEZINHOSPACE: 🔴 STARSHIP MUDOU A ECONOMIA DE UM CONDADO INTEIRO! 
-O Condado de Cameron compartilhou as estatísticas mais recentes sobr…</t>
+          <t>RT @JornalDaCidadeO: A direita deve abraçar o Nubank, sem nenhum preconceito 
+https://t.co/3BELd7Y83b
+“Bancos que sempre apoiaram Lula quer…</t>
         </is>
       </c>
     </row>
@@ -4587,9 +4746,8 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>RT @AnnaMonteiroAn1: 🌩
-🛰⚡️ STARLINK MINI !
-A mais nova antena receptora e transmissora da internet por satélite da SpaceX acabou vazando,…</t>
+          <t>ontem a nubank me ligou pra dizer que foi aprovada uma compra no mercado livre.
+eu nao tenho nubank. https://t.co/ocuCJwrVVU</t>
         </is>
       </c>
     </row>
@@ -4599,8 +4757,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>RT @jameswebb_nasa: Investimento da SpaceX Impulsiona Desenvolvimento Econômico em Cameron County
-A recente divulgação do impacto econômic…</t>
+          <t>RT @Transdedireita2: Esquerda quer Boicotar a Nubank! 😂😂🤡 https://t.co/j5bzO7KBqJ</t>
         </is>
       </c>
     </row>
@@ -4610,7 +4767,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>@BaltarBanido Tinha suspeitas em relacão a ele por toda a patota que vivia junto,mas por outro lado ele cobrindo Nasa,spaceX, Elon Musk e viajando para os EUA para ver eclipses e lançamentos e elogiando Marcos Pontes,vi coisas destoantes da cartilha radical militante nele,agora então virei fã</t>
+          <t>RT @ribeiromari13: nubank caiu, q a fatura do meu cartão caia junto 🙏🏼</t>
         </is>
       </c>
     </row>
@@ -4620,8 +4777,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: SPACEX CONTINUA OS TRABALHOS NO ESCUDO DO SHIP30!
-Os funcionários da empresa seguem trocando as peças do escudo de calo…</t>
+          <t>RT @MafinhaBarba: Hoje, o Nubank atingiu seu ATH (All Time High), com as ações fechando a $11.99, um aumento de 2.52% em relação ao fechame…</t>
         </is>
       </c>
     </row>
@@ -4631,8 +4787,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Elon Musk, dono da Starlink e SpaceX, anunciou o novo Starlink Mini, uma opção de 'entrada' do serviço de internet.
-Fonte: https://t.co/xDwYjFjTQF https://t.co/9E5ds8ImdC</t>
+          <t>Que coisa que o Nubank sempre aumenta meu limite perto do festival 🥹</t>
         </is>
       </c>
     </row>
@@ -4642,8 +4797,9 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>RT @jameswebb_nasa: Investimento da SpaceX Impulsiona Desenvolvimento Econômico em Cameron County
-A recente divulgação do impacto econômic…</t>
+          <t>RT @ICLNoticias: O jornalista Paulo Motoryn detalha as relações entre o Nubank e a extrema direita brasileira
+@opaulomm 
+Veja mais no Porta…</t>
         </is>
       </c>
     </row>
@@ -4653,7 +4809,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>@alvesgladyys @Astronomiaum @SpaceX @Starship @elonmusk Elon vai dar nome "CityX" à primeira cidade kkkkk</t>
+          <t>@the_lakewolf Nosso aplicativo enfrentou algumas instabilidades recentemente, mas já estamos empenhados em resolver isso o mais rápido possível. Por favor, desinstale e instale o aplicativo Nubank e tente acessar sua conta novamente.</t>
         </is>
       </c>
     </row>
@@ -4663,8 +4819,9 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Investimento da SpaceX Impulsiona Desenvolvimento Econômico em Cameron County
-A recente divulgação do impacto econômico local da SpaceX pelo juiz do condado de Cameron, Eddie Treviño Jr., destaca um crescimento impressionante na região devido às operações na Starbase. Com mais… https://t.co/99wiqEFeyS https://t.co/O25bbYVFF3</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -4674,7 +4831,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>@Astronomiaum Quem está intensamente trabalhando criou uma estação espacial chamada @SpaceX está fazendo testes com a @Starship e o @elonmusk e sua equipe. Portando bada mais justo do que o nome da primeira cidade ser Elonspacex</t>
+          <t>@saiadamatrix_ @nubank Nossaaa, tô com ódio disso, tá acontecendo a mesma coisa comigo!</t>
         </is>
       </c>
     </row>
@@ -4684,7 +4841,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>@ZEZINHOSPACE Se eu fosse o Brasil, eu oferecia Alcântara de graça pra SpaceX.</t>
+          <t>eu quase morrendo p logar a nubank, daí eu descubro q o banco caiu🧍🏻‍♀️</t>
         </is>
       </c>
     </row>
@@ -4694,8 +4851,9 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>RT @ZEZINHOSPACE: 🔴 STARSHIP MUDOU A ECONOMIA DE UM CONDADO INTEIRO! 
-O Condado de Cameron compartilhou as estatísticas mais recentes sobr…</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -4705,8 +4863,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>RT @ZEZINHOSPACE: 🔴 STARSHIP MUDOU A ECONOMIA DE UM CONDADO INTEIRO! 
-O Condado de Cameron compartilhou as estatísticas mais recentes sobr…</t>
+          <t>RT @SergioAJBarrett: É A Cristina Junqueira do Nubank Dizendo que Contratar Pessoas Negras Seria "NIVELAR POR BAIXO"? https://t.co/x1xBoETy…</t>
         </is>
       </c>
     </row>
@@ -4716,7 +4873,9 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>RT @CristianaLemos9: Mais um dia de missão cumprida 17/06/2024 quero agradecer a todos pela confiança e por todo apoio aos irmãos atingidos…</t>
+          <t>RT @ICLNoticias: O jornalista Paulo Motoryn detalha as relações entre o Nubank e a extrema direita brasileira
+@opaulomm 
+Veja mais no Porta…</t>
         </is>
       </c>
     </row>
@@ -4726,8 +4885,9 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: URGENTE: STARLINK MINI REVELADA!
-A mais nova antena receptora e transmissora da internet por satélite da SpaceX acabou v…</t>
+          <t>Tava rindo lembrando que a treta da semana da esquerda era sobre o CEO  Nubank patrocina o Brasil Paralelo.
+"Feio! Feio! Feio!"
+Aí lembrei de Marina Silva e os caras falando que ela ia tirar o bolsa-Familia porque era patrocinada por bancos.</t>
         </is>
       </c>
     </row>
@@ -4737,8 +4897,9 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>🚀✨ Não perca! Hoje às 18:35 BRT, acompanhe ao vivo o lançamento da missão Astra 1P/SES 24! Este satélite inovador vai revolucionar a TV via satélite na Alemanha, França e Espanha. 🌍📡
-#ses #spacex</t>
+          <t>RT @ErikakHilton: 🚨 PERIGO NO NUBANK
+Ontem, a executiva do Nubank, Cristina Junqueira, divulgou um evento do Brasil Paralelo.
+O Brasil Pa…</t>
         </is>
       </c>
     </row>
@@ -4748,11 +4909,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>🔴 STARSHIP MUDOU A ECONOMIA DE UM CONDADO INTEIRO! 
-O Condado de Cameron compartilhou as estatísticas mais recentes sobre o impacto econômico gerado pelo desenvolvimento do Starship da SpaceX na região. 
-🔰 DESTAQUES:
-➡️ INVESTIMENTO EM INFRAESTRUTURA:
-- A SpaceX investiu… https://t.co/kxk3m2zkRI https://t.co/lUS1bAJaBE https://t.co/m4Xsz9BcG1</t>
+          <t>RT @leokbelo13: Pessoal que está encerrando as contas no Nubank, essas empresas também estão com Bolsonaro: https://t.co/9RLeXq9Iaz</t>
         </is>
       </c>
     </row>
@@ -4762,9 +4919,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>RT @AnnaMonteiroAn1: 🌩
-🛰⚡️ STARLINK MINI !
-A mais nova antena receptora e transmissora da internet por satélite da SpaceX acabou vazando,…</t>
+          <t>@ALFINETEI Os esquerdistas imundos já cancelaram suas contas no Nubank? Essa pág imunda já cancelou sua conta no banco? 🤣😂🤮🤢💩 SEUS LIXOS</t>
         </is>
       </c>
     </row>
@@ -4774,7 +4929,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>@livinhafrota @TheIncorrupt_ Na SpaceX não pode, senão ele volta...</t>
+          <t>@BrunaSchneide Certamente foi por que o nubank contratou mais alguém para cancelar essas contas mais rápidos heheheheh</t>
         </is>
       </c>
     </row>
@@ -4784,7 +4939,9 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>RT @CristianaLemos9: Mais um dia de missão cumprida 17/06/2024 quero agradecer a todos pela confiança e por todo apoio aos irmãos atingidos…</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -4794,8 +4951,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>RT @ZEZINHOSPACE: 🔴 UPDATE STARSHIP FLÓRIDA! 
-A Administração Federal de Aviação (FAA) dos Estados Unidos realizará, às 19h BRT de hoje, 1…</t>
+          <t>@samengo_of "ae do batalhão, segura cartão da nubank cheio de conta pra pagar"</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4961,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>@Sakata_Gintokl @_Vetus @somerdaa2 @LLL_SpaceX Exato</t>
+          <t>@JornalDaCidadeO Só tenho conta em bancos digitais, o principal é o Nubank.</t>
         </is>
       </c>
     </row>
@@ -4815,7 +4971,22 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>@LLL_SpaceX Melhor jogador que já pisou no chão do CBLOL.</t>
+          <t>SemRush SimilarWeb
+Wikipedia 
+Windows 
+Office Adobe 
+Chrome 
+Google ChatGPT 
+Whatsapp Email 
+YouTube 
+ Spotify LastFm
+Goodreads MyAnimeList
+IMDb Letterboxd
+Nubank Ifood Uber
+Maps Earth
+ClimaTempo Relógio Calendário 
+Calculadora Câmera Fotos
+Configurações PlayStore</t>
         </is>
       </c>
     </row>
@@ -4825,8 +4996,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>RT @ZEZINHOSPACE: 🔴 REVELADO O MATERIAL DA NOVA CAMADA ABLATIVA DO STARSHIP! 
-A SpaceX está aplicando uma fibra de carbono oxidada chamada…</t>
+          <t>@nubank @elsinquisitive Já estou agoniada pq não está funcionando</t>
         </is>
       </c>
     </row>
@@ -4836,7 +5006,9 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>@matt_smb @_Vetus @somerdaa2 @LLL_SpaceX Né, bizarro ver uma galera que não sabe a diferença de coletivo e individual.</t>
+          <t>RT @Fa1ryNight: Anitta no conselho de administração e posteriormente como embaixadora mundial do Nubank: 
+Direita - Boicote Já ! 
+Esquerda…</t>
         </is>
       </c>
     </row>
@@ -4846,9 +5018,9 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>RT @AnnaMonteiroAn1: 🌩
-🛰⚡️ STARLINK MINI !
-A mais nova antena receptora e transmissora da internet por satélite da SpaceX acabou vazando,…</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -4858,9 +5030,8 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>RT @AnnaMonteiroAn1: 🌩
-🛰⚡️ STARLINK MINI !
-A mais nova antena receptora e transmissora da internet por satélite da SpaceX acabou vazando,…</t>
+          <t>@nubank @junqueira_cris @brasilparalelo @RankPolitico @brparalerdo Lembrando que o @RankPolitico #premia com pontos os parlamentares que votem de acordo com suas recomendações.
+https://t.co/8jWeQYxgM9 https://t.co/OLxjiH7mTn</t>
         </is>
       </c>
     </row>
@@ -4870,8 +5041,9 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: URGENTE: STARLINK MINI REVELADA!
-A mais nova antena receptora e transmissora da internet por satélite da SpaceX acabou v…</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -4881,7 +5053,9 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>@LLL_SpaceX 8,7 KDA, insano</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -4891,7 +5065,9 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>@folha Já pode chamar o dólar de SpaceX. ?</t>
+          <t>RT @ICLNoticias: O jornalista Paulo Motoryn detalha as relações entre o Nubank e a extrema direita brasileira
+@opaulomm 
+Veja mais no Porta…</t>
         </is>
       </c>
     </row>
@@ -4901,8 +5077,9 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>RT @SpaceToday1: O GOES-U agora está encapsulado dentro da coifa, que o protegerá da pressão aerodinâmica e do aquecimento.
-A janela de dua…</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -4912,9 +5089,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>RT @AnnaMonteiroAn1: 🌩
-🛰⚡️ STARLINK MINI !
-A mais nova antena receptora e transmissora da internet por satélite da SpaceX acabou vazando,…</t>
+          <t>@graziouropreto Nosso aplicativo enfrentou algumas instabilidades recentemente, mas já estamos empenhados em resolver isso o mais rápido possível. Por favor, desinstale e instale o aplicativo Nubank e tente acessar sua conta novamente.</t>
         </is>
       </c>
     </row>
@@ -4924,7 +5099,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>SpaceX Falcon 9 lançará o satélite SES Astra 1P: o que é e onde assistir ao lançamento https://t.co/xKLBbZmycp</t>
+          <t>bah @nubank conseguiu me tirar do sério, os maluco mandam código por e-mail e diz "código inválido"</t>
         </is>
       </c>
     </row>
@@ -4934,10 +5109,9 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Elon Musk Anuncia Starlink Mini: Internet por metade do preço da versão padrão 
-Confira matéria
-https://t.co/n7jxyFLdEm 
-@elonmusk @Starlink @SpaceX https://t.co/iD7GNaaF66</t>
+          <t>RT @ICLNoticias: O jornalista Paulo Motoryn detalha as relações entre o Nubank e a extrema direita brasileira
+@opaulomm 
+Veja mais no Porta…</t>
         </is>
       </c>
     </row>
@@ -4947,9 +5121,9 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>RT @AnnaMonteiroAn1: 🌩
-🛰⚡️ STARLINK MINI !
-A mais nova antena receptora e transmissora da internet por satélite da SpaceX acabou vazando,…</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -4959,8 +5133,8 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>RT @ZEZINHOSPACE: 🔴 REVELADO O MATERIAL DA NOVA CAMADA ABLATIVA DO STARSHIP! 
-A SpaceX está aplicando uma fibra de carbono oxidada chamada…</t>
+          <t>RT @otimistaoficial: O Nubank acaba de anunciar que mais de 30.000 esquerdistas cancelaram suas contas.
+O prejuízo estimado pelo banco é R$…</t>
         </is>
       </c>
     </row>
@@ -4970,13 +5144,9 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>https://t.co/w2YgKSMalJ 
-É extremamente surreal. A realidade que era ficção a 30 anos atrás...
-AMAZING 
-#SPACEX
-#STARLINK 
-@SpaceX 
-@Starlink</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -4986,8 +5156,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>RT @ZEZINHOSPACE: 🔴 REVELADO O MATERIAL DA NOVA CAMADA ABLATIVA DO STARSHIP! 
-A SpaceX está aplicando uma fibra de carbono oxidada chamada…</t>
+          <t>#opiniao, manos sobre a parada do nubank ai, todo banco quer q os pobres se fodam ue, lgc q eles vão apoiar ideias de direita, agr pra mim ele sempre foi horrível q várias áreas, por aq continuamos preferindo o inter, ent n gosto dele nem é por conta disso, e sim pq é ruim mesmo</t>
         </is>
       </c>
     </row>
@@ -4997,7 +5166,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>@misteriouspavao Dólar SpaceX</t>
+          <t>espero que com a saida dessa galera da nubank ela aumentem eu emprestimo de 2k pra 4k e meu limite pra 6k logo</t>
         </is>
       </c>
     </row>
@@ -5007,9 +5176,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>RT @AnnaMonteiroAn1: 🌩
-🛰⚡️ STARLINK MINI !
-A mais nova antena receptora e transmissora da internet por satélite da SpaceX acabou vazando,…</t>
+          <t>@nubank @elsinquisitive Código no meu e-mail não está chegando, arrumem isso urgentemente, não consigo acessar minha conta, por conta deste código que vocês não mandam no e-mail!!</t>
         </is>
       </c>
     </row>
@@ -5019,7 +5186,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>@_Vetus @LLL_SpaceX O trigo tá num tume 6/0 no momento, veja o dpm e egpm</t>
+          <t>RT @HamiltonPozzi: Cancela Nubank que apoia Fascistas. https://t.co/NQgwgxaP99</t>
         </is>
       </c>
     </row>
@@ -5029,9 +5196,8 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>RT @AnnaMonteiroAn1: 🌩
-🛰⚡️ STARLINK MINI !
-A mais nova antena receptora e transmissora da internet por satélite da SpaceX acabou vazando,…</t>
+          <t>@nubank @junqueira_cris @brasilparalelo @RankPolitico @brparalerdo .@brasilparalelo se posicionou publicamente contra #PL8889, q regularia serviços de streaming.
+Embora o @RankPolitico se diga isento, o projeto de lei não se enquadraria nas definições de critérios da própria instituição de "combate à corrupção, aos privilégios e ao desperdício". https://t.co/if9RcWO1qT</t>
         </is>
       </c>
     </row>
@@ -5041,8 +5207,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>RT @ZEZINHOSPACE: 🔴 REVELADO O MATERIAL DA NOVA CAMADA ABLATIVA DO STARSHIP! 
-A SpaceX está aplicando uma fibra de carbono oxidada chamada…</t>
+          <t>RT @leokbelo13: Pessoal que está encerrando as contas no Nubank, essas empresas também estão com Bolsonaro: https://t.co/9RLeXq9Iaz</t>
         </is>
       </c>
     </row>
@@ -5052,7 +5217,9 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>@LuizPersechini @demotapeislove O tio Elon acabou com essa grande vantagem a baixar o custo de lançamento. Fica mais caro trazer pra cá doque lançar da base da spaceX</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -5062,8 +5229,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>RT @ZEZINHOSPACE: 🔴 REVELADO O MATERIAL DA NOVA CAMADA ABLATIVA DO STARSHIP! 
-A SpaceX está aplicando uma fibra de carbono oxidada chamada…</t>
+          <t>@leokbelo13 Cancela, cancela tudo! Prejuízo do Nubank R$ 1.200 reais 🤣😂</t>
         </is>
       </c>
     </row>
@@ -5073,9 +5239,9 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>RT @AnnaMonteiroAn1: 🌩
-🛰⚡️ STARLINK MINI !
-A mais nova antena receptora e transmissora da internet por satélite da SpaceX acabou vazando,…</t>
+          <t>RT @ICLNoticias: O jornalista Paulo Motoryn detalha as relações entre o Nubank e a extrema direita brasileira
+@opaulomm 
+Veja mais no Porta…</t>
         </is>
       </c>
     </row>
@@ -5085,8 +5251,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>RT @ZEZINHOSPACE: 🔴 REVELADO O MATERIAL DA NOVA CAMADA ABLATIVA DO STARSHIP! 
-A SpaceX está aplicando uma fibra de carbono oxidada chamada…</t>
+          <t>RT @MafinhaBarba: Eu estava esperando saber o que aconteceria com o cancelamento do Nubank pela esquerda. Digo isso porque ele é um caso pe…</t>
         </is>
       </c>
     </row>
@@ -5096,9 +5261,9 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>🔴 REVELADO O MATERIAL DA NOVA CAMADA ABLATIVA DO STARSHIP! 
-A SpaceX está aplicando uma fibra de carbono oxidada chamada "Pyron" no Ship 30, com base em recentes ofertas de emprego para trabalhar com o material em Starbase, Texas. 
-A empresa já utiliza esse composto no… https://t.co/PItyxcBBL4 https://t.co/fHZLuwUEsN https://t.co/U4BskcPugy</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -5108,7 +5273,9 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>@quatroevirna parece o elon musk subindo no palco das convenções da tesla e da spacex</t>
+          <t>RT @ICLNoticias: O jornalista Paulo Motoryn detalha as relações entre o Nubank e a extrema direita brasileira
+@opaulomm 
+Veja mais no Porta…</t>
         </is>
       </c>
     </row>
@@ -5118,8 +5285,9 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>@leiatheinvestor @LulaOficial Já pode chamar o Dólar de SpaceX?
-🚀</t>
+          <t>RT @JornalDaCidadeO: A direita deve abraçar o Nubank, sem nenhum preconceito 
+https://t.co/3BELd7Y83b
+“Bancos que sempre apoiaram Lula quer…</t>
         </is>
       </c>
     </row>
@@ -5129,8 +5297,9 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Novo dispositivo é um roteador compacto, tamanho próximo a de um laptop, que poderá ser transportado para qualquer lugar
-https://t.co/5ZCzYfTHYh / #starlink #spacex #elonmusk / com @Starlink</t>
+          <t>Troquei de aparelho, já instalei todos os Apps, @interbr , @picpay , @santander_br ...
+Só  não consigo o @nubank !
+Banquinho bem ruim com burocracia desnecessária!</t>
         </is>
       </c>
     </row>
@@ -5140,8 +5309,8 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>RT @pplware: Elon Musk tem uma surpresa? SpaceX prepara lançamento do Starlink Mini
-https://t.co/JnaIB3TDiv https://t.co/RDJrUf3Xg3</t>
+          <t>RT @DefecatingB: "VOU CANCELAR MINHA CONTA NUBANK!"
+Enzo "Guarani-Kaiowá" da Silva, 43 anos, sociólogo, escritor, solteiro, mora com a mãe…</t>
         </is>
       </c>
     </row>
@@ -5151,8 +5320,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>RT @SpaceToday1: O GOES-U agora está encapsulado dentro da coifa, que o protegerá da pressão aerodinâmica e do aquecimento.
-A janela de dua…</t>
+          <t>@nubank por que um app não está funcionando</t>
         </is>
       </c>
     </row>
@@ -5162,8 +5330,11 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>@leiatheinvestor Vai abaixar a Selic na canetada.
-O dólar e a inflação vão subir que nem foguete da SpaceX</t>
+          <t>RT @RobertoSoaresUS: Já sou assinante do 
+BRASIL PARALELO 
+e agora serei cliente do NUBANK.
+Obrigado amigos da esquerda pela dica.
+#BrasilP…</t>
         </is>
       </c>
     </row>
@@ -5173,8 +5344,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>@glorioso_fc @EspacoGlorioso Sim estamos pagando a Conmebol, a CBF, a Fifa, a Nasa, a SpaceX, a ONU.
-Tamo comprando todo mundo.</t>
+          <t>RT @guinhowks: nubank caiu, banco porco https://t.co/ZhSeOq8g5c</t>
         </is>
       </c>
     </row>
@@ -5184,7 +5354,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>RT @CristianaLemos9: Mais um dia de missão cumprida 17/06/2024 quero agradecer a todos pela confiança e por todo apoio aos irmãos atingidos…</t>
+          <t>RT @ribeiromari13: nubank caiu, q a fatura do meu cartão caia junto 🙏🏼</t>
         </is>
       </c>
     </row>
@@ -5194,9 +5364,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>RT @AnnaMonteiroAn1: 🌩
-🛰⚡️ STARLINK MINI !
-A mais nova antena receptora e transmissora da internet por satélite da SpaceX acabou vazando,…</t>
+          <t>RT @MafinhaBarba: Hoje, o Nubank atingiu seu ATH (All Time High), com as ações fechando a $11.99, um aumento de 2.52% em relação ao fechame…</t>
         </is>
       </c>
     </row>
@@ -5206,9 +5374,9 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>🛰⚡️. @Starlink !
-A mais nova antena receptora e transmissora da internet por satélite da SpaceX acabou vazando, e foi confirmada por @elonmusk
-Trata-se de um terminal de tamanho aproximado de um iPad e que cabe em uma mochila, sendo extremamente fácil de ser transportado. https://t.co/KmbeVXhsyJ</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -5218,7 +5386,9 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>@SauloFe05649154 @m_daroz @DiegoAlexandre @SpaceToday1 Como disse, a Spacex e demais empresas de Musk mais precisam do gov americano/NASA q o contrário, isso parece ser bem claro quando se vê essa relação</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -5228,7 +5398,8 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>@SauloFe05649154 @m_daroz @DiegoAlexandre @SpaceToday1 Isso é conjectura. Estão indo com ajuda estatal, a Spacex mais depende da NASA q o contrário. ademais, até hoje, o Estado que levou o homem à Lua e ao espaço, não foi capital privado que levou o homem a Lua em 69, nunca conseguiria arriscar sozinho uma empreitada dessas</t>
+          <t>RT @otimistaoficial: O Nubank acaba de anunciar que mais de 30.000 esquerdistas cancelaram suas contas.
+O prejuízo estimado pelo banco é R$…</t>
         </is>
       </c>
     </row>
@@ -5238,8 +5409,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>PRESENTE 🎁 AMIGO DESENHISTA MAY FRIEND. #ApaixonadosPelaMusica #EsquerdaAtacaDireitaElonMuskdefende #SosRioGrandeDoSul  STARSHIP STARLINK TESLA SPACEX ELON MUSK parabéns Show de atitude. #nãoabôrto   AGÊNCIA DE CARGAS BHMG  LONEIRO LAURINDO 31 98110-4477
- https://t.co/JskGgm3ahT</t>
+          <t>RT @MafinhaBarba: Hoje, o Nubank atingiu seu ATH (All Time High), com as ações fechando a $11.99, um aumento de 2.52% em relação ao fechame…</t>
         </is>
       </c>
     </row>
@@ -5249,8 +5419,9 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>RT @ouniversolive: Conheça a Agência Espacial Brasileira -AEB, através desse vídeo tridimensional produzido pela @ouniversolive.
-#NASA #ag…</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -5260,8 +5431,9 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: URGENTE: STARLINK MINI REVELADA!
-A mais nova antena receptora e transmissora da internet por satélite da SpaceX acabou v…</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -5271,9 +5443,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>SARAU FESTIVAL DO DESJEJUM PBHM #ApaixonadosPelaMusica #EsquerdaAtacaDireitaElonMuskdefende #SosRioGrandeDoSul  STARSHIP STARLINK TESLA SPACEX ELON MUSK parabéns Show de atitude.  #nãoabôrto 
- AGÊNCIA DE CARGAS BHMG E LONEIRO LAURINDO 31 98110-4477
- https://t.co/4VDGgUAaD8</t>
+          <t>RT @asc_adriano: Abri hoje a minha conta #nubank, porque apoia o Brasil Paralelo e não se submete à patrulha da esquerda. https://t.co/eEUq…</t>
         </is>
       </c>
     </row>
@@ -5283,9 +5453,9 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>RT @AnnaMonteiroAn1: 🌩
-🛰⚡️ STARLINK MINI !
-A mais nova antena receptora e transmissora da internet por satélite da SpaceX acabou vazando,…</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -5295,9 +5465,9 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>RT @AnnaMonteiroAn1: 🌩
-🛰⚡️ STARLINK MINI !
-A mais nova antena receptora e transmissora da internet por satélite da SpaceX acabou vazando,…</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -5307,8 +5477,8 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>RT @mspbra: 🚨 ATENCÃO: Elon Musk anuncia a Starlink Mini, prometendo internet pela metade do preço 
-CEO da SpaceX, anunciou o lançamento d…</t>
+          <t>RT @EliseWilshaw: Eu apoio Brasil Paralelo - NUBANK. 
+Se vc curtir, toda nossa família ficará feliz! 🥰 https://t.co/c397gRXstx</t>
         </is>
       </c>
     </row>
@@ -5318,9 +5488,9 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>RT @AnnaMonteiroAn1: 🌩
-🛰⚡️ STARLINK MINI !
-A mais nova antena receptora e transmissora da internet por satélite da SpaceX acabou vazando,…</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -5330,7 +5500,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>MEU PRIMEIRO ENCONTRO COM OS HUMANOS. @elonmusk @SpaceX @NASA @NASAHubble @NASAWebb @NASAHubble @jameswebb_nasa @felipeneto https://t.co/RNwQt6HZjl</t>
+          <t>RT @crimeenews: Peguei um empréstimo de 50 mil na Nubank e desinstalei o aplicativo https://t.co/h82N3Ys8bF</t>
         </is>
       </c>
     </row>
@@ -5340,9 +5510,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>RT @AnnaMonteiroAn1: 🌩
-🛰⚡️ STARLINK MINI !
-A mais nova antena receptora e transmissora da internet por satélite da SpaceX acabou vazando,…</t>
+          <t>RT @MafinhaBarba: Hoje, o Nubank atingiu seu ATH (All Time High), com as ações fechando a $11.99, um aumento de 2.52% em relação ao fechame…</t>
         </is>
       </c>
     </row>
@@ -5352,8 +5520,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>RT @mspbra: 🚨 ATENCÃO: Elon Musk anuncia a Starlink Mini, prometendo internet pela metade do preço 
-CEO da SpaceX, anunciou o lançamento d…</t>
+          <t>Meu limite do Nubank aumentou do nada</t>
         </is>
       </c>
     </row>
@@ -5363,9 +5530,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>RT @AnnaMonteiroAn1: 🌩
-🛰⚡️ STARLINK MINI !
-A mais nova antena receptora e transmissora da internet por satélite da SpaceX acabou vazando,…</t>
+          <t>RT @IagoHale: EU TO PASSANDO MAL COM ESSE PRINT KKKKKKKKKKKKKKKKKKK COITADA DA ATENDENTE DO @nubank https://t.co/s9fe10Dnx1</t>
         </is>
       </c>
     </row>
@@ -5375,8 +5540,9 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Elon Musk tem uma surpresa? SpaceX prepara lançamento do Starlink Mini
-https://t.co/JnaIB3TDiv https://t.co/RDJrUf3Xg3</t>
+          <t>RT @ICLNoticias: O jornalista Paulo Motoryn detalha as relações entre o Nubank e a extrema direita brasileira
+@opaulomm 
+Veja mais no Porta…</t>
         </is>
       </c>
     </row>
@@ -5386,9 +5552,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>RT @AnnaMonteiroAn1: 🌩
-🛰⚡️ STARLINK MINI !
-A mais nova antena receptora e transmissora da internet por satélite da SpaceX acabou vazando,…</t>
+          <t>@nubank Cadê meu dinheiro????</t>
         </is>
       </c>
     </row>
@@ -5398,8 +5562,12 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>RT @SpaceToday1: O GOES-U agora está encapsulado dentro da coifa, que o protegerá da pressão aerodinâmica e do aquecimento.
-A janela de dua…</t>
+          <t>RT @Illanachan: [VENDA/VENDO BTS]
+• Set memories 2019
+R$  35 frete incluso 
+- Mais fotos e vídeos no privado.
+- Frete incluso 
+- Tenho…</t>
         </is>
       </c>
     </row>
@@ -5409,7 +5577,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>@MarcoAEsparza22 @SpaceToday1 Sabe que grande parte do investimento da SpaceX do seu queridinho Musk é dinheiro público, né??</t>
+          <t>RT @guinhowks: nubank caiu, banco porco https://t.co/ZhSeOq8g5c</t>
         </is>
       </c>
     </row>
@@ -5419,7 +5587,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>@flaviogarag SpaceX perde mais um engenheiro mecânico 😢</t>
+          <t>RT @_fael_a: desgraça de nubank</t>
         </is>
       </c>
     </row>
@@ -5429,9 +5597,8 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>RT @AnnaMonteiroAn1: 🌩
-🛰⚡️ STARLINK MINI !
-A mais nova antena receptora e transmissora da internet por satélite da SpaceX acabou vazando,…</t>
+          <t>RT @SomenteOrestes: Negros apenas na propaganda, mas não em nossa casa!
+Não é de hoje que a co-fundadora do Nubank, que promove a Brasil P…</t>
         </is>
       </c>
     </row>
@@ -5441,8 +5608,8 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Devido à incerteza sobre a realização do projeto, ele anunciou em suas redes sociais que, apesar de ser uma decisão difícil, decidiu cancelar a viagem.
-#YusakuMaezawa #ZOZO #ViagemEspacial #SpaceX #EstaçãoEspacialInternacional https://t.co/3XKqV1idM9</t>
+          <t>RT @otimistaoficial: O Nubank acaba de anunciar que mais de 30.000 esquerdistas cancelaram suas contas.
+O prejuízo estimado pelo banco é R$…</t>
         </is>
       </c>
     </row>
@@ -5452,8 +5619,9 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: URGENTE: STARLINK MINI REVELADA!
-A mais nova antena receptora e transmissora da internet por satélite da SpaceX acabou v…</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -5463,9 +5631,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>RT @AnnaMonteiroAn1: 🌩
-🛰⚡️ STARLINK MINI !
-A mais nova antena receptora e transmissora da internet por satélite da SpaceX acabou vazando,…</t>
+          <t>caralho que dificuldade p fazer a porra de um ted na nubank vsfffff</t>
         </is>
       </c>
     </row>
@@ -5475,9 +5641,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>RT @AnnaMonteiroAn1: 🌩
-🛰⚡️ STARLINK MINI !
-A mais nova antena receptora e transmissora da internet por satélite da SpaceX acabou vazando,…</t>
+          <t>RT @jesusccardoso_: Eu indo ver se foi só o meu Nubank que caiu: https://t.co/5GKWc0PwBw</t>
         </is>
       </c>
     </row>
@@ -5487,9 +5651,8 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>RT @AnnaMonteiroAn1: 🌩
-🛰⚡️ STARLINK MINI !
-A mais nova antena receptora e transmissora da internet por satélite da SpaceX acabou vazando,…</t>
+          <t>@LeoniceMariana1 @ffernandes165 @nubank Que bom que eles boicotem mesmo,  assim diminui o índice de fraudes e tramoias com Nubank, e melhora o nível de correntistas... Esses coitados nem grana tem,  só não passam fome,  porque o pai dos pobres da pão com mortadela pra eles. 
+Kkkkkkk</t>
         </is>
       </c>
     </row>
@@ -5499,8 +5662,9 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: URGENTE: STARLINK MINI REVELADA!
-A mais nova antena receptora e transmissora da internet por satélite da SpaceX acabou v…</t>
+          <t>RT @JornalDaCidadeO: A direita deve abraçar o Nubank, sem nenhum preconceito 
+https://t.co/3BELd7Y83b
+“Bancos que sempre apoiaram Lula quer…</t>
         </is>
       </c>
     </row>
@@ -5510,8 +5674,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: URGENTE: STARLINK MINI REVELADA!
-A mais nova antena receptora e transmissora da internet por satélite da SpaceX acabou v…</t>
+          <t>RT @MafinhaBarba: Hoje, o Nubank atingiu seu ATH (All Time High), com as ações fechando a $11.99, um aumento de 2.52% em relação ao fechame…</t>
         </is>
       </c>
     </row>
@@ -5521,9 +5684,9 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>RT @AnnaMonteiroAn1: 🌩
-🛰⚡️ STARLINK MINI !
-A mais nova antena receptora e transmissora da internet por satélite da SpaceX acabou vazando,…</t>
+          <t>RT @JornalDaCidadeO: A direita deve abraçar o Nubank, sem nenhum preconceito 
+https://t.co/3BELd7Y83b
+“Bancos que sempre apoiaram Lula quer…</t>
         </is>
       </c>
     </row>
@@ -5533,8 +5696,9 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: URGENTE: STARLINK MINI REVELADA!
-A mais nova antena receptora e transmissora da internet por satélite da SpaceX acabou v…</t>
+          <t>RT @ICLNoticias: O jornalista Paulo Motoryn detalha as relações entre o Nubank e a extrema direita brasileira
+@opaulomm 
+Veja mais no Porta…</t>
         </is>
       </c>
     </row>
@@ -5544,8 +5708,11 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>RT @mspbra: 🚨 ATENCÃO: Elon Musk anuncia a Starlink Mini, prometendo internet pela metade do preço 
-CEO da SpaceX, anunciou o lançamento d…</t>
+          <t>RT @eritonb: PRISÃO DO MITO? 
+Tentem prendê-lo para ver o que acontece! 
+Muita perseguição! 
+Bolsonaro em Goias x Lula no Ceará
+#Impeachme…</t>
         </is>
       </c>
     </row>
@@ -5555,9 +5722,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>RT @AnnaMonteiroAn1: 🌩
-🛰⚡️ STARLINK MINI !
-A mais nova antena receptora e transmissora da internet por satélite da SpaceX acabou vazando,…</t>
+          <t>@jairo_cjr Todo mês, no mesmo dia entra 1.800 e o Nubank me liberou MÍSEROS 50$ REAIS DE LIMITE!!!!!!!</t>
         </is>
       </c>
     </row>
@@ -5567,7 +5732,8 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>faculdades de t.i sao tipo: gente hj vamos aprender quanto é 1+1….com isso vcs ja vao ter uma boa base pra construir um foguete da spacex e entregar na proxima aula ❤️</t>
+          <t>RT @cornopix: Corno filmando a esposa chupando outro Homem, quem gosta de p*taria assim???
+#casada #nubank #EURo2024 https://t.co/AEc2w8mO…</t>
         </is>
       </c>
     </row>
@@ -5577,9 +5743,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>RT @AnnaMonteiroAn1: 🌩
-🛰⚡️ STARLINK MINI !
-A mais nova antena receptora e transmissora da internet por satélite da SpaceX acabou vazando,…</t>
+          <t>RT @jesusccardoso_: Eu indo ver se foi só o meu Nubank que caiu: https://t.co/5GKWc0PwBw</t>
         </is>
       </c>
     </row>
@@ -5589,8 +5753,11 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: URGENTE: STARLINK MINI REVELADA!
-A mais nova antena receptora e transmissora da internet por satélite da SpaceX acabou v…</t>
+          <t>RT @eritonb: PRISÃO DO MITO? 
+Tentem prendê-lo para ver o que acontece! 
+Muita perseguição! 
+Bolsonaro em Goias x Lula no Ceará
+#Impeachme…</t>
         </is>
       </c>
     </row>
@@ -5600,7 +5767,22 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>RT @CristianaLemos9: Mais um dia de missão cumprida 17/06/2024 quero agradecer a todos pela confiança e por todo apoio aos irmãos atingidos…</t>
+          <t>Milito 
+O Galo precisa de reforços 
+Jair ventura 
+Capitão do Mato 
+Nubank 
+Scarpa
+Jemerson 
+Everson fraco 
+Vargas 
+Estevão 
+Mayara 
+Nicola
+Pedro Martins
+Pesquisa 
+Atlético Mineiro Maior de Minas Gerais 
+Agora o Palmeiras está liberado fazer este tipo de falta. https://t.co/iVRiiDn8CJ</t>
         </is>
       </c>
     </row>
@@ -5610,7 +5792,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>RT @CristianaLemos9: Mais um dia de missão cumprida 17/06/2024 quero agradecer a todos pela confiança e por todo apoio aos irmãos atingidos…</t>
+          <t>RT @MafinhaBarba: Hoje, o Nubank atingiu seu ATH (All Time High), com as ações fechando a $11.99, um aumento de 2.52% em relação ao fechame…</t>
         </is>
       </c>
     </row>
@@ -5620,7 +5802,9 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>@LLL_SpaceX siga o lider</t>
+          <t>RT @ErikakHilton: 🚨 PERIGO NO NUBANK
+Ontem, a executiva do Nubank, Cristina Junqueira, divulgou um evento do Brasil Paralelo.
+O Brasil Pa…</t>
         </is>
       </c>
     </row>
@@ -5630,8 +5814,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>@Prof_leonelfer Você confia nesse personagem ?
-https://t.co/Zi5vpzeWNB</t>
+          <t>NUBANK SUA DESGRAÇAAAAAAAAAAAAAAAAAAAA https://t.co/w4XhkCHQlx</t>
         </is>
       </c>
     </row>
@@ -5641,7 +5824,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>RT @CristianaLemos9: Mais um dia de missão cumprida 17/06/2024 quero agradecer a todos pela confiança e por todo apoio aos irmãos atingidos…</t>
+          <t>RT @guinhowks: nubank caiu, banco porco https://t.co/ZhSeOq8g5c</t>
         </is>
       </c>
     </row>
@@ -5651,8 +5834,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: URGENTE: STARLINK MINI REVELADA!
-A mais nova antena receptora e transmissora da internet por satélite da SpaceX acabou v…</t>
+          <t>nubank aumentou o limite, oh perdição</t>
         </is>
       </c>
     </row>
@@ -5662,8 +5844,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>RT @SpaceToday1: O GOES-U agora está encapsulado dentro da coifa, que o protegerá da pressão aerodinâmica e do aquecimento.
-A janela de dua…</t>
+          <t>nubank, vcs que me enviaram a merda do código na porra do meu email, então porque quando eu coloco essa desgraça no aplicativo essa buceta não funciona???</t>
         </is>
       </c>
     </row>
@@ -5673,9 +5854,9 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>RT @AnnaMonteiroAn1: 🌩
-🛰⚡️ STARLINK MINI !
-A mais nova antena receptora e transmissora da internet por satélite da SpaceX acabou vazando,…</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -5685,8 +5866,9 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>RT @mspbra: 🚨 ATENCÃO: Elon Musk anuncia a Starlink Mini, prometendo internet pela metade do preço 
-CEO da SpaceX, anunciou o lançamento d…</t>
+          <t>RT @ICLNoticias: O jornalista Paulo Motoryn detalha as relações entre o Nubank e a extrema direita brasileira
+@opaulomm 
+Veja mais no Porta…</t>
         </is>
       </c>
     </row>
@@ -5696,8 +5878,9 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>RT @SpaceToday1: O GOES-U agora está encapsulado dentro da coifa, que o protegerá da pressão aerodinâmica e do aquecimento.
-A janela de dua…</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -5707,7 +5890,8 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>RT @FotosDoRapha: @SpaceToday1 Deixa eu corrigir pra vc, parece que não é sua área: só vai acontecer graças à NASA e outras agências espaci…</t>
+          <t>@BrunaSchneide Kkkkk
+Esquerdista tem conta na @nubank só para pegar empréstimo e não pagar.</t>
         </is>
       </c>
     </row>
@@ -5717,9 +5901,9 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>RT @AnnaMonteiroAn1: 🌩
-🛰⚡️ STARLINK MINI !
-A mais nova antena receptora e transmissora da internet por satélite da SpaceX acabou vazando,…</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -5729,9 +5913,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>RT @AnnaMonteiroAn1: 🌩
-🛰⚡️ STARLINK MINI !
-A mais nova antena receptora e transmissora da internet por satélite da SpaceX acabou vazando,…</t>
+          <t>RT @jessrodriguessx: Nubank não aumenta meu limine nem pelo crl, quase cancelando essa pohha</t>
         </is>
       </c>
     </row>
@@ -5741,8 +5923,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>RT @SpaceToday1: O GOES-U agora está encapsulado dentro da coifa, que o protegerá da pressão aerodinâmica e do aquecimento.
-A janela de dua…</t>
+          <t>já que a NuBank caiu, não vou precisar pagar meu empréstimo</t>
         </is>
       </c>
     </row>
@@ -5752,8 +5933,9 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>RT @SpaceToday1: O GOES-U agora está encapsulado dentro da coifa, que o protegerá da pressão aerodinâmica e do aquecimento.
-A janela de dua…</t>
+          <t>RT @BrunaSchneide: 🚨URGENTE!! 
+O Nubank acabou de informar que mais de 2.500 esquerdistas cancelaram suas contas no banco. 
+O prejuízo t…</t>
         </is>
       </c>
     </row>
@@ -5763,8 +5945,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>RT @PallottaPedro: SPACEX CONTINUA OS TRABALHOS NO ESCUDO DO SHIP30!
-Os funcionários da empresa seguem trocando as peças do escudo de calo…</t>
+          <t>@nubank Acabei de abrir minha conta, se a extrema esquerda não gosta é pq é bom.</t>
         </is>
       </c>
     </row>
@@ -5774,8 +5955,9 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>RT @SpaceToday1: O GOES-U agora está encapsulado dentro da coifa, que o protegerá da pressão aerodinâmica e do aquecimento.
-A janela de dua…</t>
+          <t>RT @ICLNoticias: O jornalista Paulo Motoryn detalha as relações entre o Nubank e a extrema direita brasileira
+@opaulomm 
+Veja mais no Porta…</t>
         </is>
       </c>
     </row>
@@ -5785,7 +5967,8 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>@rychardrx @LLL_SpaceX Ele sabe jogar um league</t>
+          <t>RT @SomenteOrestes: Negros apenas na propaganda, mas não em nossa casa!
+Não é de hoje que a co-fundadora do Nubank, que promove a Brasil P…</t>
         </is>
       </c>
     </row>
@@ -5795,21 +5978,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>RT @AnnaMonteiroAn1: 🌩
-🛰⚡️ STARLINK MINI !
-A mais nova antena receptora e transmissora da internet por satélite da SpaceX acabou vazando,…</t>
-        </is>
-      </c>
-    </row>
-    <row r="501">
-      <c r="A501" s="1" t="n">
-        <v>499</v>
-      </c>
-      <c r="B501" t="inlineStr">
-        <is>
-          <t>RT @AnnaMonteiroAn1: 🌩
-🛰⚡️ STARLINK MINI !
-A mais nova antena receptora e transmissora da internet por satélite da SpaceX acabou vazando,…</t>
+          <t>@nubank Que história é esta de apoiar facistas</t>
         </is>
       </c>
     </row>

--- a/outputs/tweets_search_output.xlsx
+++ b/outputs/tweets_search_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Entenda a decisão do STF sobre descriminalização do porte de maconha https://t.co/ZOfnpCp9EV</t>
+          <t>@vivahoje99 No Brasil funciona o Chat GPT,uma inteligência artificial de linguagem natural desenvolvida pela OpenAI, destacando-se como ferramenta avançada de conversação em português.
+Como o nome diz; GPT - É um Grupo de defesa do PT.
+Adoro contraria-los.
+Já conversou com ele?
+Uma piada!</t>
         </is>
       </c>
     </row>
@@ -456,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>@STF_oficial E quanto ao uso de maconha? Vai ter campanha educativa?</t>
+          <t>OpenAI ajuda paciente de rival da Neuralink a usar aparelhos com a mente https://t.co/GWwUXP8b8R</t>
         </is>
       </c>
     </row>
@@ -466,8 +470,8 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>@ThiagoResiste É muita punheta mental!!!🤮🤮🤮
-Lá vem a esquerda delirando,ad agora com 133 cigarros de maconha autorizados pelo STF!!!😂😂😂</t>
+          <t>Andrej Karpathy, ex-chefe de IA da Tesla e pesquisador da OpenAI, está embarcando em um novo desafio com a criação da Eureka Labs. A startup, descrita como uma plataforma educacional 'nativamente baseada em IA', promete revolucionar a forma como
+https://t.co/k2LyaSnobF https://t.co/RHCOgfND7P</t>
         </is>
       </c>
     </row>
@@ -477,9 +481,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PSOL propõe anistia a presos com menos de 40g de maconha
-Projeto de lei leva em consideração decisão recente do STF que criou critério para diferenciar posse e tráfico
-https://t.co/gpYCsgSE9r</t>
+          <t>OpenAI diz que IA está chegando ao nível 2 (e o máximo é 5) #valeapenaler https://t.co/SO0S1IDYDo</t>
         </is>
       </c>
     </row>
@@ -489,8 +491,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pivô do caso que descriminalizou maconha no STF está sendo procurado outra vez 
- https://t.co/SvxaIsIf2d</t>
+          <t>IAs: Anthropic dá passo importante na competição com a OpenAI https://t.co/yBzY9MnLqp https://t.co/zx301GLpT4</t>
         </is>
       </c>
     </row>
@@ -500,7 +501,8 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Quatro pontos para entender a decisão do STF sobre a maconha: Em 2006, o Congresso aprovou a Lei nº 11.343, chamada Lei das Drogas, a qual, em seu artigo 28, afastou a previsão de pena privativa de liberdade ao usuário de entorpecentes… https://t.co/wVJyZSC9r9 #infojurid #conjur</t>
+          <t>🚨 É AGORA! 🚨
+Fabrício Carraro, Program Manager na Alura e Autor de IA, e Thiago da Silva Adriano, Tech Lead na Vórtx e Coordenador de Pós-graduação na FIAP, estão AO VIVO para falar sobre  Agentes e como construí-los usando LangChain, OpenAI e Ollama. https://t.co/zrS7SBvKT8</t>
         </is>
       </c>
     </row>
@@ -510,7 +512,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Gilmar Mendes: considerações sobre a decisão do STF sobre maconha https://t.co/qas05kGL5x</t>
+          <t>Instituto de Computação da UFAM anuncia parceria com OpenAI para monitoramento ambiental da Amazônia https://t.co/WkzK1aAiJu</t>
         </is>
       </c>
     </row>
@@ -520,8 +522,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>@PastorMalafaia Libera a maconha? 🤔
-Já ouviu falar em termo circunstânciado? Pois é... A partir de agora o TC não precisará mais ser preenchido, porque o STF não liberou nada, apenas definiu uma regra contra a criminalização. #canalha #semvergonha #hipocrita #picareta #pilantra #mentiroso</t>
+          <t>@caetaneemo @letchi__ mas da pra usar outro modelo, tipo esse aqui https://t.co/cmPiBaVNxz</t>
         </is>
       </c>
     </row>
@@ -531,12 +532,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>‘Tem muito deputado que nem sequer tem coragem de falar do STF’, diz Delegado Palumbo
-Deputado federal disse que decisão da Corte sobre a maconha vai ‘prestigiar milhares de traficantes’
-📷 ContraFatos
-Quarta, 03 de Julho - 20h43
-https://t.co/BDRtZKTGND
- https://t.co/ILkQblWD4r</t>
+          <t>IAs: Anthropic dá passo importante na competição com a OpenAI https://t.co/RdQvmd24DG https://t.co/DQ16hBtZQF</t>
         </is>
       </c>
     </row>
@@ -546,7 +542,8 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>STF favorece o narcotráfico com a liberação da maconha e suas graves consequências diretas e indiretas  para a sociedade , após o maior ladrao da história do Brasil ter indicado a maioria de bandidos e criminosos para ocupar cadeiras de juízes na corte.</t>
+          <t>A OpenAI anunciou uma nova técnica para tornar o funcionamento de seus sistemas mais transparente. No entanto, pessoas familiarizadas com a OpenAI afirmam que é necessária uma supervisão adicional. 
+https://t.co/vIOswtHc4d</t>
         </is>
       </c>
     </row>
@@ -556,7 +553,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>@mizaelizidoro Amanhã o STF muda a jurisprudência kkkkkk vai passar de 40g de maconha pra 30kg de coca hauahuhsjsjjsjsjs</t>
+          <t>Toda empresa gigante que tá produzindo IA como OpenAI, Google e etc, utilizam tanta energia no seu uso, especialmente IA generativa consome tanta energia, que equivalem a usos de PAÍSES! Esse uso sem barreiras deve sim, ser regulamentado, e quem apoia que não, tá cavando sua cova https://t.co/Ut9jtfkKpL</t>
         </is>
       </c>
     </row>
@@ -566,7 +563,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>@RafaelFontana Aqui em brasilia já presenciei 2x, em área nobre, consumo de maconha desde que o STF legalizou</t>
+          <t>Quando você trabalha conosco para implantar a #IA do Azure, fique tranquilo sabendo que seus dados continuam sendo seus. Confira este artigo para ver o Compromisso de direitos autorais do cliente da Microsoft. #ParceirodaMicrosoft  https://t.co/Ac2i8ePR3v</t>
         </is>
       </c>
     </row>
@@ -576,8 +573,9 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>STF: Descriminalização do porte de maconha.
-- A vovó: https://t.co/SzGFzdbtni</t>
+          <t>Xi Jinping
+Serviço Azure OpenAI para nuvem Aplicativos nativos Projetando, planejando e implementando soluções de IA generativa
+link de acesso https://t.co/3pwhmMMwIu https://t.co/AY8eM6QgHf</t>
         </is>
       </c>
     </row>
@@ -587,10 +585,8 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>⚖️ Assembleia Legislativa de SC aprova multa por porte de drogas em local público
-Medida ocorre após decisão do STF sobre descriminalização no caso da maconha; único voto contrário diz que proposta é inconstitucional
-🗞️ https://t.co/76BO0mjMAN
-https://t.co/76BO0mjMAN</t>
+          <t>Membro fundador da OpenAI cria Eureka Labs: Educação turbinada por IA
+https://t.co/fXR0Swvaa9</t>
         </is>
       </c>
     </row>
@@ -600,7 +596,8 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Inicia se com a maconha liberada pelo STF https://t.co/T7znBFRP8E</t>
+          <t>O ChatGPT representa o nível mais básico de inteligência artificial generativa que a OpenAI pretende oferecer.
+A companhia divulgou que está desenvolvendo um sistema de cinco categorias para ranquear as capacidades cognitivas de modelos de IA, sendo eles:</t>
         </is>
       </c>
     </row>
@@ -610,7 +607,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>@rmotta2 O STF liberando maconha, 40g, sem organizar a sociedade e mantendo a venda na mão de facções criminosas como o PCC, CV e outros, está na verdade legislando e liberando juridicamente o comércio de drogas pelo crime organizado.</t>
+          <t>Tesla, NVIDIA, OpenAI &amp;amp; SpaceX https://t.co/RNWOUJvRwb</t>
         </is>
       </c>
     </row>
@@ -620,7 +617,9 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>A jogada deles (@STF_oficial) é essa: cansar causando esgotamento. Podem observar... Indiciamento agora por joias e cartões de vacina. Antes um pouco, liberação de maconha, antes um pouco, aborto. Ficam durante todo o tempo... metralhando de vários lados para causar sufocamento. https://t.co/9TYJpnMmG6</t>
+          <t>Como a OpenAI Está Revolucionando a Vida de Pacientes com Implantes Cerebrais
+https://t.co/T5ueosY70l
+#Pro, #ImplantesCerebrais, #InteligenciaArtificial, #OpenAI</t>
         </is>
       </c>
     </row>
@@ -630,7 +629,8 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Descriminalização da Maconha pelo STF,qual o sentido disso,liberaram a droga ? Governo Lula em 2006,e agora no mesmo governo Lula faz essa façanha,promete picanha e libera a maconha e isso mesmo ? Revisão esdrúxula do STF, facilitando a vida dos traficantes,o povo de bem se mexe</t>
+          <t>O Chat GPT, desenvolvido pela OpenAI, é uma das mais avançadas tecnologias de processamento de linguagem natural disponíveis atualmente.
+https://t.co/soFCHy0BEj</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>@caiocezar420 O Supremo Tribunal Federal, STF, estipulou a quantidade de 40 gramas e seis plantas fêmeas de Cannabis para distinguir o porte de maconha para uso pessoal do tráfico de drogas.</t>
+          <t>Quanto falta para a IA alcançar a inteligência humana? OpenAI criou escala que indica a distância @estadao:  https://t.co/1JsMXQc0lp</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>@DerriteSP Se o STF vê essa apreensão vai mandar devolver, já legalizaram a maconha 🤡</t>
+          <t>Espero estar no seu grupo Alfa, @OpenAI ... Usuário como eu, não se acha em qualquer esquina 😄 https://t.co/DPI3m43vEH</t>
         </is>
       </c>
     </row>
@@ -660,7 +660,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Pivô do caso que descriminalizou maconha no STF está sendo procurado outra vez https://t.co/UmeLenZAib https://t.co/H7uU5U5Oi6</t>
+          <t>OpenAI ajuda paciente de rival da Neuralink a usar aparelhos com a mente https://t.co/JjYIrY8cDS</t>
         </is>
       </c>
     </row>
@@ -670,7 +670,8 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Maconha: STF ignorou advertências de especialista. https://t.co/37YJECET4d</t>
+          <t>Agora imaginem um "ser humano" sem regras, sem nenhuma norma que o impeça de praticar atos contra outros seres humanos. Tudo em nome da "inovação e dos investimentos".
+https://t.co/yluNGOBQ9Y</t>
         </is>
       </c>
     </row>
@@ -680,8 +681,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ALEXANDRE GARCIA - Pivô do caso que descriminalizou maconha no STF está sendo procurado outra vez: https://t.co/yPrb7xYD9n
-#Opinião @alexandregarcia https://t.co/giqxLy0Zqg</t>
+          <t>📰 Notícias de IA e Tecnologia
+* Relatório: IA treinada com vídeos do YouTube sem consentimento
+* Membro fundador da OpenAI muda foco para educação em IA
+* Mistral lança novos modelos de código aberto
+* 6 novas ferramentas de IA
+Acesse: https://t.co/GqJFspJGly</t>
         </is>
       </c>
     </row>
@@ -691,8 +696,8 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Os caras falam como se isso fosse um problema, mas isso é civilização, o cara foi condenado por outras coisas, mas absolvido por algo onde ele é inocente. 
-https://t.co/GqhPcPhsbd</t>
+          <t>Quanto falta para a IA alcançar a inteligência humana? OpenAI criou escala que indica a distância
+https://t.co/pgnWa4NC7g</t>
         </is>
       </c>
     </row>
@@ -702,7 +707,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>@OmarAzizSenador A verdade dói não é Senhor Senador? Onde estava o Senado quando o STF liberou o uso da maconha? Com todo respeito à vossa excelência, o Sr não nos representa e nos brasileiros de bem estamos aplaudindo @JMilei e desprezando a falência das nossas instituições!</t>
+          <t>Um dos fundadores da OpenAI está ensinando o mundo a construir IA com sua nova plataforma, Eureka Labs 🤔 ... o futuro da educação já chegou?</t>
         </is>
       </c>
     </row>
@@ -712,7 +717,8 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Pivô do caso que descriminalizou maconha no STF está sendo procurado outra vez https://t.co/Bd45vbcQHH</t>
+          <t>A OpenAI, uma das líderes na corrida para alcançar a INTELIGÊNCIA ARTIFICIAL GERAL (AGI), desenvolveu um sistema de cinco níveis para acompanhar o progresso em direção a essa meta.
+Continue lendo &amp;gt;&amp;gt;&amp;gt; https://t.co/YxySgh5YmT https://t.co/9p4HRuxNfr</t>
         </is>
       </c>
     </row>
@@ -722,7 +728,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>@JovemPanNews E o STF contribuindo com o problema social, liberando maconha. 🤡🤡🤡🤡</t>
+          <t>@criptofacil No Brasil tinha 3 orbis em São Paulo , Tinha, na Argentina tem vários. @OpenAI</t>
         </is>
       </c>
     </row>
@@ -732,7 +738,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>@igorzliziero Olha quanta bobagem escrita. Isso que dá o STF descriminalizar a maconha.</t>
+          <t>Paciente com implante cerebral diz que a tecnologia da #OpenAI o ajuda a se comunicar com a família https://t.co/D3UXBbEIJz</t>
         </is>
       </c>
     </row>
@@ -742,7 +748,9 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>@samiabomfim Não é crime para o STF e seus cupinxas(PSOL). Mas qualquer coisa que esteja fora da lei, é crime. Pelo que sei a lei em vigor é que o uso de droga, (maconha), é crime. STF não faz leis, quem faz leis é o congresso. Vc deveria estar fazendo isso, não usar dos chefes.</t>
+          <t>Luma AI examples:
+https://t.co/BzsvDNGyGM via @YouTube 
+#lumaai #dreammachine #sora #kling #openai #dreammachine #lumadreammachine #aiart #ai #art #tutorial #ainews</t>
         </is>
       </c>
     </row>
@@ -752,7 +760,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Gilmar Mendes: considerações sobre a decisão do STF sobre maconha https://t.co/jngRKYQF3U</t>
+          <t>@loopsieart Por isso eu assino o gpt para a OPENAI dar grana ao DALL-E e literalmente acabar com teu emprego em 10 anos</t>
         </is>
       </c>
     </row>
@@ -762,7 +770,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>@GloboNews Só distração para tirar o foco nas ações do PCC e liberação da maconha pelo STF. Meras distrações... Distrações. Cai quem quer</t>
+          <t>Fiz um textinho sobre a classificação de IAs que a @OpenAI criou.
+Legal para ver onde estamos e onde vamos chegar (na visão deles).
+Quem quiser ler (e depois dar um feedback), link no xuíte mencionado.
+Tá escrito em inglês, português e italiano, sem desculpas.
+@samydana https://t.co/CMHunSpgtY</t>
         </is>
       </c>
     </row>
@@ -772,8 +784,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>⚖️ O STF decidiu descriminalizar a maconha para uso pessoal, mas calma: isso não significa que ela foi legalizada no Brasil!
-Esse assunto está dando o que falar e você deve ter muitas dúvidas. Mande sua pergunta e opinião escaneando o QRCode no celular 📲e #Boraentender juntos! https://t.co/V7y0zprwF5</t>
+          <t>EXCLUSIVO-OpenAI trabalha em projeto para melhorar capacidade de racioc?nio de seus modelos de IA https://t.co/bSQWVShqoS https://t.co/kZASlocOUG</t>
         </is>
       </c>
     </row>
@@ -783,7 +794,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>@STF_oficial @LRobertoBarroso vocês nunca deveriam decidir sobre isso, pois estão muito longe do povo e de sua realidade. A maconha não deve ser liberada, nenhuma grama. Que se a usuários recebam ajuda do governo e se libertem deste vício horroroso. https://t.co/gZntkhZRN2</t>
+          <t>OpenAI tem um plano interno de cinco etapas para atingir a Inteligência Artificial Geral (AGI). Essa classificação foi compartilhada com os funcionários em 9 de julho de 2024 e será divulgada para investidores e partes externas no futuro. O plano descreve cinco níveis de… https://t.co/kzmIRfMtQ9 https://t.co/fVqZByR0L2</t>
         </is>
       </c>
     </row>
@@ -793,8 +804,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>@GloboNews @AlineMidlej Enquanto isso o STF ajuda a produção de maconha...
-🤡</t>
+          <t>@mmfbee Conteúdo patrocinado by @OpenAI . rs</t>
         </is>
       </c>
     </row>
@@ -804,7 +814,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>@ThiagoResiste Kkkkkkk o stf liberou a maconha agora tu não precisa mais fuma merda de jumento seca</t>
+          <t>OpenAI é denunciada por funcionários à Comissão de Valores Mobiliários dos EUA https://t.co/nns55FnxDQ</t>
         </is>
       </c>
     </row>
@@ -814,9 +824,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Congresso nacional desafia STF e pode aprovar lei contrária a decisão da suprema corte, sobre o porte de maconha para consumo individual. 
-#stf 
-#congressonacional https://t.co/OGQva0SihL</t>
+          <t>OpenAI projeta ‘IA suprema’ capaz de substituir humanos (e empresas) https://t.co/h8ZoG3vnOb via @YouTube 🥹</t>
         </is>
       </c>
     </row>
@@ -826,8 +834,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>✍️Não configura crime a importação de pequena quantidade de sementes de maconha.
-STF. 2ª Turma. HC 144161/SP, Rel. Min. Gilmar Mendes, julgado em 11/9/2018 (Info 915).</t>
+          <t>OpenAI diz que IA está chegando ao nível 2 (e o máximo é 5) #valeapenaler https://t.co/NaodW0mR2w</t>
         </is>
       </c>
     </row>
@@ -837,8 +844,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Pivô do caso que descriminalizou maconha no STF está sendo procurado outra vez 
- https://t.co/sdvYiBWwJK</t>
+          <t>@alexgraveley so far openai</t>
         </is>
       </c>
     </row>
@@ -848,7 +854,9 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>👉🏾👌🏽MÁS..., EM COMPENSAÇÃO A TODA ESTA ROUBALHEIRA, PRA VOCÊ QUE FEZUELI, JÁ PODE FUMAR E ADQUIRIR SUA MACONHA LIVREMENTE, DIRETO DAS MÃOS DOS TRAFICANTES AUTORIZADOS PELO STF, SEM ATRAVESSADOR, GARANTINDO ASSIM, SEU CERTIFICADO DE QUALIDADE PTISTA/STF.! - 😜MARAVILHAAA.! 👏🏽👏🏽👏🏽 https://t.co/ymUwY6fVht</t>
+          <t>OPENAI PROJETA IA SUPREMA CAPAZ DE SUBSTITUIR HUMANOS (E EMPRESAS)
+ #OlharDigital #Variedades 
+https://t.co/L0F4D8Ugdu</t>
         </is>
       </c>
     </row>
@@ -858,10 +866,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>⚖️ Juiz leva em conta posicionamento do STF e absolve réu flagrado com 1g de maconha
-O STF deixou de reconhecer como ilícito penal o porte de até 40 gramas de maconha para uso pessoal
-🗞️ https://t.co/5Qpr8TmMit
-https://t.co/5Qpr8TmMit</t>
+          <t>OpenAI está revolucionando o mundo da inteligência artificial. Suas inovações estão moldando o futuro da tecnologia. Fique por dentro das últimas novidades! #OpenAI #InteligenciaArtificial #Tecnologia</t>
         </is>
       </c>
     </row>
@@ -871,8 +876,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>valeu STF
-cheirao de maconha no ônibus 7h da manhã kkkkkkkkkkkkkkkkmkkkkkkkkkkkkkkkkk</t>
+          <t>Andrej Karpathy, ex-chefe de IA da Tesla e pesquisador da OpenAI, está lançando a Eureka Labs, uma plataforma educacional "nativa de IA". A startup pretende aplicar assistentes de IA na educação, com ambições altas, porém começando com uma ab… tradicional.https://t.co/r3AsUzNJay</t>
         </is>
       </c>
     </row>
@@ -882,7 +886,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Foi só o STF (soviet tribunal federal) liberar a maconha, que o Taxad começou a fumar tido dia. Estamos ferrados! https://t.co/uE5suPHJOO</t>
+          <t>OpenAI se aproxima da IA ​​com capacidade de "raciocínio" (AGI) https://t.co/h2x2UskHtE</t>
         </is>
       </c>
     </row>
@@ -892,9 +896,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Câmara de Limeira votará moção de protesto contra decisão do STF sobre critérios para porte de maconha
-☕ Confira essa e outras notas no Rodapé, a coluna do DJ para você começar o dia bem informado
- https://t.co/JACQ7cHeWm</t>
+          <t>OpenAI está perto de lançar IA capaz de resolver problemas como se fosse um humano https://t.co/aKUXBFeF2y</t>
         </is>
       </c>
     </row>
@@ -904,7 +906,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Pivô do caso que descriminalizou maconha no STF está sendo procurado outra vez https://t.co/ya5KCGdFcR</t>
+          <t>Projeto secreto: OpenAI estaria trabalhando em Inteligência Artificial Geral. Jogo perigoso 🙄🤨🤔🧐🧐 https://t.co/dNDLNjc8rr</t>
         </is>
       </c>
     </row>
@@ -914,16 +916,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>.
-.
-.
-.
-.
-.
-.
-GABARITO: ERRADO
-A presunção é JURIS TANTUM, ou seja, RELATIVA, de modo que as autoridades policiais e o MP poderão demonstrar que, apesar da quantidade de maconha, o agente está ligado à traficância.
-https://t.co/XK4vxaBCWg</t>
+          <t>Inovação na Educação! 🚀 Andrej Karpathy, ex-Head de IA da Tesla e pesquisador na OpenAI, lança Eureka Labs, uma plataforma educacional "AI nativa" para revolucionar o aprendizado. #IA #Educação #Inovação 🔮</t>
         </is>
       </c>
     </row>
@@ -933,7 +926,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Segundo o STF, a presunção de que se trata de usuário de drogas em relação àquele que porta até 40 gramas de maconha é jure et de jure.</t>
+          <t>Revolucionando a Inteligência Artificial: Novos Avanços da OpenAI - https://t.co/80YbZnJc3W - Decoding AI - https://t.co/GaKDIC21Kr #GoogleAlerts</t>
         </is>
       </c>
     </row>
@@ -943,12 +936,8 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>‘Tem muito deputado que nem sequer tem coragem de falar do STF’, diz Delegado Palumbo
-Deputado federal disse que decisão da Corte sobre a maconha vai ‘prestigiar milhares de traficantes’
-📷 ContraFatos
-Quarta, 03 de Julho - 20h43
-https://t.co/IwCu0yCj9l
- https://t.co/osg8vpdy8g</t>
+          <t>Quanto falta para a IA alcançar a inteligência humana? OpenAI criou escala que indica a distância
+https://t.co/v55ZaiNMRN</t>
         </is>
       </c>
     </row>
@@ -958,7 +947,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>@JoseDinisPFons1 @SenadoFederal @rodrigopacheco @STF_oficial Isso todos brasileiros sabem q drogas e maconha corre frouxo dentro da política q os apoiadores do Lula são maconheiros por isso q eles são a favor do Lula para q na política continue um verdadeiro puteiro dito pelos brasileiros revoltados com essa situação q revolta do povo né.</t>
+          <t>@Mellenixx eu queria muito te responder amg, mas eu não consegui achar em lugar nenhum do site da openai os termos sobre arquivos usados pra contexto</t>
         </is>
       </c>
     </row>
@@ -968,7 +957,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>CAPITÃO SAMUEL FAZ PRONUNCIAMENTO NA CÂMARA DOS CEPUTADOS DEFENDENDO O TRABALHO REALIZADO PELAS COMUNIDADES TERAPEUTICAS E SOBRE A LIBERAÇÃO DA MACONHA PARA USO PRÓPRIO PELO STF - https://t.co/eVQ7OQHcsV https://t.co/LrpPpCadX6</t>
+          <t>OpenAI descartó silenciosamente una promesa de revelar documentos clave al público</t>
         </is>
       </c>
     </row>
@@ -978,12 +967,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>‘Tem muito deputado que nem sequer tem coragem de falar do STF’, diz Delegado Palumbo
-Deputado federal disse que decisão da Corte sobre a maconha vai ‘prestigiar milhares de traficantes’
-📷 ContraFatos
-Quarta, 03 de Julho - 20h43
-https://t.co/MTp0ZzjC5R
- https://t.co/xDJeDCXrjI</t>
+          <t>Um grupo de denunciantes acusou a OpenAI de exigir que seus funcionários assinem acordos de não divulgação ilegalmente restritivos. Advogados enviaram uma carta ao presidente da SEC, alegando que os contratos da OpenAI com funcionários atuais e an… apenas.https://t.co/pdSOGWisCv</t>
         </is>
       </c>
     </row>
@@ -993,7 +977,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Emely winne começou na maconha e acabou nesse estado até morrer. Esse é o futuro que os ministros do STF liberou para os jovens no Brasil, ate eles morrerem. https://t.co/DcbzakQEEG</t>
+          <t>A SORA, ferramenta de geração de vídeo da OpenAI, continua inacessível ao público geral, meses após seu anúncio inicial. Enquanto isso, a empresa segue liberando vídeos criados por artistas selecionados, levantando questões sobre sua estratégia e potencial impacto no mercado. https://t.co/RdwcO4xMfv</t>
         </is>
       </c>
     </row>
@@ -1003,7 +987,8 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>@TGustavoLazaroT O erro tá na médica não no SUS, depois que o STF liberou a maconha o povo tá retardado</t>
+          <t>@goticodocalypso A IA q faz tudo
+https://t.co/6iQTA7M6WQ</t>
         </is>
       </c>
     </row>
@@ -1013,7 +998,8 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>@palmeirasptd @esporteperola Culpa da porra do STF liberar maconha .... aí essas merdas ficam falando bosta no Twitter cheios de maconha na mente.</t>
+          <t>#SamAltman, bilionário cofundador da #OpenAI, foi visto dirigindo um #KoenigseggRegera, avaliado em mais de R$ 20 milhões.
+Conheça mais sobre o carro exclusivo no fio!🧵 https://t.co/BqRum7KIcz</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1009,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ANOTA AÍ O ⁦@STF_oficial⁩ LIBEROU A MACONHA , MAS ESSE JOVEM COMPROU E NAO PAGOU, OS BANDIDOS NÃO PERDOARAM E AGORA SUPREMO TRIBUNAL MILICIANO FEDERAL ? https://t.co/VV7tNQBVzb</t>
+          <t>GPT-4 Turbo https://t.co/j4hPvAPM7l</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1019,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>@STF_oficial Solução do STF é soltar bandido e legalizar a maconha</t>
+          <t>TechCrunch Minuto: Denúncias sobre OpenAI revelam NDAs 'ilegalmente restritivas'. Impactos potenciais na liberdade dos funcionários. 🚀 #Tecnologia #Inovação</t>
         </is>
       </c>
     </row>
@@ -1043,7 +1029,8 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>@Estadao Kkkkkk, editor deve ter fumado a maconha que o stf liberou</t>
+          <t>Os modelos de linguagem da série GPT (Generative Pre-trained Transformer) desenvolvidos pela OpenAI revolucionaram a interação entre humanos e máquinas.
+https://t.co/fc1pl2GspH</t>
         </is>
       </c>
     </row>
@@ -1053,7 +1040,8 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Pivô do caso que descriminalizou maconha no STF está sendo procurado outra vez https://t.co/iAydpptSdV https://t.co/x4NuTB3D3C</t>
+          <t>A evolução da inteligência artificial (IA) tem transformado diversos setores, e uma das inovações mais notáveis é o ChatGPT 4, desenvolvido pela OpenAI.
+https://t.co/HpZpcpetp6</t>
         </is>
       </c>
     </row>
@@ -1063,7 +1051,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Gato muda dieta depois o STF libera a posse da maconha https://t.co/cTejaxOXia</t>
+          <t>Especialista da OpenAI ministra palestra no Instituto de Computação da Ufam https://t.co/8fKSFOSr3d</t>
         </is>
       </c>
     </row>
@@ -1073,8 +1061,11 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Os gauchos estão esperando algum posicionamento sobre auxílios para o Rio Grande do Sul, porque os prefeitos que vieram a Brasília dizem que não receberam nem 1% do que o governo federal divulgou. Foi mais propaganda que uma ação de fato.
-Leia mais em: https://t.co/exLoftQGZC</t>
+          <t>Bom dia! Aqui está seu resumo de 10 segundos da Curto💌Newsletter IA:
+🧠OpenAI perto de criar IA com "raciocínio" humano
+💭IA revoluciona o aprendizado de idiomas
+👀Gemini é pego bisbilhotando documentos pessoais sem autorização
+📹Google testa apresentações em vídeo criadas pela… https://t.co/0jgnVx04EQ https://t.co/ks6mcJMmmh</t>
         </is>
       </c>
     </row>
@@ -1084,7 +1075,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>@Horcini4 @tonygarciareal STF está  fazendo cumprir as leis tanto do aborto legal de 1940 qto da descriminalização da maconha,  esqueci o ano. Vá ao Google.</t>
+          <t>Sam Altman, da OpenAI, anuncia IA “coach de saúde” para pacientes crônicos https://t.co/JHq4KYzJn9</t>
         </is>
       </c>
     </row>
@@ -1094,7 +1085,9 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>@reporterenato Vcs conseguem ver o que o STF fez com aprovação de porte de maconha! Crianças tenham cuidado rsrsrsrs</t>
+          <t>Projeto Strawberry: OpenAI desenvolve novo modelo de IA generativa
+CONFIRA 👇
+https://t.co/TqHKlevI6V https://t.co/SqhLZMVxbE</t>
         </is>
       </c>
     </row>
@@ -1104,11 +1097,9 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>@TI_InterBr @Transparency_HU @Atlatszo Aqui o Brasil o que importa é a democracia inabalável ou relativa do @STF_oficial  ou do @LulaOficial .
-Corrupção é democrático.
-Agora vandalismo  17 anos de prisão.
-Graças ao STF ,quem saqueou o erário ,está livre,leve e solto.
-Maconha até 40 gramas pode também pela democracia</t>
+          <t>IA NEWS: Strawberry, o modelo de Inteligência Artificial da OpenAI que promete melhorar o raciocínio avançado..
+Conteúdo completo no meu blog ⬇️ 
+https://t.co/7QNRoK7k5M</t>
         </is>
       </c>
     </row>
@@ -1118,7 +1109,8 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>@agenciapublica só deve piorar agora que o STF liberou 40g de maconha no segundo país do mundo com mais "nemnem" do mundo, no caso o Brasil.</t>
+          <t>Estava lendo no @nytimes a história da startup de mineração que recentemente encontrou bilhões de dólares em cobre na Zâmbia.
+Investidores da startup incluem Bill Gates e Sam Altman da OpenAI. O modelo de negócios é diferente de uma muneradora comum e eles têm técnicas… https://t.co/UfQKc7HIGm https://t.co/m83lxhWOek</t>
         </is>
       </c>
     </row>
@@ -1128,8 +1120,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>STF define como usuário 40g de maconha 
-A timeline depois disso: https://t.co/JlYtCG9jK9</t>
+          <t>OpenAI voltou a impor limite de uso aos usuarios. https://t.co/MH6d8VhCI1</t>
         </is>
       </c>
     </row>
@@ -1139,7 +1130,8 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ANARCHY NOW!: Decisão do STF sobre maconha traz “limbo” a aborda... https://t.co/IX9kXyTTYE</t>
+          <t>OpenAI desenvolve projeto secreto em IA aprimorada - @T1e1N 
+ https://t.co/FsEvU5AggV</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1141,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ANARCHY NOW!: A descriminalização da maconha votada pelo STF, nã... https://t.co/GbhlNIsW5z</t>
+          <t>O WaPo trabalha com alguns recursos de IA, casos do ChatGPT, da OpenAI, e Llama, da Meta, para alimentar o próprio modelo de linguagem.</t>
         </is>
       </c>
     </row>
@@ -1159,8 +1151,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Descriminalização da maconha: caso chegou ao STF com atuação de ONGs financiadas pela Open Society
-https://t.co/Nxjnx1NSjT</t>
+          <t>Projeto Strawberry: OpenAI desenvolve novo modelo de IA generativa https://t.co/bPWv5kouyc via @TI INSIDE Online</t>
         </is>
       </c>
     </row>
@@ -1170,11 +1161,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>‘Tem muito deputado que nem sequer tem coragem de falar do STF’, diz Delegado Palumbo
-Deputado federal disse que decisão da Corte sobre a maconha vai ‘prestigiar milhares de traficantes’
-📷 ContraFatos
-Quarta, 03 de Julho - 20h43
-https://t.co/Gn8XIDL7w1</t>
+          <t>#NowPlaying #PodCast #5MinutesPodCast - OpenAI: Dominando a Comunicação com Interessados com a Nova Escala de 5 Níveis de IA https://t.co/aCyvHRMmze</t>
         </is>
       </c>
     </row>
@@ -1184,7 +1171,9 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>@enrichthesoil os cara tudo caindo em fake news de deputado do PL que disseram q o STF legalizou uso de maconha, impressionante</t>
+          <t>♦️ ChatGPT / @OpenAI
+→ O ChatGPT é um agente de conversação sofisticado, alimentado por IA, que tem como objetivo transformar a forma como os humanos interagem com a tecnologia.
+🔗https://t.co/jFYj4KSHmi https://t.co/CSgpI5OVq7</t>
         </is>
       </c>
     </row>
@@ -1194,8 +1183,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>EXTRA EXTRA ❗️
-STF DECIDE REVER AUTORIZAÇÃO PARA PORTAR 40G DE MACONHA, POIS, ANTES MESMO DO PL SER SANCIONADO, A LOMBRA CHEGOU BEM ANTES DO ESPERADO. https://t.co/tQeqijS5Fi</t>
+          <t>@wolf_castilho Falta aí Claude da Anthropic a dar porrada na OpenAi</t>
         </is>
       </c>
     </row>
@@ -1205,7 +1193,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>@haddad, a maconha vai ter o imposto do pecado? Quem cai recolher esse imposto? Pergunta pro @STF_oficial ! https://t.co/GZMY9EsXGb</t>
+          <t>serassi um dia o openai ira me desbloquear😭😭</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1203,8 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>@misteriouspavao Por isso que o STF liberou a maconha....</t>
+          <t>@eikebatista Este ano, chegaram por lá em seus jatos particulares figuras como o fundador da Amazon, Jeff Bezos, o CEO da OpenAI, Sam Altman, o CEO da Apple, Tim Cook, o CEO da Disney, Bob Iger, o CEO da Warner Bros, David Zaslav, Bill Gates, cofundador da Microsoft, 
+BBC</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1214,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>@desireerugani Cara vende maconha que o STF já te garantiu a legalidade.  O pior é que não tem um político bolsonarista no rio para ir contra essa safadeza. Não é mesmo @CarlosBolsonaro @carlosjordy  @nikolas_dm @a_jessicao @AdrillesRJorge</t>
+          <t>The CCP-esque OpenAI flag :) https://t.co/dJhegkomsf</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1224,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>@NewsLiberdade Ainda mais agora que o STF liberou a maconha!</t>
+          <t>OpenAI projeta ‘IA suprema’ capaz de substituir humanos (e empresas) https://t.co/MRhUnYXS6u</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1234,8 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Meu dedo coça pra responder qualquer storie falando sobre a decisão do STF sobre maconha com: Aiai esse STF……..</t>
+          <t>@andreiformiga @ramalhoorg Sim, esse vai ser o grande desafio do AI Overview da busca do Google. Até porque não tem como eliminar totalmente as alucinações, apenas mitiga-las. 
+Mas comparando o GPT com o Gemini, o da OpenAI não vi nenhuma alucinação ainda. Já o Gemini alucina o próprio conteúdo do link rs</t>
         </is>
       </c>
     </row>
@@ -1255,11 +1245,9 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>@STF_oficial É ideologia de gênero 
-É aborto
-É descriminalização do porte da maconha
-É facilitar a vida do bandido 
-Onde vamos parar com essa ditadura da toga?</t>
+          <t>OpenAI trabalha em projeto para melhorar capacidade de raciocínio de IA
+https://t.co/uQCEffdbBv
+#Paraibabusiness #Jp #Paraíba #OpenAI #InteligênciaArtificial #IA #Tecnologia #Inovação #RaciocínioArtificial #DesenvolvimentoTecnológico</t>
         </is>
       </c>
     </row>
@@ -1269,7 +1257,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>@STF_oficial Aonde compraremos a maconha legal?</t>
+          <t>Modelo de linguagem em Português.
+Bem rápido e gratuito.
+Tô testando e estou adorando.
+Não deixa nada a desejar com OpenAi pago.
+https://t.co/OZSUfaDW8J
+Dica da @ninadhora https://t.co/wugXpXDGZ9</t>
         </is>
       </c>
     </row>
@@ -1279,8 +1272,8 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>O Supremo Tribunal Federal (STF) encerrou um julgamento histórico nesta quarta-feira 26,  ao decidir, por 6 votos a 3, pela descriminalização do porte de maconha para uso pessoal. Após nove anos de interrupções, a Corte estabeleceu a quantia de até 40 ...
-https://t.co/MXfMgLJxuI</t>
+          <t>Será que substitui políticos ou juízes?
+OpenAI projeta ‘IA suprema’, capaz de substituir humanos (e empresas) https://t.co/OpEnNGaHkv</t>
         </is>
       </c>
     </row>
@@ -1290,8 +1283,8 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>@SamBolsoSim No final do vídeo ela pula do prédio doidaça de maconha assiste o vídeo até o final esse é o STF propõe liberação de maconha
-Quem vai assumir esse. BO ? https://t.co/4eC2zMXHPJ</t>
+          <t>"O ChatGPT é um modelo de linguagem desenvolvido pela OpenAI, baseado na arquitetura GPT (Generative Pre-trained Transformer).
+Ele é projetado para entender e gerar texto humano natural [...]" https://t.co/8yZwpD4VA6 via @Luiz___Ladeira</t>
         </is>
       </c>
     </row>
@@ -1301,8 +1294,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>@Prof_leonelfer No final do vídeo ela pula do prédio doidaça de maconha assiste o vídeo até o final esse é o STF propõe liberação de maconha
-Quem vai assumir esse. BO ? https://t.co/KNWqQhbPVg</t>
+          <t>OpenAI desenvolve escala que aumenta a capacidade da inteligência artificial https://t.co/cPha1pBGj5</t>
         </is>
       </c>
     </row>
@@ -1312,7 +1304,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>@roxmo Será efeito da decisão do STF de liberar a maconha?🤔</t>
+          <t>Os pesquisadores da Tencent AI Lab desenvolveram personalidades sintéticas que podem gerar dados para treinar IA, atingindo resultados comparáveis aos da OpenAI, com aplicações em jogos e ferramentas profissionais. #Tecnologia #IA #Inovação</t>
         </is>
       </c>
     </row>
@@ -1322,7 +1314,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>@tinojunior @recordtvoficial @recordtvrio Bolsonaro liberou geral nas armas. Depois a policia que deu arma pro bandido, vai lá pra trocar tiros com eles. É a própria policia que provoca confronto e mortes desnecessária. Foi só o STF descriminalizar o porte de maconha, que a policia está furiosa invadindo as favelas.</t>
+          <t>OpenAI desenvolve a IA "Strawberry" para realizar pesquisas avançadas na web de forma autônoma, visando aprimorar o raciocínio e executar tarefas complexas https://t.co/l8LQFYTI2x</t>
         </is>
       </c>
     </row>
@@ -1332,10 +1324,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>@MaisForca @mspbra @STF_oficial Aí eu sou obrigado a discordar de você.
-Pra ficar doidão desse jeito aí, nem fumando 10 kg de maconha de uma vez não consegue.
-Aí é coisa bem mais pesada.
-🤣🤣🤣🤣🤣🤣🤣🤣🤣🤣🤣🤣🤣🤣</t>
+          <t>OpenAI diz que IA está chegando ao nível 2 (e o máximo é 5) https://t.co/E9bxGmrHeh</t>
         </is>
       </c>
     </row>
@@ -1345,7 +1334,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Já q o STF liberou plantar até 6 fêmeas de maconha em casa, alguém me indica onde comprar as sementes please?</t>
+          <t>OpenAI desenvolve escala que aumenta a capacidade da inteligência artificial https://t.co/6fM7l1xW0Z</t>
         </is>
       </c>
     </row>
@@ -1355,8 +1344,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>@NewsLiberdade @GayerGus @nikolas_dm Concordo com Gayer. E vou mais além. Acho que o STF deveria criminalizar não só a maconha, mas também as bebidas alcoólicas. 
-Imaginem quantos acidentes causados por motoristas embriagados seriam evitados e quantas vidas seriam poupadas!</t>
+          <t>Scarlett Johansson concordou que o CEO da OpenAI, Sam Altman, seria um bom vilão da Marvel e ainda acrescentou que ele poderia usar um "braço robótico" https://t.co/RSKfGe2469</t>
         </is>
       </c>
     </row>
@@ -1366,7 +1354,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Pô, qual é o problema? Este treco rola por aí já faz tempo. Põe tempo nisto. Vai fazer o que para acabar com isto? Nada. Pura palhaçada. Uma canalhice de um Senador que critica STF e diz que 40g de maconha dá para fazer 133 baseados https://t.co/FtrHr3tr5T</t>
+          <t>OpenAI diz que IA está chegando ao nível 2 (e o máximo é 5) – ACESSE agora 👇 https://t.co/nDBvO7BYDF</t>
         </is>
       </c>
     </row>
@@ -1376,7 +1364,8 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Após decisão do STF, Sâmia Bomfim apresenta projeto para anistiar todos os presos que foram pegos com menos de 40 gramas de maconha https://t.co/TryjjmyjBG</t>
+          <t>OpenAI diz que IA está chegando ao nível 2 (e o máximo é 5)!
+https://t.co/bwy4tS5ecg</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1375,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>@desireerugani E proibido vender bolo, mas vender maconha STF aprova</t>
+          <t>OpenAI diz que IA está chegando ao nível 2 (e o máximo é 5) – Tecnoblog https://t.co/G0a59mEJph</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1385,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Maconha: STF ignorou advertências do médico especialista Ronaldo Laranjeiras, que alertou sobre os riscos da liberação do porte de maconha “para consumo próprio”, afinal limitado a 40g. Foi uma decisão “muito frágeis sob os pontos de vista intelectual e científico”.</t>
+          <t>Parece que a OpenAI está desenvolvendo algo incrível: o Projeto Strawberry. Um modelo de IA que promete ir além de simples respostas, planejando e pesquisando na internet para oferecer informações completas e confiáveis. Quer saber mais? Confira o post: https://t.co/Raydh6jslw</t>
         </is>
       </c>
     </row>
@@ -1406,8 +1395,8 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Eu na formatura do PROERD da minha filha, e tem uma cara com cheiro de maconha do meu lado, provavelmente o pai de uma criança. 
-Florianópolis já legalizou há décadas, afinal apenas 14% da polução é preta. Aqui é liberado, faz tempo STF.</t>
+          <t>OpenAI perto de criar IA com “raciocínio” humano; entenda
+https://t.co/FoaMyTMKhw</t>
         </is>
       </c>
     </row>
@@ -1417,7 +1406,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Tão vendo aí o problema do STF liberar a maconha?????? https://t.co/aLuEjmsiYJ</t>
+          <t>OpenAI is pixar coded</t>
         </is>
       </c>
     </row>
@@ -1427,7 +1416,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>@eupvfaria Isso é culpa do STF que liberou 40g de maconha aí esse lunáticos viraram cientistas políticos.</t>
+          <t>A empresa sediada em Herzliya venceu mais de 5.000 indicados de mais de 20 países para conquistar o prestigioso prêmio. Entre os vencedores anteriores do AI Breakthrough estão a OpenAI e a Deloitte.</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1426,8 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Descriminalização da maconha pelo STF começa a valer, mas Congresso pode derrubar critério de 40g https://t.co/tVZLyKC9Ja</t>
+          <t>Protocolo de segurança da OpenAI é alvo de críticas -
+https://t.co/Xp7te7wi98</t>
         </is>
       </c>
     </row>
@@ -1447,7 +1437,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>@rkivsly foi só descriminalizar a maconha maldito stf</t>
+          <t>@Funtico_com @OpenAI @GoogleAI Funticonauts</t>
         </is>
       </c>
     </row>
@@ -1457,7 +1447,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>@BolsonaroSP A culpa e do STF que liberou a maconha vocês estão tudo louco, kkkkkkkk, XANDAO TA CAGANDO E ANDANDO PRA VOCES.</t>
+          <t>OpenAI anuncia parceria com laboratório que criou a bomba atômica: https://t.co/tp05NPryWl https://t.co/kV4Wr6jN40</t>
         </is>
       </c>
     </row>
@@ -1467,7 +1457,8 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>VÍDEO: Apesar da decisão do STF sobre maconha, comandante da PM em Cajazeiras alerta: “Não está liberada” https://t.co/8i6TBepWdp #noticias #saobentoemfoco #urgente</t>
+          <t>📰 OpenAI e a Ascensão da IA: Humanos Ameaçados?
+https://t.co/iWm2c9OO7z</t>
         </is>
       </c>
     </row>
@@ -1477,7 +1468,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Kkk de nv o morais vai censura tudo vcs são marionetes falam falam e o STF q manda para de fazer mídia nossos votos em vcs não valem foi assim com a maconha foi assim com aborto https://t.co/fkv67hphG8</t>
+          <t>OpenAI trabalha em projeto para melhorar capacidade de raciocínio de seus modelos de IA https://t.co/BzkBPTXVZt</t>
         </is>
       </c>
     </row>
@@ -1487,8 +1478,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://t.co/B7T0mlDvEY
-BRAVO!!! 👏🏻👏🏻👏🏻👏🏻👏🏻👏🏻👏🏻👏🏻👏🏻</t>
+          <t>OpenAI está a desenvolver uma nova tecnologia de raciocínio chamada “Strawberry”, que visa permitir que os seus modelos de IA "raciocinem" de forma mais eficaz, planeando com antecedência, navegando na internet de forma autónoma e realizando pesquisas complexas, avança a Reuters. https://t.co/GiroU973Nk</t>
         </is>
       </c>
     </row>
@@ -1498,7 +1488,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>@eritonb Talvez é o próximo pedido do #LulaPareDeFalarMerda pro @STF_oficial  ... depois das 40g de maconha vem a pedofilia livre sob o manto do amor do homem pela menina rsrs</t>
+          <t>Projeto secreto da OpenAI quer dar capacidades de raciocínio avançadas ao ChatGPT. https://t.co/zSQ5KiLFme</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>@pragtigesa @mspbra a OpenAi literalmente tem vínculos com as poderosíssimas Microsoft e Apple, foi cofundada por Elon Musk e vai ter viés ideológico de esquerda sim.</t>
         </is>
       </c>
     </row>
